--- a/src/DATA.xlsx
+++ b/src/DATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COBA\CODING\Pavement-Layers-Optimization-Model\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COBA\CODING\PAVIMENTAÇÃO\Pavement-Layers-Optimization-Model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA038E7-10ED-48D1-B33C-76C38238C2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275D939A-0667-4703-BA11-78D935796223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3977E240-FD55-4A91-9DBE-A7537FB81EA0}"/>
   </bookViews>
@@ -463,7 +463,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:I644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,7 @@
         <v>43025</v>
       </c>
       <c r="B3" s="2">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -563,7 +563,7 @@
         <v>43050</v>
       </c>
       <c r="B4" s="2">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -592,7 +592,7 @@
         <v>43075</v>
       </c>
       <c r="B5" s="2">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -621,7 +621,7 @@
         <v>43100</v>
       </c>
       <c r="B6" s="2">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -650,7 +650,7 @@
         <v>43125</v>
       </c>
       <c r="B7" s="2">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -708,7 +708,7 @@
         <v>43175</v>
       </c>
       <c r="B9" s="2">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>43200</v>
       </c>
       <c r="B10" s="2">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>43225</v>
       </c>
       <c r="B11" s="2">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
@@ -795,7 +795,7 @@
         <v>43250</v>
       </c>
       <c r="B12" s="2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>43275</v>
       </c>
       <c r="B13" s="2">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>43300</v>
       </c>
       <c r="B14" s="2">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>43325</v>
       </c>
       <c r="B15" s="2">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>43400</v>
       </c>
       <c r="B18" s="2">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>43450</v>
       </c>
       <c r="B20" s="2">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>1</v>
@@ -1056,7 +1056,7 @@
         <v>43475</v>
       </c>
       <c r="B21" s="2">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>1</v>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="2">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="2">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1309,7 +1309,7 @@
         <v>0.25</v>
       </c>
       <c r="I29" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1338,7 +1338,7 @@
         <v>0.25</v>
       </c>
       <c r="I30" s="2">
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1367,7 +1367,7 @@
         <v>0.25</v>
       </c>
       <c r="I31" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
         <v>0.25</v>
       </c>
       <c r="I32" s="2">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1425,7 +1425,7 @@
         <v>0.25</v>
       </c>
       <c r="I33" s="2">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1454,7 +1454,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I34" s="2">
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>0.33</v>
       </c>
       <c r="I35" s="2">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
         <v>0.27</v>
       </c>
       <c r="I36" s="2">
-        <v>0.37</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
         <v>0.4</v>
       </c>
       <c r="I37" s="2">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
         <v>0.41</v>
       </c>
       <c r="I38" s="2">
-        <v>0.49</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>0.35</v>
       </c>
       <c r="I39" s="2">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1628,7 +1628,7 @@
         <v>0.31</v>
       </c>
       <c r="I40" s="2">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1657,7 +1657,7 @@
         <v>0.36</v>
       </c>
       <c r="I41" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1686,7 +1686,7 @@
         <v>0.37</v>
       </c>
       <c r="I42" s="2">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1715,7 +1715,7 @@
         <v>0.37</v>
       </c>
       <c r="I43" s="2">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1744,7 +1744,7 @@
         <v>0.37</v>
       </c>
       <c r="I44" s="2">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1773,7 +1773,7 @@
         <v>0.4</v>
       </c>
       <c r="I45" s="2">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1802,7 +1802,7 @@
         <v>0.4</v>
       </c>
       <c r="I46" s="2">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
         <v>0.42</v>
       </c>
       <c r="I47" s="2">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
         <v>0.41</v>
       </c>
       <c r="I48" s="2">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1889,7 +1889,7 @@
         <v>0.39</v>
       </c>
       <c r="I49" s="2">
-        <v>0.36</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>0.41</v>
       </c>
       <c r="I50" s="2">
-        <v>0.39</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -1947,7 +1947,7 @@
         <v>0.42</v>
       </c>
       <c r="I51" s="2">
-        <v>0.36</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -1976,7 +1976,7 @@
         <v>0.42</v>
       </c>
       <c r="I52" s="2">
-        <v>0.39</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2005,7 +2005,7 @@
         <v>0.42</v>
       </c>
       <c r="I53" s="2">
-        <v>0.37</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2034,7 +2034,7 @@
         <v>0.41</v>
       </c>
       <c r="I54" s="2">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2063,7 +2063,7 @@
         <v>0.43</v>
       </c>
       <c r="I55" s="2">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,7 @@
         <v>0.4</v>
       </c>
       <c r="I56" s="2">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2121,7 +2121,7 @@
         <v>0.41</v>
       </c>
       <c r="I57" s="2">
-        <v>0.36</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2150,7 +2150,7 @@
         <v>0.37</v>
       </c>
       <c r="I58" s="2">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2179,7 +2179,7 @@
         <v>0.35</v>
       </c>
       <c r="I59" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>0.36</v>
       </c>
       <c r="I60" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
         <v>0.3</v>
       </c>
       <c r="I61" s="2">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2266,7 +2266,7 @@
         <v>0.27</v>
       </c>
       <c r="I62" s="2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2295,7 +2295,7 @@
         <v>0.26</v>
       </c>
       <c r="I63" s="2">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2324,7 +2324,7 @@
         <v>0.25</v>
       </c>
       <c r="I64" s="2">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2353,7 +2353,7 @@
         <v>0.25</v>
       </c>
       <c r="I65" s="2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2382,7 +2382,7 @@
         <v>0.3</v>
       </c>
       <c r="I66" s="2">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2411,7 +2411,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I67" s="2">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I68" s="2">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2469,7 +2469,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I69" s="2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2489,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="2">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="G70" s="2">
         <v>0.28000000000000003</v>
@@ -2498,7 +2498,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I70" s="2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2527,7 +2527,7 @@
         <v>0.27</v>
       </c>
       <c r="I71" s="2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2556,7 +2556,7 @@
         <v>0.25</v>
       </c>
       <c r="I72" s="2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2585,7 +2585,7 @@
         <v>0.25</v>
       </c>
       <c r="I73" s="2">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2614,7 +2614,7 @@
         <v>0.25</v>
       </c>
       <c r="I74" s="2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2643,7 +2643,7 @@
         <v>0.25</v>
       </c>
       <c r="I75" s="2">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>0.4</v>
       </c>
       <c r="I76" s="2">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2701,7 +2701,7 @@
         <v>0.45</v>
       </c>
       <c r="I77" s="2">
-        <v>0.62</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2730,7 +2730,7 @@
         <v>0.44</v>
       </c>
       <c r="I78" s="2">
-        <v>0.65</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2759,7 +2759,7 @@
         <v>0.41</v>
       </c>
       <c r="I79" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2788,7 +2788,7 @@
         <v>0.41</v>
       </c>
       <c r="I80" s="2">
-        <v>0.54</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2817,7 +2817,7 @@
         <v>0.33</v>
       </c>
       <c r="I81" s="2">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2846,7 +2846,7 @@
         <v>0.34</v>
       </c>
       <c r="I82" s="2">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
         <v>0.32</v>
       </c>
       <c r="I83" s="2">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2904,7 +2904,7 @@
         <v>0.34</v>
       </c>
       <c r="I84" s="2">
-        <v>0.47</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -2933,7 +2933,7 @@
         <v>0.33</v>
       </c>
       <c r="I85" s="2">
-        <v>0.47</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2962,7 +2962,7 @@
         <v>0.32</v>
       </c>
       <c r="I86" s="2">
-        <v>0.48</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -2991,7 +2991,7 @@
         <v>0.3</v>
       </c>
       <c r="I87" s="2">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3020,7 +3020,7 @@
         <v>0.31</v>
       </c>
       <c r="I88" s="2">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3049,7 +3049,7 @@
         <v>0.27</v>
       </c>
       <c r="I89" s="2">
-        <v>0.39</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3078,7 +3078,7 @@
         <v>0.27</v>
       </c>
       <c r="I90" s="2">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3107,7 +3107,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I91" s="2">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3136,7 +3136,7 @@
         <v>0.25</v>
       </c>
       <c r="I92" s="2">
-        <v>0.36</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I93" s="2">
-        <v>0.37</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3194,7 +3194,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I94" s="2">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3223,7 +3223,7 @@
         <v>0.27</v>
       </c>
       <c r="I95" s="2">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3252,7 +3252,7 @@
         <v>0.26</v>
       </c>
       <c r="I96" s="2">
-        <v>0.39</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3281,7 +3281,7 @@
         <v>0.25</v>
       </c>
       <c r="I97" s="2">
-        <v>0.37</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3310,7 +3310,7 @@
         <v>0.25</v>
       </c>
       <c r="I98" s="2">
-        <v>0.37</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3339,7 +3339,7 @@
         <v>0.25</v>
       </c>
       <c r="I99" s="2">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3368,7 +3368,7 @@
         <v>0.25</v>
       </c>
       <c r="I100" s="2">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3397,7 +3397,7 @@
         <v>0.25</v>
       </c>
       <c r="I101" s="2">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3426,7 +3426,7 @@
         <v>0.25</v>
       </c>
       <c r="I102" s="2">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3455,7 +3455,7 @@
         <v>0.25</v>
       </c>
       <c r="I103" s="2">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
         <v>0.25</v>
       </c>
       <c r="I104" s="2">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3513,7 +3513,7 @@
         <v>0.26</v>
       </c>
       <c r="I105" s="2">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3542,7 +3542,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I106" s="2">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3571,7 +3571,7 @@
         <v>0.25</v>
       </c>
       <c r="I107" s="2">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3600,7 +3600,7 @@
         <v>0.25</v>
       </c>
       <c r="I108" s="2">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3629,7 +3629,7 @@
         <v>0.25</v>
       </c>
       <c r="I109" s="2">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3658,7 +3658,7 @@
         <v>0.25</v>
       </c>
       <c r="I110" s="2">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3687,7 +3687,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I111" s="2">
-        <v>0.26</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3716,7 +3716,7 @@
         <v>0.35</v>
       </c>
       <c r="I112" s="2">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3745,7 +3745,7 @@
         <v>0.32</v>
       </c>
       <c r="I113" s="2">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3774,7 +3774,7 @@
         <v>0.34</v>
       </c>
       <c r="I114" s="2">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3803,7 +3803,7 @@
         <v>0.35</v>
       </c>
       <c r="I115" s="2">
-        <v>0.37</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3832,7 +3832,7 @@
         <v>0.36</v>
       </c>
       <c r="I116" s="2">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3861,7 +3861,7 @@
         <v>0.37</v>
       </c>
       <c r="I117" s="2">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3890,7 +3890,7 @@
         <v>0.38</v>
       </c>
       <c r="I118" s="2">
-        <v>0.37</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3919,7 +3919,7 @@
         <v>0.37</v>
       </c>
       <c r="I119" s="2">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3948,7 +3948,7 @@
         <v>0.36</v>
       </c>
       <c r="I120" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3977,7 +3977,7 @@
         <v>0.35</v>
       </c>
       <c r="I121" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4006,7 +4006,7 @@
         <v>0.35</v>
       </c>
       <c r="I122" s="2">
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4035,7 +4035,7 @@
         <v>0.34</v>
       </c>
       <c r="I123" s="2">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4055,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="2">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="G124" s="2">
         <v>0.37</v>
@@ -4064,7 +4064,7 @@
         <v>0.37</v>
       </c>
       <c r="I124" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4093,7 +4093,7 @@
         <v>0.36</v>
       </c>
       <c r="I125" s="2">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4122,7 +4122,7 @@
         <v>0.38</v>
       </c>
       <c r="I126" s="2">
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4151,7 +4151,7 @@
         <v>0.38</v>
       </c>
       <c r="I127" s="2">
-        <v>0.25</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4180,7 +4180,7 @@
         <v>0.39</v>
       </c>
       <c r="I128" s="2">
-        <v>0.25</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4209,7 +4209,7 @@
         <v>0.39</v>
       </c>
       <c r="I129" s="2">
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4238,7 +4238,7 @@
         <v>0.38</v>
       </c>
       <c r="I130" s="2">
-        <v>0.27</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4267,7 +4267,7 @@
         <v>0.39</v>
       </c>
       <c r="I131" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4296,7 +4296,7 @@
         <v>0.41</v>
       </c>
       <c r="I132" s="2">
-        <v>0.3</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4325,7 +4325,7 @@
         <v>0.4</v>
       </c>
       <c r="I133" s="2">
-        <v>0.27</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4354,7 +4354,7 @@
         <v>0.42</v>
       </c>
       <c r="I134" s="2">
-        <v>0.3</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4383,7 +4383,7 @@
         <v>0.46</v>
       </c>
       <c r="I135" s="2">
-        <v>0.36</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -4412,7 +4412,7 @@
         <v>0.48</v>
       </c>
       <c r="I136" s="2">
-        <v>0.33</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -4441,7 +4441,7 @@
         <v>0.51</v>
       </c>
       <c r="I137" s="2">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -4470,7 +4470,7 @@
         <v>0.5</v>
       </c>
       <c r="I138" s="2">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -4499,7 +4499,7 @@
         <v>0.51</v>
       </c>
       <c r="I139" s="2">
-        <v>0.35</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4528,7 +4528,7 @@
         <v>0.45</v>
       </c>
       <c r="I140" s="2">
-        <v>0.31</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -4557,7 +4557,7 @@
         <v>0.41</v>
       </c>
       <c r="I141" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -4586,7 +4586,7 @@
         <v>0.37</v>
       </c>
       <c r="I142" s="2">
-        <v>0.26</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -4615,7 +4615,7 @@
         <v>0.36</v>
       </c>
       <c r="I143" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -4644,7 +4644,7 @@
         <v>0.36</v>
       </c>
       <c r="I144" s="2">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -4673,7 +4673,7 @@
         <v>0.37</v>
       </c>
       <c r="I145" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -4702,7 +4702,7 @@
         <v>0.37</v>
       </c>
       <c r="I146" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -4731,7 +4731,7 @@
         <v>0.33</v>
       </c>
       <c r="I147" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -4760,7 +4760,7 @@
         <v>0.33</v>
       </c>
       <c r="I148" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -4789,7 +4789,7 @@
         <v>0.38</v>
       </c>
       <c r="I149" s="2">
-        <v>0.36</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -4818,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="I150" s="2">
-        <v>0.37</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5058,7 +5058,7 @@
         <v>46925</v>
       </c>
       <c r="B159" s="2">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C159" s="2">
         <v>0.25</v>
@@ -5145,7 +5145,7 @@
         <v>47000</v>
       </c>
       <c r="B162" s="2">
-        <v>0.26</v>
+        <v>0.45</v>
       </c>
       <c r="C162" s="2">
         <v>0.26</v>
@@ -5174,7 +5174,7 @@
         <v>47025</v>
       </c>
       <c r="B163" s="2">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="C163" s="2">
         <v>0.28000000000000003</v>
@@ -5203,7 +5203,7 @@
         <v>47050</v>
       </c>
       <c r="B164" s="2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="C164" s="2">
         <v>0.25</v>
@@ -5232,7 +5232,7 @@
         <v>47075</v>
       </c>
       <c r="B165" s="2">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="C165" s="2">
         <v>0.25</v>
@@ -5261,7 +5261,7 @@
         <v>47100</v>
       </c>
       <c r="B166" s="2">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="C166" s="2">
         <v>0.25</v>
@@ -5290,7 +5290,7 @@
         <v>47125</v>
       </c>
       <c r="B167" s="2">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="C167" s="2">
         <v>0.25</v>
@@ -5386,10 +5386,10 @@
         <v>0.25</v>
       </c>
       <c r="E170" s="2">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="F170" s="2">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>1</v>
@@ -5406,7 +5406,7 @@
         <v>47225</v>
       </c>
       <c r="B171" s="2">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C171" s="2">
         <v>0.25</v>
@@ -5435,7 +5435,7 @@
         <v>47250</v>
       </c>
       <c r="B172" s="2">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C172" s="2">
         <v>0.25</v>
@@ -5464,7 +5464,7 @@
         <v>47275</v>
       </c>
       <c r="B173" s="2">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C173" s="2">
         <v>0.25</v>
@@ -5522,7 +5522,7 @@
         <v>47325</v>
       </c>
       <c r="B175" s="2">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="C175" s="2">
         <v>0.25</v>
@@ -5783,7 +5783,7 @@
         <v>47550</v>
       </c>
       <c r="B184" s="2">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>1</v>
@@ -5812,7 +5812,7 @@
         <v>47575</v>
       </c>
       <c r="B185" s="2">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>1</v>
@@ -6094,7 +6094,7 @@
         <v>0.37</v>
       </c>
       <c r="I194" s="2">
-        <v>0.59</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -6123,7 +6123,7 @@
         <v>0.36</v>
       </c>
       <c r="I195" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6152,7 +6152,7 @@
         <v>0.39</v>
       </c>
       <c r="I196" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6181,7 +6181,7 @@
         <v>0.37</v>
       </c>
       <c r="I197" s="2">
-        <v>0.53</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6210,7 +6210,7 @@
         <v>0.38</v>
       </c>
       <c r="I198" s="2">
-        <v>0.54</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6239,7 +6239,7 @@
         <v>0.37</v>
       </c>
       <c r="I199" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -6268,7 +6268,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I200" s="2">
-        <v>0.37</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -6297,7 +6297,7 @@
         <v>0.25</v>
       </c>
       <c r="I201" s="2">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -6326,7 +6326,7 @@
         <v>0.25</v>
       </c>
       <c r="I202" s="2">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -6355,7 +6355,7 @@
         <v>0.25</v>
       </c>
       <c r="I203" s="2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -6384,7 +6384,7 @@
         <v>0.25</v>
       </c>
       <c r="I204" s="2">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -6413,7 +6413,7 @@
         <v>0.25</v>
       </c>
       <c r="I205" s="2">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -6442,7 +6442,7 @@
         <v>0.25</v>
       </c>
       <c r="I206" s="2">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -6471,7 +6471,7 @@
         <v>0.25</v>
       </c>
       <c r="I207" s="2">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -6500,7 +6500,7 @@
         <v>0.25</v>
       </c>
       <c r="I208" s="2">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -6529,7 +6529,7 @@
         <v>0.25</v>
       </c>
       <c r="I209" s="2">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -6558,7 +6558,7 @@
         <v>0.25</v>
       </c>
       <c r="I210" s="2">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -6587,7 +6587,7 @@
         <v>0.25</v>
       </c>
       <c r="I211" s="2">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -6616,7 +6616,7 @@
         <v>0.25</v>
       </c>
       <c r="I212" s="2">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -6645,7 +6645,7 @@
         <v>0.25</v>
       </c>
       <c r="I213" s="2">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -6674,7 +6674,7 @@
         <v>0.25</v>
       </c>
       <c r="I214" s="2">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="I215" s="2">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -6827,7 +6827,7 @@
         <v>48450</v>
       </c>
       <c r="B220" s="2">
-        <v>0.49</v>
+        <v>0.68</v>
       </c>
       <c r="C220" s="2">
         <v>0.36</v>
@@ -6856,7 +6856,7 @@
         <v>48475</v>
       </c>
       <c r="B221" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.72</v>
       </c>
       <c r="C221" s="2">
         <v>0.41</v>
@@ -6885,7 +6885,7 @@
         <v>48500</v>
       </c>
       <c r="B222" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.65</v>
       </c>
       <c r="C222" s="2">
         <v>0.44</v>
@@ -6943,7 +6943,7 @@
         <v>48550</v>
       </c>
       <c r="B224" s="2">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="C224" s="2">
         <v>0.31</v>
@@ -6972,7 +6972,7 @@
         <v>48575</v>
       </c>
       <c r="B225" s="2">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="C225" s="2">
         <v>0.33</v>
@@ -7001,7 +7001,7 @@
         <v>48600</v>
       </c>
       <c r="B226" s="2">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="C226" s="2">
         <v>0.48</v>
@@ -7030,7 +7030,7 @@
         <v>48625</v>
       </c>
       <c r="B227" s="2">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="C227" s="2">
         <v>0.53</v>
@@ -7088,7 +7088,7 @@
         <v>48675</v>
       </c>
       <c r="B229" s="2">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="C229" s="2">
         <v>0.47</v>
@@ -7117,7 +7117,7 @@
         <v>48700</v>
       </c>
       <c r="B230" s="2">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="C230" s="2">
         <v>0.31</v>
@@ -7146,7 +7146,7 @@
         <v>48725</v>
       </c>
       <c r="B231" s="2">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
       <c r="C231" s="2">
         <v>0.25</v>
@@ -7175,7 +7175,7 @@
         <v>48750</v>
       </c>
       <c r="B232" s="2">
-        <v>0.47</v>
+        <v>0.66</v>
       </c>
       <c r="C232" s="2">
         <v>0.28000000000000003</v>
@@ -7204,7 +7204,7 @@
         <v>48775</v>
       </c>
       <c r="B233" s="2">
-        <v>0.49</v>
+        <v>0.68</v>
       </c>
       <c r="C233" s="2">
         <v>0.28999999999999998</v>
@@ -7233,7 +7233,7 @@
         <v>48800</v>
       </c>
       <c r="B234" s="2">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
       <c r="C234" s="2">
         <v>0.25</v>
@@ -7262,7 +7262,7 @@
         <v>48825</v>
       </c>
       <c r="B235" s="2">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="C235" s="2">
         <v>0.25</v>
@@ -7552,7 +7552,7 @@
         <v>49075</v>
       </c>
       <c r="B245" s="2">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
       <c r="C245" s="2">
         <v>0.3</v>
@@ -7581,7 +7581,7 @@
         <v>49100</v>
       </c>
       <c r="B246" s="2">
-        <v>0.53</v>
+        <v>0.72</v>
       </c>
       <c r="C246" s="2">
         <v>0.34</v>
@@ -7610,7 +7610,7 @@
         <v>49125</v>
       </c>
       <c r="B247" s="2">
-        <v>0.54</v>
+        <v>0.73</v>
       </c>
       <c r="C247" s="2">
         <v>0.34</v>
@@ -7639,7 +7639,7 @@
         <v>49150</v>
       </c>
       <c r="B248" s="2">
-        <v>0.49</v>
+        <v>0.68</v>
       </c>
       <c r="C248" s="2">
         <v>0.32</v>
@@ -7784,7 +7784,7 @@
         <v>49275</v>
       </c>
       <c r="B253" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.73</v>
       </c>
       <c r="C253" s="2">
         <v>0.42</v>
@@ -7842,7 +7842,7 @@
         <v>49325</v>
       </c>
       <c r="B255" s="2">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
       <c r="C255" s="2">
         <v>0.45</v>
@@ -7871,7 +7871,7 @@
         <v>49350</v>
       </c>
       <c r="B256" s="2">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="C256" s="2">
         <v>0.36</v>
@@ -7900,7 +7900,7 @@
         <v>49375</v>
       </c>
       <c r="B257" s="2">
-        <v>0.26</v>
+        <v>0.45</v>
       </c>
       <c r="C257" s="2">
         <v>0.28000000000000003</v>
@@ -7929,7 +7929,7 @@
         <v>49400</v>
       </c>
       <c r="B258" s="2">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="C258" s="2">
         <v>0.3</v>
@@ -7958,7 +7958,7 @@
         <v>49425</v>
       </c>
       <c r="B259" s="2">
-        <v>0.41</v>
+        <v>0.61</v>
       </c>
       <c r="C259" s="2">
         <v>0.38</v>
@@ -7987,7 +7987,7 @@
         <v>49450</v>
       </c>
       <c r="B260" s="2">
-        <v>0.31</v>
+        <v>0.54</v>
       </c>
       <c r="C260" s="2">
         <v>0.35</v>
@@ -8016,7 +8016,7 @@
         <v>49475</v>
       </c>
       <c r="B261" s="2">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="C261" s="2">
         <v>0.31</v>
@@ -8045,7 +8045,7 @@
         <v>49500</v>
       </c>
       <c r="B262" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C262" s="2">
         <v>0.35</v>
@@ -8074,7 +8074,7 @@
         <v>49525</v>
       </c>
       <c r="B263" s="2">
-        <v>0.35</v>
+        <v>0.64</v>
       </c>
       <c r="C263" s="2">
         <v>0.4</v>
@@ -8103,7 +8103,7 @@
         <v>49550</v>
       </c>
       <c r="B264" s="2">
-        <v>0.47</v>
+        <v>0.74</v>
       </c>
       <c r="C264" s="2">
         <v>0.51</v>
@@ -8132,7 +8132,7 @@
         <v>49575</v>
       </c>
       <c r="B265" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.79</v>
       </c>
       <c r="C265" s="2">
         <v>0.56000000000000005</v>
@@ -8161,7 +8161,7 @@
         <v>49600</v>
       </c>
       <c r="B266" s="2">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
       <c r="C266" s="2">
         <v>0.48</v>
@@ -8190,7 +8190,7 @@
         <v>49625</v>
       </c>
       <c r="B267" s="2">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="C267" s="2">
         <v>0.31</v>
@@ -8219,7 +8219,7 @@
         <v>49650</v>
       </c>
       <c r="B268" s="2">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
       <c r="C268" s="2">
         <v>0.36</v>
@@ -8248,7 +8248,7 @@
         <v>49675</v>
       </c>
       <c r="B269" s="2">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
       <c r="C269" s="2">
         <v>0.5</v>
@@ -8277,7 +8277,7 @@
         <v>49700</v>
       </c>
       <c r="B270" s="2">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
       <c r="C270" s="2">
         <v>0.51</v>
@@ -8306,7 +8306,7 @@
         <v>49725</v>
       </c>
       <c r="B271" s="2">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
       <c r="C271" s="2">
         <v>0.48</v>
@@ -8335,7 +8335,7 @@
         <v>49750</v>
       </c>
       <c r="B272" s="2">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
       <c r="C272" s="2">
         <v>0.39</v>
@@ -8364,7 +8364,7 @@
         <v>49775</v>
       </c>
       <c r="B273" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="C273" s="2">
         <v>0.35</v>
@@ -9362,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="F307" s="2">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="G307" s="2">
         <v>0.37</v>
@@ -9826,7 +9826,7 @@
         <v>1</v>
       </c>
       <c r="F323" s="2">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="G323" s="2">
         <v>0.44</v>
@@ -10096,7 +10096,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I332" s="2">
-        <v>0.36</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -10125,7 +10125,7 @@
         <v>0.33</v>
       </c>
       <c r="I333" s="2">
-        <v>0.39</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -10154,7 +10154,7 @@
         <v>0.39</v>
       </c>
       <c r="I334" s="2">
-        <v>0.39</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -10183,7 +10183,7 @@
         <v>0.42</v>
       </c>
       <c r="I335" s="2">
-        <v>0.36</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -10212,7 +10212,7 @@
         <v>0.43</v>
       </c>
       <c r="I336" s="2">
-        <v>0.36</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -10241,7 +10241,7 @@
         <v>0.39</v>
       </c>
       <c r="I337" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -10270,7 +10270,7 @@
         <v>0.44</v>
       </c>
       <c r="I338" s="2">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -10299,7 +10299,7 @@
         <v>0.43</v>
       </c>
       <c r="I339" s="2">
-        <v>0.35</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -10328,7 +10328,7 @@
         <v>0.43</v>
       </c>
       <c r="I340" s="2">
-        <v>0.34</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -10357,7 +10357,7 @@
         <v>0.45</v>
       </c>
       <c r="I341" s="2">
-        <v>0.36</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -10386,7 +10386,7 @@
         <v>0.42</v>
       </c>
       <c r="I342" s="2">
-        <v>0.34</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -10415,7 +10415,7 @@
         <v>0.4</v>
       </c>
       <c r="I343" s="2">
-        <v>0.32</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -10444,7 +10444,7 @@
         <v>0.36</v>
       </c>
       <c r="I344" s="2">
-        <v>0.27</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -10473,7 +10473,7 @@
         <v>0.34</v>
       </c>
       <c r="I345" s="2">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -10502,7 +10502,7 @@
         <v>0.39</v>
       </c>
       <c r="I346" s="2">
-        <v>0.32</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -10531,7 +10531,7 @@
         <v>0.45</v>
       </c>
       <c r="I347" s="2">
-        <v>0.4</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -10560,7 +10560,7 @@
         <v>0.52</v>
       </c>
       <c r="I348" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -10589,7 +10589,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="I349" s="2">
-        <v>0.61</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -10618,7 +10618,7 @@
         <v>0.49</v>
       </c>
       <c r="I350" s="2">
-        <v>0.52</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -10647,7 +10647,7 @@
         <v>0.48</v>
       </c>
       <c r="I351" s="2">
-        <v>0.47</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -10676,7 +10676,7 @@
         <v>0.4</v>
       </c>
       <c r="I352" s="2">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -10696,7 +10696,7 @@
         <v>1</v>
       </c>
       <c r="F353" s="2">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G353" s="2">
         <v>0.36</v>
@@ -10705,7 +10705,7 @@
         <v>0.36</v>
       </c>
       <c r="I353" s="2">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -10734,7 +10734,7 @@
         <v>0.37</v>
       </c>
       <c r="I354" s="2">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -10763,7 +10763,7 @@
         <v>0.3</v>
       </c>
       <c r="I355" s="2">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -10792,7 +10792,7 @@
         <v>0.31</v>
       </c>
       <c r="I356" s="2">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -10821,7 +10821,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I357" s="2">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -10850,7 +10850,7 @@
         <v>0.26</v>
       </c>
       <c r="I358" s="2">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -10879,7 +10879,7 @@
         <v>0.26</v>
       </c>
       <c r="I359" s="2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -10908,7 +10908,7 @@
         <v>0.34</v>
       </c>
       <c r="I360" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -10937,7 +10937,7 @@
         <v>0.44</v>
       </c>
       <c r="I361" s="2">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -10966,7 +10966,7 @@
         <v>0.44</v>
       </c>
       <c r="I362" s="2">
-        <v>0.36</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -10995,7 +10995,7 @@
         <v>0.49</v>
       </c>
       <c r="I363" s="2">
-        <v>0.38</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -11024,7 +11024,7 @@
         <v>0.52</v>
       </c>
       <c r="I364" s="2">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -11053,7 +11053,7 @@
         <v>0.46</v>
       </c>
       <c r="I365" s="2">
-        <v>0.37</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -11082,7 +11082,7 @@
         <v>0.42</v>
       </c>
       <c r="I366" s="2">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -11111,7 +11111,7 @@
         <v>0.37</v>
       </c>
       <c r="I367" s="2">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
@@ -11140,7 +11140,7 @@
         <v>0.34</v>
       </c>
       <c r="I368" s="2">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
@@ -11169,7 +11169,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I369" s="2">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
@@ -11189,7 +11189,7 @@
         <v>1</v>
       </c>
       <c r="F370" s="2">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="G370" s="2">
         <v>0.3</v>
@@ -11198,7 +11198,7 @@
         <v>0.3</v>
       </c>
       <c r="I370" s="2">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -11227,7 +11227,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I371" s="2">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
@@ -11256,7 +11256,7 @@
         <v>0.32</v>
       </c>
       <c r="I372" s="2">
-        <v>0.49</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
@@ -11285,7 +11285,7 @@
         <v>0.31</v>
       </c>
       <c r="I373" s="2">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="F374" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G374" s="2">
         <v>0.25</v>
@@ -11314,7 +11314,7 @@
         <v>0.25</v>
       </c>
       <c r="I374" s="2">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
@@ -11334,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="F375" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="G375" s="2">
         <v>0.25</v>
@@ -11343,7 +11343,7 @@
         <v>0.25</v>
       </c>
       <c r="I375" s="2">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
@@ -11363,16 +11363,16 @@
         <v>1</v>
       </c>
       <c r="F376" s="2">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="G376" s="2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="H376" s="2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I376" s="2">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
@@ -11392,16 +11392,16 @@
         <v>1</v>
       </c>
       <c r="F377" s="2">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="G377" s="2">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="H377" s="2">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="I377" s="2">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -11421,16 +11421,16 @@
         <v>1</v>
       </c>
       <c r="F378" s="2">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="G378" s="2">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="H378" s="2">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="I378" s="2">
-        <v>0.49</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
@@ -11450,16 +11450,16 @@
         <v>1</v>
       </c>
       <c r="F379" s="2">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G379" s="2">
-        <v>0.36</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H379" s="2">
-        <v>0.36</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I379" s="2">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
@@ -11482,13 +11482,13 @@
         <v>0.25</v>
       </c>
       <c r="G380" s="2">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="H380" s="2">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="I380" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
@@ -11508,16 +11508,16 @@
         <v>1</v>
       </c>
       <c r="F381" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G381" s="2">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="H381" s="2">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="I381" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
@@ -11537,16 +11537,16 @@
         <v>1</v>
       </c>
       <c r="F382" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G382" s="2">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="H382" s="2">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="I382" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
@@ -11566,16 +11566,16 @@
         <v>1</v>
       </c>
       <c r="F383" s="2">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="G383" s="2">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="H383" s="2">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="I383" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
@@ -11583,7 +11583,7 @@
         <v>52550</v>
       </c>
       <c r="B384" s="2">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>1</v>
@@ -11592,19 +11592,19 @@
         <v>1</v>
       </c>
       <c r="E384" s="2">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="F384" s="2">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="G384" s="2">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="H384" s="2">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="I384" s="2">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
@@ -11612,7 +11612,7 @@
         <v>52575</v>
       </c>
       <c r="B385" s="2">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>1</v>
@@ -11621,10 +11621,10 @@
         <v>1</v>
       </c>
       <c r="E385" s="2">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
       <c r="F385" s="2">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
       <c r="G385" s="2" t="s">
         <v>1</v>
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="I385" s="2">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
@@ -11653,16 +11653,16 @@
         <v>1</v>
       </c>
       <c r="F386" s="2">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="G386" s="2">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="H386" s="2">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="I386" s="2">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
@@ -11682,16 +11682,16 @@
         <v>1</v>
       </c>
       <c r="F387" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G387" s="2">
-        <v>0.49</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H387" s="2">
-        <v>0.49</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I387" s="2">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
@@ -11711,16 +11711,16 @@
         <v>1</v>
       </c>
       <c r="F388" s="2">
-        <v>0.59</v>
+        <v>0.37</v>
       </c>
       <c r="G388" s="2">
-        <v>0.54</v>
+        <v>0.32</v>
       </c>
       <c r="H388" s="2">
-        <v>0.54</v>
+        <v>0.32</v>
       </c>
       <c r="I388" s="2">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
@@ -11740,16 +11740,16 @@
         <v>1</v>
       </c>
       <c r="F389" s="2">
-        <v>0.68</v>
+        <v>0.45</v>
       </c>
       <c r="G389" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.35</v>
       </c>
       <c r="H389" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.35</v>
       </c>
       <c r="I389" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
@@ -11769,16 +11769,16 @@
         <v>1</v>
       </c>
       <c r="F390" s="2">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
       <c r="G390" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="H390" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="I390" s="2">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
@@ -11798,16 +11798,16 @@
         <v>1</v>
       </c>
       <c r="F391" s="2">
-        <v>0.74</v>
+        <v>0.48</v>
       </c>
       <c r="G391" s="2">
-        <v>0.59</v>
+        <v>0.34</v>
       </c>
       <c r="H391" s="2">
-        <v>0.59</v>
+        <v>0.34</v>
       </c>
       <c r="I391" s="2">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
@@ -11827,16 +11827,16 @@
         <v>1</v>
       </c>
       <c r="F392" s="2">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
       <c r="G392" s="2">
-        <v>0.61</v>
+        <v>0.36</v>
       </c>
       <c r="H392" s="2">
-        <v>0.61</v>
+        <v>0.36</v>
       </c>
       <c r="I392" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
@@ -11856,16 +11856,16 @@
         <v>1</v>
       </c>
       <c r="F393" s="2">
-        <v>0.77</v>
+        <v>0.51</v>
       </c>
       <c r="G393" s="2">
-        <v>0.61</v>
+        <v>0.36</v>
       </c>
       <c r="H393" s="2">
-        <v>0.61</v>
+        <v>0.36</v>
       </c>
       <c r="I393" s="2">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
@@ -11885,16 +11885,16 @@
         <v>1</v>
       </c>
       <c r="F394" s="2">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="G394" s="2">
-        <v>0.63</v>
+        <v>0.37</v>
       </c>
       <c r="H394" s="2">
-        <v>0.63</v>
+        <v>0.37</v>
       </c>
       <c r="I394" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
@@ -11914,16 +11914,16 @@
         <v>1</v>
       </c>
       <c r="F395" s="2">
-        <v>0.77</v>
+        <v>0.51</v>
       </c>
       <c r="G395" s="2">
-        <v>0.6</v>
+        <v>0.34</v>
       </c>
       <c r="H395" s="2">
-        <v>0.6</v>
+        <v>0.34</v>
       </c>
       <c r="I395" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
@@ -11943,16 +11943,16 @@
         <v>1</v>
       </c>
       <c r="F396" s="2">
-        <v>0.83</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G396" s="2">
-        <v>0.7</v>
+        <v>0.44</v>
       </c>
       <c r="H396" s="2">
-        <v>0.7</v>
+        <v>0.44</v>
       </c>
       <c r="I396" s="2">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
@@ -11972,16 +11972,16 @@
         <v>1</v>
       </c>
       <c r="F397" s="2">
-        <v>0.79</v>
+        <v>0.53</v>
       </c>
       <c r="G397" s="2">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="H397" s="2">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="I397" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
@@ -12001,16 +12001,16 @@
         <v>1</v>
       </c>
       <c r="F398" s="2">
-        <v>0.76</v>
+        <v>0.51</v>
       </c>
       <c r="G398" s="2">
-        <v>0.6</v>
+        <v>0.34</v>
       </c>
       <c r="H398" s="2">
-        <v>0.6</v>
+        <v>0.34</v>
       </c>
       <c r="I398" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
@@ -12030,16 +12030,16 @@
         <v>1</v>
       </c>
       <c r="F399" s="2">
-        <v>0.74</v>
+        <v>0.49</v>
       </c>
       <c r="G399" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.32</v>
       </c>
       <c r="H399" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.32</v>
       </c>
       <c r="I399" s="2">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
@@ -12059,16 +12059,16 @@
         <v>1</v>
       </c>
       <c r="F400" s="2">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
       <c r="G400" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.3</v>
       </c>
       <c r="H400" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.3</v>
       </c>
       <c r="I400" s="2">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
@@ -12088,16 +12088,16 @@
         <v>1</v>
       </c>
       <c r="F401" s="2">
-        <v>0.72</v>
+        <v>0.47</v>
       </c>
       <c r="G401" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.31</v>
       </c>
       <c r="H401" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.31</v>
       </c>
       <c r="I401" s="2">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
@@ -12117,16 +12117,16 @@
         <v>1</v>
       </c>
       <c r="F402" s="2">
-        <v>0.74</v>
+        <v>0.48</v>
       </c>
       <c r="G402" s="2">
-        <v>0.54</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H402" s="2">
-        <v>0.54</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I402" s="2">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
@@ -12146,16 +12146,16 @@
         <v>1</v>
       </c>
       <c r="F403" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G403" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.31</v>
       </c>
       <c r="H403" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.31</v>
       </c>
       <c r="I403" s="2">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
@@ -12175,16 +12175,16 @@
         <v>1</v>
       </c>
       <c r="F404" s="2">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="G404" s="2">
-        <v>0.66</v>
+        <v>0.43</v>
       </c>
       <c r="H404" s="2">
-        <v>0.66</v>
+        <v>0.43</v>
       </c>
       <c r="I404" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
@@ -12204,16 +12204,16 @@
         <v>1</v>
       </c>
       <c r="F405" s="2">
-        <v>0.87</v>
+        <v>0.66</v>
       </c>
       <c r="G405" s="2">
-        <v>0.67</v>
+        <v>0.46</v>
       </c>
       <c r="H405" s="2">
-        <v>0.67</v>
+        <v>0.46</v>
       </c>
       <c r="I405" s="2">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
@@ -12233,16 +12233,16 @@
         <v>1</v>
       </c>
       <c r="F406" s="2">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
       <c r="G406" s="2">
-        <v>0.76</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H406" s="2">
-        <v>0.76</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I406" s="2">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
@@ -12262,16 +12262,16 @@
         <v>1</v>
       </c>
       <c r="F407" s="2">
-        <v>0.95</v>
+        <v>0.79</v>
       </c>
       <c r="G407" s="2">
-        <v>0.74</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H407" s="2">
-        <v>0.74</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I407" s="2">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
@@ -12291,16 +12291,16 @@
         <v>1</v>
       </c>
       <c r="F408" s="2">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="G408" s="2">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="H408" s="2">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="I408" s="2">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
@@ -12320,16 +12320,16 @@
         <v>1</v>
       </c>
       <c r="F409" s="2">
-        <v>0.8</v>
+        <v>0.69</v>
       </c>
       <c r="G409" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.47</v>
       </c>
       <c r="H409" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.47</v>
       </c>
       <c r="I409" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
@@ -12349,16 +12349,16 @@
         <v>1</v>
       </c>
       <c r="F410" s="2">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="G410" s="2">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="H410" s="2">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="I410" s="2">
-        <v>0.45</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
@@ -12378,16 +12378,16 @@
         <v>1</v>
       </c>
       <c r="F411" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.52</v>
       </c>
       <c r="G411" s="2">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="H411" s="2">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="I411" s="2">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
@@ -12407,16 +12407,16 @@
         <v>1</v>
       </c>
       <c r="F412" s="2">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="G412" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="H412" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="I412" s="2">
-        <v>0.3</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
@@ -12436,7 +12436,7 @@
         <v>1</v>
       </c>
       <c r="F413" s="2">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="G413" s="2">
         <v>0.25</v>
@@ -12445,7 +12445,7 @@
         <v>0.25</v>
       </c>
       <c r="I413" s="2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
@@ -12465,7 +12465,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="2">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="G414" s="2">
         <v>0.25</v>
@@ -12474,7 +12474,7 @@
         <v>0.25</v>
       </c>
       <c r="I414" s="2">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
@@ -12494,16 +12494,16 @@
         <v>1</v>
       </c>
       <c r="F415" s="2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="G415" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H415" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I415" s="2">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
@@ -12523,16 +12523,16 @@
         <v>1</v>
       </c>
       <c r="F416" s="2">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="G416" s="2">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="H416" s="2">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="I416" s="2">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
@@ -12552,16 +12552,16 @@
         <v>1</v>
       </c>
       <c r="F417" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="G417" s="2">
         <v>0.37</v>
       </c>
-      <c r="G417" s="2">
-        <v>0.38</v>
-      </c>
       <c r="H417" s="2">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="I417" s="2">
-        <v>0.54</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
@@ -12581,16 +12581,16 @@
         <v>1</v>
       </c>
       <c r="F418" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="G418" s="2">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="H418" s="2">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="I418" s="2">
-        <v>0.49</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
@@ -12610,16 +12610,16 @@
         <v>1</v>
       </c>
       <c r="F419" s="2">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G419" s="2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="H419" s="2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="I419" s="2">
-        <v>0.44</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
@@ -12639,16 +12639,16 @@
         <v>1</v>
       </c>
       <c r="F420" s="2">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="G420" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H420" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I420" s="2">
-        <v>0.41</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
@@ -12668,16 +12668,16 @@
         <v>1</v>
       </c>
       <c r="F421" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="G421" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G421" s="2">
-        <v>0.28999999999999998</v>
-      </c>
       <c r="H421" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I421" s="2">
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
@@ -12697,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="F422" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="G422" s="2">
         <v>0.31</v>
@@ -12706,7 +12706,7 @@
         <v>0.31</v>
       </c>
       <c r="I422" s="2">
-        <v>0.43</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
@@ -12735,7 +12735,7 @@
         <v>0.35</v>
       </c>
       <c r="I423" s="2">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="F424" s="2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="G424" s="2">
         <v>0.35</v>
@@ -12784,7 +12784,7 @@
         <v>1</v>
       </c>
       <c r="F425" s="2">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G425" s="2">
         <v>0.35</v>
@@ -12793,7 +12793,7 @@
         <v>0.35</v>
       </c>
       <c r="I425" s="2">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
@@ -12822,7 +12822,7 @@
         <v>0.33</v>
       </c>
       <c r="I426" s="2">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
@@ -12851,7 +12851,7 @@
         <v>0.31</v>
       </c>
       <c r="I427" s="2">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
@@ -12871,16 +12871,16 @@
         <v>1</v>
       </c>
       <c r="F428" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G428" s="2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="H428" s="2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="I428" s="2">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
@@ -12909,7 +12909,7 @@
         <v>0.3</v>
       </c>
       <c r="I429" s="2">
-        <v>0.47</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -12932,13 +12932,13 @@
         <v>0.25</v>
       </c>
       <c r="G430" s="2">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H430" s="2">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I430" s="2">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
@@ -12967,7 +12967,7 @@
         <v>0.34</v>
       </c>
       <c r="I431" s="2">
-        <v>0.81</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
@@ -12987,7 +12987,7 @@
         <v>1</v>
       </c>
       <c r="F432" s="2">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="G432" s="2">
         <v>0.36</v>
@@ -12996,7 +12996,7 @@
         <v>0.36</v>
       </c>
       <c r="I432" s="2">
-        <v>0.66</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
@@ -13016,7 +13016,7 @@
         <v>1</v>
       </c>
       <c r="F433" s="2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="G433" s="2">
         <v>0.38</v>
@@ -13025,7 +13025,7 @@
         <v>0.38</v>
       </c>
       <c r="I433" s="2">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
@@ -13054,7 +13054,7 @@
         <v>0.34</v>
       </c>
       <c r="I434" s="2">
-        <v>0.63</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
@@ -13132,7 +13132,7 @@
         <v>1</v>
       </c>
       <c r="F437" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G437" s="2">
         <v>0.32</v>
@@ -13141,7 +13141,7 @@
         <v>0.32</v>
       </c>
       <c r="I437" s="2">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
@@ -13816,7 +13816,7 @@
         <v>54475</v>
       </c>
       <c r="B461" s="2">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>1</v>
@@ -13825,10 +13825,10 @@
         <v>1</v>
       </c>
       <c r="E461" s="2">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="F461" s="2">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="G461" s="2" t="s">
         <v>1</v>
@@ -13845,7 +13845,7 @@
         <v>54500</v>
       </c>
       <c r="B462" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>1</v>
@@ -13874,7 +13874,7 @@
         <v>54525</v>
       </c>
       <c r="B463" s="2">
-        <v>0.37</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>1</v>
@@ -13903,7 +13903,7 @@
         <v>54550</v>
       </c>
       <c r="B464" s="2">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>1</v>
@@ -13932,7 +13932,7 @@
         <v>54575</v>
       </c>
       <c r="B465" s="2">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>1</v>
@@ -13961,7 +13961,7 @@
         <v>54600</v>
       </c>
       <c r="B466" s="2">
-        <v>0.38</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C466" s="2">
         <v>0.28000000000000003</v>
@@ -13990,7 +13990,7 @@
         <v>54625</v>
       </c>
       <c r="B467" s="2">
-        <v>0.43</v>
+        <v>0.62</v>
       </c>
       <c r="C467" s="2">
         <v>0.28000000000000003</v>
@@ -14019,7 +14019,7 @@
         <v>54650</v>
       </c>
       <c r="B468" s="2">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
       <c r="C468" s="2">
         <v>0.28000000000000003</v>
@@ -14048,7 +14048,7 @@
         <v>54675</v>
       </c>
       <c r="B469" s="2">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="C469" s="2">
         <v>0.26</v>
@@ -14077,7 +14077,7 @@
         <v>54700</v>
       </c>
       <c r="B470" s="2">
-        <v>0.38</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C470" s="2">
         <v>0.25</v>
@@ -14106,7 +14106,7 @@
         <v>54725</v>
       </c>
       <c r="B471" s="2">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
       <c r="C471" s="2">
         <v>0.32</v>
@@ -14135,7 +14135,7 @@
         <v>54750</v>
       </c>
       <c r="B472" s="2">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="C472" s="2">
         <v>0.25</v>
@@ -14164,7 +14164,7 @@
         <v>54775</v>
       </c>
       <c r="B473" s="2">
-        <v>0.45</v>
+        <v>0.63</v>
       </c>
       <c r="C473" s="2">
         <v>0.31</v>
@@ -14193,7 +14193,7 @@
         <v>54800</v>
       </c>
       <c r="B474" s="2">
-        <v>0.45</v>
+        <v>0.62</v>
       </c>
       <c r="C474" s="2">
         <v>0.27</v>
@@ -14222,7 +14222,7 @@
         <v>54825</v>
       </c>
       <c r="B475" s="2">
-        <v>0.41</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C475" s="2">
         <v>0.27</v>
@@ -14251,7 +14251,7 @@
         <v>54850</v>
       </c>
       <c r="B476" s="2">
-        <v>0.42</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C476" s="2">
         <v>0.28000000000000003</v>
@@ -14280,7 +14280,7 @@
         <v>54875</v>
       </c>
       <c r="B477" s="2">
-        <v>0.44</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C477" s="2">
         <v>0.28999999999999998</v>
@@ -14309,7 +14309,7 @@
         <v>54900</v>
       </c>
       <c r="B478" s="2">
-        <v>0.41</v>
+        <v>0.54</v>
       </c>
       <c r="C478" s="2">
         <v>0.28999999999999998</v>
@@ -14338,7 +14338,7 @@
         <v>54925</v>
       </c>
       <c r="B479" s="2">
-        <v>0.42</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C479" s="2">
         <v>0.25</v>
@@ -14367,7 +14367,7 @@
         <v>54950</v>
       </c>
       <c r="B480" s="2">
-        <v>0.45</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C480" s="2">
         <v>0.3</v>
@@ -14396,7 +14396,7 @@
         <v>54975</v>
       </c>
       <c r="B481" s="2">
-        <v>0.42</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C481" s="2">
         <v>0.26</v>
@@ -14425,7 +14425,7 @@
         <v>55000</v>
       </c>
       <c r="B482" s="2">
-        <v>0.44</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C482" s="2">
         <v>0.27</v>
@@ -14454,7 +14454,7 @@
         <v>55025</v>
       </c>
       <c r="B483" s="2">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="C483" s="2">
         <v>0.28999999999999998</v>
@@ -14483,7 +14483,7 @@
         <v>55050</v>
       </c>
       <c r="B484" s="2">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="C484" s="2">
         <v>0.31</v>
@@ -14512,7 +14512,7 @@
         <v>55075</v>
       </c>
       <c r="B485" s="2">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
       <c r="C485" s="2">
         <v>0.33</v>
@@ -14541,7 +14541,7 @@
         <v>55100</v>
       </c>
       <c r="B486" s="2">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="C486" s="2">
         <v>0.36</v>
@@ -14570,7 +14570,7 @@
         <v>55125</v>
       </c>
       <c r="B487" s="2">
-        <v>0.43</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C487" s="2">
         <v>0.35</v>
@@ -14599,7 +14599,7 @@
         <v>55150</v>
       </c>
       <c r="B488" s="2">
-        <v>0.54</v>
+        <v>0.69</v>
       </c>
       <c r="C488" s="2">
         <v>0.42</v>
@@ -14628,7 +14628,7 @@
         <v>55175</v>
       </c>
       <c r="B489" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="C489" s="2">
         <v>0.5</v>
@@ -14657,7 +14657,7 @@
         <v>55200</v>
       </c>
       <c r="B490" s="2">
-        <v>0.49</v>
+        <v>0.67</v>
       </c>
       <c r="C490" s="2">
         <v>0.48</v>
@@ -14686,7 +14686,7 @@
         <v>55225</v>
       </c>
       <c r="B491" s="2">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
       <c r="C491" s="2">
         <v>0.39</v>
@@ -14715,7 +14715,7 @@
         <v>55250</v>
       </c>
       <c r="B492" s="2">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="C492" s="2">
         <v>0.38</v>
@@ -14744,7 +14744,7 @@
         <v>55275</v>
       </c>
       <c r="B493" s="2">
-        <v>0.27</v>
+        <v>0.49</v>
       </c>
       <c r="C493" s="2">
         <v>0.39</v>
@@ -14773,7 +14773,7 @@
         <v>55300</v>
       </c>
       <c r="B494" s="2">
-        <v>0.3</v>
+        <v>0.52</v>
       </c>
       <c r="C494" s="2">
         <v>0.4</v>
@@ -14802,7 +14802,7 @@
         <v>55325</v>
       </c>
       <c r="B495" s="2">
-        <v>0.3</v>
+        <v>0.52</v>
       </c>
       <c r="C495" s="2">
         <v>0.39</v>
@@ -14831,7 +14831,7 @@
         <v>55350</v>
       </c>
       <c r="B496" s="2">
-        <v>0.34</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C496" s="2">
         <v>0.49</v>
@@ -14860,7 +14860,7 @@
         <v>55375</v>
       </c>
       <c r="B497" s="2">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="C497" s="2">
         <v>0.53</v>
@@ -14889,7 +14889,7 @@
         <v>55400</v>
       </c>
       <c r="B498" s="2">
-        <v>0.54</v>
+        <v>0.76</v>
       </c>
       <c r="C498" s="2">
         <v>0.57999999999999996</v>
@@ -14918,7 +14918,7 @@
         <v>55425</v>
       </c>
       <c r="B499" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.78</v>
       </c>
       <c r="C499" s="2">
         <v>0.53</v>
@@ -14947,7 +14947,7 @@
         <v>55450</v>
       </c>
       <c r="B500" s="2">
-        <v>0.53</v>
+        <v>0.78</v>
       </c>
       <c r="C500" s="2">
         <v>0.56999999999999995</v>
@@ -14956,7 +14956,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="E500" s="2">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>1</v>
@@ -14976,7 +14976,7 @@
         <v>55475</v>
       </c>
       <c r="B501" s="2">
-        <v>0.48</v>
+        <v>0.74</v>
       </c>
       <c r="C501" s="2">
         <v>0.57999999999999996</v>
@@ -15005,7 +15005,7 @@
         <v>55500</v>
       </c>
       <c r="B502" s="2">
-        <v>0.37</v>
+        <v>0.67</v>
       </c>
       <c r="C502" s="2">
         <v>0.56999999999999995</v>
@@ -15034,7 +15034,7 @@
         <v>55525</v>
       </c>
       <c r="B503" s="2">
-        <v>0.36</v>
+        <v>0.69</v>
       </c>
       <c r="C503" s="2">
         <v>0.53</v>
@@ -15063,7 +15063,7 @@
         <v>55550</v>
       </c>
       <c r="B504" s="2">
-        <v>0.25</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C504" s="2">
         <v>0.45</v>
@@ -15092,7 +15092,7 @@
         <v>55575</v>
       </c>
       <c r="B505" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="C505" s="2">
         <v>0.5</v>
@@ -15121,7 +15121,7 @@
         <v>55600</v>
       </c>
       <c r="B506" s="2">
-        <v>0.42</v>
+        <v>0.76</v>
       </c>
       <c r="C506" s="2">
         <v>0.56999999999999995</v>
@@ -15150,7 +15150,7 @@
         <v>55625</v>
       </c>
       <c r="B507" s="2">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="C507" s="2">
         <v>0.62</v>
@@ -15179,7 +15179,7 @@
         <v>55650</v>
       </c>
       <c r="B508" s="2">
-        <v>0.34</v>
+        <v>0.65</v>
       </c>
       <c r="C508" s="2">
         <v>0.53</v>
@@ -15208,7 +15208,7 @@
         <v>55675</v>
       </c>
       <c r="B509" s="2">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
       <c r="C509" s="2">
         <v>0.4</v>
@@ -15237,7 +15237,7 @@
         <v>55700</v>
       </c>
       <c r="B510" s="2">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="C510" s="2">
         <v>0.4</v>
@@ -15266,7 +15266,7 @@
         <v>55725</v>
       </c>
       <c r="B511" s="2">
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
       <c r="C511" s="2">
         <v>0.35</v>
@@ -15295,7 +15295,7 @@
         <v>55750</v>
       </c>
       <c r="B512" s="2">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="C512" s="2">
         <v>0.32</v>
@@ -15324,7 +15324,7 @@
         <v>55775</v>
       </c>
       <c r="B513" s="2">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="C513" s="2">
         <v>0.26</v>
@@ -15353,7 +15353,7 @@
         <v>55800</v>
       </c>
       <c r="B514" s="2">
-        <v>0.48</v>
+        <v>0.68</v>
       </c>
       <c r="C514" s="2">
         <v>0.31</v>
@@ -15382,7 +15382,7 @@
         <v>55825</v>
       </c>
       <c r="B515" s="2">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="C515" s="2">
         <v>0.44</v>
@@ -15411,7 +15411,7 @@
         <v>55850</v>
       </c>
       <c r="B516" s="2">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="C516" s="2">
         <v>0.48</v>
@@ -15440,7 +15440,7 @@
         <v>55875</v>
       </c>
       <c r="B517" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.76</v>
       </c>
       <c r="C517" s="2">
         <v>0.44</v>
@@ -15469,7 +15469,7 @@
         <v>55900</v>
       </c>
       <c r="B518" s="2">
-        <v>0.53</v>
+        <v>0.72</v>
       </c>
       <c r="C518" s="2">
         <v>0.41</v>
@@ -15498,7 +15498,7 @@
         <v>55925</v>
       </c>
       <c r="B519" s="2">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="C519" s="2">
         <v>0.38</v>
@@ -15527,7 +15527,7 @@
         <v>55950</v>
       </c>
       <c r="B520" s="2">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="C520" s="2">
         <v>0.47</v>
@@ -15556,7 +15556,7 @@
         <v>55975</v>
       </c>
       <c r="B521" s="2">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="C521" s="2">
         <v>0.51</v>
@@ -15585,7 +15585,7 @@
         <v>56000</v>
       </c>
       <c r="B522" s="2">
-        <v>0.69</v>
+        <v>0.77</v>
       </c>
       <c r="C522" s="2">
         <v>0.54</v>
@@ -15614,7 +15614,7 @@
         <v>56025</v>
       </c>
       <c r="B523" s="2">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="C523" s="2">
         <v>0.5</v>
@@ -15643,7 +15643,7 @@
         <v>56050</v>
       </c>
       <c r="B524" s="2">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="C524" s="2">
         <v>0.46</v>
@@ -15672,7 +15672,7 @@
         <v>56075</v>
       </c>
       <c r="B525" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.71</v>
       </c>
       <c r="C525" s="2">
         <v>0.38</v>
@@ -15701,7 +15701,7 @@
         <v>56100</v>
       </c>
       <c r="B526" s="2">
-        <v>0.88</v>
+        <v>1.07</v>
       </c>
       <c r="C526" s="2">
         <v>0.33</v>
@@ -15730,7 +15730,7 @@
         <v>56125</v>
       </c>
       <c r="B527" s="2">
-        <v>0.9</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C527" s="2">
         <v>0.33</v>
@@ -15913,10 +15913,10 @@
         <v>1</v>
       </c>
       <c r="E533" s="2">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="F533" s="2">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="G533" s="2" t="s">
         <v>1</v>
@@ -17288,7 +17288,7 @@
         <v>1</v>
       </c>
       <c r="I580" s="2">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.25">
@@ -17317,7 +17317,7 @@
         <v>0.46</v>
       </c>
       <c r="I581" s="2">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.25">
@@ -17346,7 +17346,7 @@
         <v>0.48</v>
       </c>
       <c r="I582" s="2">
-        <v>0.36</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.25">
@@ -17375,7 +17375,7 @@
         <v>0.51</v>
       </c>
       <c r="I583" s="2">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.25">
@@ -17404,7 +17404,7 @@
         <v>0.48</v>
       </c>
       <c r="I584" s="2">
-        <v>0.47</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.25">
@@ -17433,7 +17433,7 @@
         <v>0.48</v>
       </c>
       <c r="I585" s="2">
-        <v>0.49</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.25">
@@ -17462,7 +17462,7 @@
         <v>0.51</v>
       </c>
       <c r="I586" s="2">
-        <v>0.53</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.25">
@@ -17491,7 +17491,7 @@
         <v>0.46</v>
       </c>
       <c r="I587" s="2">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.25">
@@ -17520,7 +17520,7 @@
         <v>0.46</v>
       </c>
       <c r="I588" s="2">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.25">
@@ -17549,7 +17549,7 @@
         <v>0.42</v>
       </c>
       <c r="I589" s="2">
-        <v>0.45</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.25">
@@ -17578,7 +17578,7 @@
         <v>0.36</v>
       </c>
       <c r="I590" s="2">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.25">
@@ -17607,7 +17607,7 @@
         <v>0.32</v>
       </c>
       <c r="I591" s="2">
-        <v>0.38</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.25">
@@ -17636,7 +17636,7 @@
         <v>0.34</v>
       </c>
       <c r="I592" s="2">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
@@ -17665,7 +17665,7 @@
         <v>0.3</v>
       </c>
       <c r="I593" s="2">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
@@ -17694,7 +17694,7 @@
         <v>0.3</v>
       </c>
       <c r="I594" s="2">
-        <v>0.39</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
@@ -17723,7 +17723,7 @@
         <v>0.34</v>
       </c>
       <c r="I595" s="2">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
@@ -17752,7 +17752,7 @@
         <v>0.39</v>
       </c>
       <c r="I596" s="2">
-        <v>0.45</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
@@ -17781,7 +17781,7 @@
         <v>0.41</v>
       </c>
       <c r="I597" s="2">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
@@ -17810,7 +17810,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I598" s="2">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
@@ -17839,7 +17839,7 @@
         <v>0.32</v>
       </c>
       <c r="I599" s="2">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
@@ -17868,7 +17868,7 @@
         <v>0.42</v>
       </c>
       <c r="I600" s="2">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
@@ -17897,7 +17897,7 @@
         <v>0.45</v>
       </c>
       <c r="I601" s="2">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
@@ -17926,7 +17926,7 @@
         <v>0.51</v>
       </c>
       <c r="I602" s="2">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
@@ -17955,7 +17955,7 @@
         <v>0.48</v>
       </c>
       <c r="I603" s="2">
-        <v>0.49</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
@@ -17984,7 +17984,7 @@
         <v>0.49</v>
       </c>
       <c r="I604" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.75</v>
       </c>
       <c r="J604" s="2">
         <f>26/2</f>
@@ -18021,7 +18021,7 @@
         <v>0.47</v>
       </c>
       <c r="I605" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
@@ -18050,7 +18050,7 @@
         <v>0.45</v>
       </c>
       <c r="I606" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
@@ -18079,7 +18079,7 @@
         <v>0.48</v>
       </c>
       <c r="I607" s="2">
-        <v>0.48</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
@@ -18108,7 +18108,7 @@
         <v>0.48</v>
       </c>
       <c r="I608" s="2">
-        <v>0.47</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.25">
@@ -18137,7 +18137,7 @@
         <v>0.49</v>
       </c>
       <c r="I609" s="2">
-        <v>0.5</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.25">
@@ -18166,7 +18166,7 @@
         <v>0.48</v>
       </c>
       <c r="I610" s="2">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.25">
@@ -18195,7 +18195,7 @@
         <v>0.45</v>
       </c>
       <c r="I611" s="2">
-        <v>0.45</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.25">
@@ -18224,7 +18224,7 @@
         <v>0.47</v>
       </c>
       <c r="I612" s="2">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.25">
@@ -18253,7 +18253,7 @@
         <v>0.36</v>
       </c>
       <c r="I613" s="2">
-        <v>0.38</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.25">
@@ -18282,7 +18282,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I614" s="2">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.25">
@@ -18311,7 +18311,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I615" s="2">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.25">
@@ -18340,7 +18340,7 @@
         <v>0.25</v>
       </c>
       <c r="I616" s="2">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.25">
@@ -18369,7 +18369,7 @@
         <v>0.25</v>
       </c>
       <c r="I617" s="2">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.25">
@@ -18398,7 +18398,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I618" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.25">
@@ -18427,7 +18427,7 @@
         <v>0.31</v>
       </c>
       <c r="I619" s="2">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
@@ -18456,7 +18456,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I620" s="2">
-        <v>0.61</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
@@ -18485,7 +18485,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I621" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
@@ -18514,7 +18514,7 @@
         <v>0.33</v>
       </c>
       <c r="I622" s="2">
-        <v>0.53</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.25">
@@ -18543,7 +18543,7 @@
         <v>0.27</v>
       </c>
       <c r="I623" s="2">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
@@ -18572,7 +18572,7 @@
         <v>0.3</v>
       </c>
       <c r="I624" s="2">
-        <v>0.39</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.25">
@@ -18601,7 +18601,7 @@
         <v>0.36</v>
       </c>
       <c r="I625" s="2">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.25">
@@ -18630,7 +18630,7 @@
         <v>0.38</v>
       </c>
       <c r="I626" s="2">
-        <v>0.48</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.25">
@@ -18659,7 +18659,7 @@
         <v>0.41</v>
       </c>
       <c r="I627" s="2">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.25">
@@ -18688,7 +18688,7 @@
         <v>0.44</v>
       </c>
       <c r="I628" s="2">
-        <v>0.54</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.25">
@@ -18717,7 +18717,7 @@
         <v>1</v>
       </c>
       <c r="I629" s="2">
-        <v>0.54</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.25">
@@ -18746,7 +18746,7 @@
         <v>1</v>
       </c>
       <c r="I630" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.25">
@@ -18775,7 +18775,7 @@
         <v>1</v>
       </c>
       <c r="I631" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.25">
@@ -18899,7 +18899,7 @@
         <v>58850</v>
       </c>
       <c r="B636" s="2">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>1</v>
@@ -18920,7 +18920,7 @@
         <v>1</v>
       </c>
       <c r="I636" s="2">
-        <v>0.37</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.25">
@@ -18949,7 +18949,7 @@
         <v>1</v>
       </c>
       <c r="I637" s="2">
-        <v>0.36</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.25">
@@ -18978,7 +18978,7 @@
         <v>1</v>
       </c>
       <c r="I638" s="2">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.25">
@@ -19007,7 +19007,7 @@
         <v>1</v>
       </c>
       <c r="I639" s="2">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.25">
@@ -19036,7 +19036,7 @@
         <v>1</v>
       </c>
       <c r="I640" s="2">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.25">
@@ -19073,7 +19073,7 @@
         <v>59000</v>
       </c>
       <c r="B642" s="2">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>1</v>
@@ -19102,7 +19102,7 @@
         <v>59025</v>
       </c>
       <c r="B643" s="2">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>1</v>
@@ -19131,7 +19131,7 @@
         <v>59040.889000000003</v>
       </c>
       <c r="B644" s="2">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>1</v>

--- a/src/DATA.xlsx
+++ b/src/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COBA\CODING\PAVIMENTAÇÃO\Pavement-Layers-Optimization-Model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275D939A-0667-4703-BA11-78D935796223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D50FBFB-941C-4D7A-B306-FF432A1D8C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3977E240-FD55-4A91-9DBE-A7537FB81EA0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3977E240-FD55-4A91-9DBE-A7537FB81EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="2">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="2">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1309,7 +1309,7 @@
         <v>0.25</v>
       </c>
       <c r="I29" s="2">
-        <v>0.47</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1338,7 +1338,7 @@
         <v>0.25</v>
       </c>
       <c r="I30" s="2">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1367,7 +1367,7 @@
         <v>0.25</v>
       </c>
       <c r="I31" s="2">
-        <v>0.48</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
         <v>0.25</v>
       </c>
       <c r="I32" s="2">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1425,7 +1425,7 @@
         <v>0.25</v>
       </c>
       <c r="I33" s="2">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1454,7 +1454,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I34" s="2">
-        <v>0.46</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>0.33</v>
       </c>
       <c r="I35" s="2">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
         <v>0.27</v>
       </c>
       <c r="I36" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
         <v>0.4</v>
       </c>
       <c r="I37" s="2">
-        <v>0.6</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
         <v>0.41</v>
       </c>
       <c r="I38" s="2">
-        <v>0.68</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>0.35</v>
       </c>
       <c r="I39" s="2">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1628,7 +1628,7 @@
         <v>0.31</v>
       </c>
       <c r="I40" s="2">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1657,7 +1657,7 @@
         <v>0.36</v>
       </c>
       <c r="I41" s="2">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1686,7 +1686,7 @@
         <v>0.37</v>
       </c>
       <c r="I42" s="2">
-        <v>0.49</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1715,7 +1715,7 @@
         <v>0.37</v>
       </c>
       <c r="I43" s="2">
-        <v>0.49</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1744,7 +1744,7 @@
         <v>0.37</v>
       </c>
       <c r="I44" s="2">
-        <v>0.49</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1773,7 +1773,7 @@
         <v>0.4</v>
       </c>
       <c r="I45" s="2">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1802,7 +1802,7 @@
         <v>0.4</v>
       </c>
       <c r="I46" s="2">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
         <v>0.42</v>
       </c>
       <c r="I47" s="2">
-        <v>0.54</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
         <v>0.41</v>
       </c>
       <c r="I48" s="2">
-        <v>0.54</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1889,7 +1889,7 @@
         <v>0.39</v>
       </c>
       <c r="I49" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>0.41</v>
       </c>
       <c r="I50" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -1947,7 +1947,7 @@
         <v>0.42</v>
       </c>
       <c r="I51" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -1976,7 +1976,7 @@
         <v>0.42</v>
       </c>
       <c r="I52" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2005,7 +2005,7 @@
         <v>0.42</v>
       </c>
       <c r="I53" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2034,7 +2034,7 @@
         <v>0.41</v>
       </c>
       <c r="I54" s="2">
-        <v>0.53</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2063,7 +2063,7 @@
         <v>0.43</v>
       </c>
       <c r="I55" s="2">
-        <v>0.54</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,7 @@
         <v>0.4</v>
       </c>
       <c r="I56" s="2">
-        <v>0.52</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2121,7 +2121,7 @@
         <v>0.41</v>
       </c>
       <c r="I57" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2150,7 +2150,7 @@
         <v>0.37</v>
       </c>
       <c r="I58" s="2">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2179,7 +2179,7 @@
         <v>0.35</v>
       </c>
       <c r="I59" s="2">
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>0.36</v>
       </c>
       <c r="I60" s="2">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
         <v>0.3</v>
       </c>
       <c r="I61" s="2">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2266,7 +2266,7 @@
         <v>0.27</v>
       </c>
       <c r="I62" s="2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2295,7 +2295,7 @@
         <v>0.26</v>
       </c>
       <c r="I63" s="2">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2324,7 +2324,7 @@
         <v>0.25</v>
       </c>
       <c r="I64" s="2">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2353,7 +2353,7 @@
         <v>0.25</v>
       </c>
       <c r="I65" s="2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2382,7 +2382,7 @@
         <v>0.3</v>
       </c>
       <c r="I66" s="2">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2411,7 +2411,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I67" s="2">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I68" s="2">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2469,7 +2469,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I69" s="2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2498,7 +2498,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I70" s="2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2527,7 +2527,7 @@
         <v>0.27</v>
       </c>
       <c r="I71" s="2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2556,7 +2556,7 @@
         <v>0.25</v>
       </c>
       <c r="I72" s="2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2585,7 +2585,7 @@
         <v>0.25</v>
       </c>
       <c r="I73" s="2">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2614,7 +2614,7 @@
         <v>0.25</v>
       </c>
       <c r="I74" s="2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2643,7 +2643,7 @@
         <v>0.25</v>
       </c>
       <c r="I75" s="2">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>0.4</v>
       </c>
       <c r="I76" s="2">
-        <v>0.7</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2701,7 +2701,7 @@
         <v>0.45</v>
       </c>
       <c r="I77" s="2">
-        <v>0.81</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2730,7 +2730,7 @@
         <v>0.44</v>
       </c>
       <c r="I78" s="2">
-        <v>0.84</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2759,7 +2759,7 @@
         <v>0.41</v>
       </c>
       <c r="I79" s="2">
-        <v>0.77</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2788,7 +2788,7 @@
         <v>0.41</v>
       </c>
       <c r="I80" s="2">
-        <v>0.73</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2817,7 +2817,7 @@
         <v>0.33</v>
       </c>
       <c r="I81" s="2">
-        <v>0.61</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2846,7 +2846,7 @@
         <v>0.34</v>
       </c>
       <c r="I82" s="2">
-        <v>0.61</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
         <v>0.32</v>
       </c>
       <c r="I83" s="2">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2904,7 +2904,7 @@
         <v>0.34</v>
       </c>
       <c r="I84" s="2">
-        <v>0.66</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -2933,7 +2933,7 @@
         <v>0.33</v>
       </c>
       <c r="I85" s="2">
-        <v>0.66</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2962,7 +2962,7 @@
         <v>0.32</v>
       </c>
       <c r="I86" s="2">
-        <v>0.67</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -2991,7 +2991,7 @@
         <v>0.3</v>
       </c>
       <c r="I87" s="2">
-        <v>0.61</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3020,7 +3020,7 @@
         <v>0.31</v>
       </c>
       <c r="I88" s="2">
-        <v>0.63</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3049,7 +3049,7 @@
         <v>0.27</v>
       </c>
       <c r="I89" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3078,7 +3078,7 @@
         <v>0.27</v>
       </c>
       <c r="I90" s="2">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3107,7 +3107,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I91" s="2">
-        <v>0.61</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3136,7 +3136,7 @@
         <v>0.25</v>
       </c>
       <c r="I92" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I93" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3194,7 +3194,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I94" s="2">
-        <v>0.59</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3223,7 +3223,7 @@
         <v>0.27</v>
       </c>
       <c r="I95" s="2">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3252,7 +3252,7 @@
         <v>0.26</v>
       </c>
       <c r="I96" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3281,7 +3281,7 @@
         <v>0.25</v>
       </c>
       <c r="I97" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3310,7 +3310,7 @@
         <v>0.25</v>
       </c>
       <c r="I98" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3339,7 +3339,7 @@
         <v>0.25</v>
       </c>
       <c r="I99" s="2">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3368,7 +3368,7 @@
         <v>0.25</v>
       </c>
       <c r="I100" s="2">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3397,7 +3397,7 @@
         <v>0.25</v>
       </c>
       <c r="I101" s="2">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3426,7 +3426,7 @@
         <v>0.25</v>
       </c>
       <c r="I102" s="2">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3455,7 +3455,7 @@
         <v>0.25</v>
       </c>
       <c r="I103" s="2">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
         <v>0.25</v>
       </c>
       <c r="I104" s="2">
-        <v>0.53</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3513,7 +3513,7 @@
         <v>0.26</v>
       </c>
       <c r="I105" s="2">
-        <v>0.59</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3542,7 +3542,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I106" s="2">
-        <v>0.61</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3571,7 +3571,7 @@
         <v>0.25</v>
       </c>
       <c r="I107" s="2">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3600,7 +3600,7 @@
         <v>0.25</v>
       </c>
       <c r="I108" s="2">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3629,7 +3629,7 @@
         <v>0.25</v>
       </c>
       <c r="I109" s="2">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3658,7 +3658,7 @@
         <v>0.25</v>
       </c>
       <c r="I110" s="2">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3687,7 +3687,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I111" s="2">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3716,7 +3716,7 @@
         <v>0.35</v>
       </c>
       <c r="I112" s="2">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3745,7 +3745,7 @@
         <v>0.32</v>
       </c>
       <c r="I113" s="2">
-        <v>0.53</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3774,7 +3774,7 @@
         <v>0.34</v>
       </c>
       <c r="I114" s="2">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3803,7 +3803,7 @@
         <v>0.35</v>
       </c>
       <c r="I115" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3832,7 +3832,7 @@
         <v>0.36</v>
       </c>
       <c r="I116" s="2">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3861,7 +3861,7 @@
         <v>0.37</v>
       </c>
       <c r="I117" s="2">
-        <v>0.54</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3890,7 +3890,7 @@
         <v>0.38</v>
       </c>
       <c r="I118" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3919,7 +3919,7 @@
         <v>0.37</v>
       </c>
       <c r="I119" s="2">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3948,7 +3948,7 @@
         <v>0.36</v>
       </c>
       <c r="I120" s="2">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3977,7 +3977,7 @@
         <v>0.35</v>
       </c>
       <c r="I121" s="2">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4006,7 +4006,7 @@
         <v>0.35</v>
       </c>
       <c r="I122" s="2">
-        <v>0.47</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4035,7 +4035,7 @@
         <v>0.34</v>
       </c>
       <c r="I123" s="2">
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4064,7 +4064,7 @@
         <v>0.37</v>
       </c>
       <c r="I124" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4093,7 +4093,7 @@
         <v>0.36</v>
       </c>
       <c r="I125" s="2">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4122,7 +4122,7 @@
         <v>0.38</v>
       </c>
       <c r="I126" s="2">
-        <v>0.54</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4151,7 +4151,7 @@
         <v>0.38</v>
       </c>
       <c r="I127" s="2">
-        <v>0.53</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4180,7 +4180,7 @@
         <v>0.39</v>
       </c>
       <c r="I128" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4209,7 +4209,7 @@
         <v>0.39</v>
       </c>
       <c r="I129" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4238,7 +4238,7 @@
         <v>0.38</v>
       </c>
       <c r="I130" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4267,7 +4267,7 @@
         <v>0.39</v>
       </c>
       <c r="I131" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4296,7 +4296,7 @@
         <v>0.41</v>
       </c>
       <c r="I132" s="2">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4325,7 +4325,7 @@
         <v>0.4</v>
       </c>
       <c r="I133" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4354,7 +4354,7 @@
         <v>0.42</v>
       </c>
       <c r="I134" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4383,7 +4383,7 @@
         <v>0.46</v>
       </c>
       <c r="I135" s="2">
-        <v>0.63</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -4412,7 +4412,7 @@
         <v>0.48</v>
       </c>
       <c r="I136" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -4441,7 +4441,7 @@
         <v>0.51</v>
       </c>
       <c r="I137" s="2">
-        <v>0.59</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -4470,7 +4470,7 @@
         <v>0.5</v>
       </c>
       <c r="I138" s="2">
-        <v>0.54</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -4499,7 +4499,7 @@
         <v>0.51</v>
       </c>
       <c r="I139" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4528,7 +4528,7 @@
         <v>0.45</v>
       </c>
       <c r="I140" s="2">
-        <v>0.53</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -4557,7 +4557,7 @@
         <v>0.41</v>
       </c>
       <c r="I141" s="2">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -4586,7 +4586,7 @@
         <v>0.37</v>
       </c>
       <c r="I142" s="2">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -4615,7 +4615,7 @@
         <v>0.36</v>
       </c>
       <c r="I143" s="2">
-        <v>0.49</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -4644,7 +4644,7 @@
         <v>0.36</v>
       </c>
       <c r="I144" s="2">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -4673,7 +4673,7 @@
         <v>0.37</v>
       </c>
       <c r="I145" s="2">
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -4702,7 +4702,7 @@
         <v>0.37</v>
       </c>
       <c r="I146" s="2">
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -4731,7 +4731,7 @@
         <v>0.33</v>
       </c>
       <c r="I147" s="2">
-        <v>0.47</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -4760,7 +4760,7 @@
         <v>0.33</v>
       </c>
       <c r="I148" s="2">
-        <v>0.47</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -4789,7 +4789,7 @@
         <v>0.38</v>
       </c>
       <c r="I149" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -4818,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="I150" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5058,7 +5058,7 @@
         <v>46925</v>
       </c>
       <c r="B159" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C159" s="2">
         <v>0.25</v>
@@ -5087,7 +5087,7 @@
         <v>46950</v>
       </c>
       <c r="B160" s="2">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="C160" s="2">
         <v>0.25</v>
@@ -5116,7 +5116,7 @@
         <v>46975</v>
       </c>
       <c r="B161" s="2">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="C161" s="2">
         <v>0.25</v>
@@ -5174,7 +5174,7 @@
         <v>47025</v>
       </c>
       <c r="B163" s="2">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="C163" s="2">
         <v>0.28000000000000003</v>
@@ -5232,7 +5232,7 @@
         <v>47075</v>
       </c>
       <c r="B165" s="2">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="C165" s="2">
         <v>0.25</v>
@@ -5406,7 +5406,7 @@
         <v>47225</v>
       </c>
       <c r="B171" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C171" s="2">
         <v>0.25</v>
@@ -5435,7 +5435,7 @@
         <v>47250</v>
       </c>
       <c r="B172" s="2">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C172" s="2">
         <v>0.25</v>
@@ -5493,7 +5493,7 @@
         <v>47300</v>
       </c>
       <c r="B174" s="2">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="C174" s="2">
         <v>0.25</v>
@@ -5551,7 +5551,7 @@
         <v>47350</v>
       </c>
       <c r="B176" s="2">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="C176" s="2">
         <v>0.25</v>
@@ -5754,7 +5754,7 @@
         <v>47525</v>
       </c>
       <c r="B183" s="2">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="C183" s="2">
         <v>0.25</v>
@@ -5783,7 +5783,7 @@
         <v>47550</v>
       </c>
       <c r="B184" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>1</v>
@@ -6094,7 +6094,7 @@
         <v>0.37</v>
       </c>
       <c r="I194" s="2">
-        <v>0.78</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -6123,7 +6123,7 @@
         <v>0.36</v>
       </c>
       <c r="I195" s="2">
-        <v>0.75</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6152,7 +6152,7 @@
         <v>0.39</v>
       </c>
       <c r="I196" s="2">
-        <v>0.75</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6181,7 +6181,7 @@
         <v>0.37</v>
       </c>
       <c r="I197" s="2">
-        <v>0.72</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6210,7 +6210,7 @@
         <v>0.38</v>
       </c>
       <c r="I198" s="2">
-        <v>0.73</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6239,7 +6239,7 @@
         <v>0.37</v>
       </c>
       <c r="I199" s="2">
-        <v>0.74</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -6268,7 +6268,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I200" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -6297,7 +6297,7 @@
         <v>0.25</v>
       </c>
       <c r="I201" s="2">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -6326,7 +6326,7 @@
         <v>0.25</v>
       </c>
       <c r="I202" s="2">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -6355,7 +6355,7 @@
         <v>0.25</v>
       </c>
       <c r="I203" s="2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -6384,7 +6384,7 @@
         <v>0.25</v>
       </c>
       <c r="I204" s="2">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -6413,7 +6413,7 @@
         <v>0.25</v>
       </c>
       <c r="I205" s="2">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -6442,7 +6442,7 @@
         <v>0.25</v>
       </c>
       <c r="I206" s="2">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -6471,7 +6471,7 @@
         <v>0.25</v>
       </c>
       <c r="I207" s="2">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -6500,7 +6500,7 @@
         <v>0.25</v>
       </c>
       <c r="I208" s="2">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -6529,7 +6529,7 @@
         <v>0.25</v>
       </c>
       <c r="I209" s="2">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -6558,7 +6558,7 @@
         <v>0.25</v>
       </c>
       <c r="I210" s="2">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -6587,7 +6587,7 @@
         <v>0.25</v>
       </c>
       <c r="I211" s="2">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -6616,7 +6616,7 @@
         <v>0.25</v>
       </c>
       <c r="I212" s="2">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -6645,7 +6645,7 @@
         <v>0.25</v>
       </c>
       <c r="I213" s="2">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -6674,7 +6674,7 @@
         <v>0.25</v>
       </c>
       <c r="I214" s="2">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="I215" s="2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -6827,7 +6827,7 @@
         <v>48450</v>
       </c>
       <c r="B220" s="2">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="C220" s="2">
         <v>0.36</v>
@@ -6856,7 +6856,7 @@
         <v>48475</v>
       </c>
       <c r="B221" s="2">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="C221" s="2">
         <v>0.41</v>
@@ -6885,7 +6885,7 @@
         <v>48500</v>
       </c>
       <c r="B222" s="2">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="C222" s="2">
         <v>0.44</v>
@@ -6914,7 +6914,7 @@
         <v>48525</v>
       </c>
       <c r="B223" s="2">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="C223" s="2">
         <v>0.36</v>
@@ -6943,7 +6943,7 @@
         <v>48550</v>
       </c>
       <c r="B224" s="2">
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
       <c r="C224" s="2">
         <v>0.31</v>
@@ -6972,7 +6972,7 @@
         <v>48575</v>
       </c>
       <c r="B225" s="2">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="C225" s="2">
         <v>0.33</v>
@@ -7001,7 +7001,7 @@
         <v>48600</v>
       </c>
       <c r="B226" s="2">
-        <v>0.59</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C226" s="2">
         <v>0.48</v>
@@ -7030,7 +7030,7 @@
         <v>48625</v>
       </c>
       <c r="B227" s="2">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="C227" s="2">
         <v>0.53</v>
@@ -7059,7 +7059,7 @@
         <v>48650</v>
       </c>
       <c r="B228" s="2">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="C228" s="2">
         <v>0.51</v>
@@ -7088,7 +7088,7 @@
         <v>48675</v>
       </c>
       <c r="B229" s="2">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="C229" s="2">
         <v>0.47</v>
@@ -7117,7 +7117,7 @@
         <v>48700</v>
       </c>
       <c r="B230" s="2">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="C230" s="2">
         <v>0.31</v>
@@ -7146,7 +7146,7 @@
         <v>48725</v>
       </c>
       <c r="B231" s="2">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="C231" s="2">
         <v>0.25</v>
@@ -7175,7 +7175,7 @@
         <v>48750</v>
       </c>
       <c r="B232" s="2">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="C232" s="2">
         <v>0.28000000000000003</v>
@@ -7204,7 +7204,7 @@
         <v>48775</v>
       </c>
       <c r="B233" s="2">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="C233" s="2">
         <v>0.28999999999999998</v>
@@ -7233,7 +7233,7 @@
         <v>48800</v>
       </c>
       <c r="B234" s="2">
-        <v>0.63</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C234" s="2">
         <v>0.25</v>
@@ -7262,7 +7262,7 @@
         <v>48825</v>
       </c>
       <c r="B235" s="2">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="C235" s="2">
         <v>0.25</v>
@@ -7581,7 +7581,7 @@
         <v>49100</v>
       </c>
       <c r="B246" s="2">
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
       <c r="C246" s="2">
         <v>0.34</v>
@@ -7610,7 +7610,7 @@
         <v>49125</v>
       </c>
       <c r="B247" s="2">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="C247" s="2">
         <v>0.34</v>
@@ -7639,7 +7639,7 @@
         <v>49150</v>
       </c>
       <c r="B248" s="2">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="C248" s="2">
         <v>0.32</v>
@@ -7784,7 +7784,7 @@
         <v>49275</v>
       </c>
       <c r="B253" s="2">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="C253" s="2">
         <v>0.42</v>
@@ -7900,7 +7900,7 @@
         <v>49375</v>
       </c>
       <c r="B257" s="2">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="C257" s="2">
         <v>0.28000000000000003</v>
@@ -7929,7 +7929,7 @@
         <v>49400</v>
       </c>
       <c r="B258" s="2">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="C258" s="2">
         <v>0.3</v>
@@ -7958,7 +7958,7 @@
         <v>49425</v>
       </c>
       <c r="B259" s="2">
-        <v>0.61</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C259" s="2">
         <v>0.38</v>
@@ -8016,7 +8016,7 @@
         <v>49475</v>
       </c>
       <c r="B261" s="2">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="C261" s="2">
         <v>0.31</v>
@@ -8045,7 +8045,7 @@
         <v>49500</v>
       </c>
       <c r="B262" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="C262" s="2">
         <v>0.35</v>
@@ -8074,7 +8074,7 @@
         <v>49525</v>
       </c>
       <c r="B263" s="2">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="C263" s="2">
         <v>0.4</v>
@@ -8103,7 +8103,7 @@
         <v>49550</v>
       </c>
       <c r="B264" s="2">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="C264" s="2">
         <v>0.51</v>
@@ -8132,7 +8132,7 @@
         <v>49575</v>
       </c>
       <c r="B265" s="2">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="C265" s="2">
         <v>0.56000000000000005</v>
@@ -8161,7 +8161,7 @@
         <v>49600</v>
       </c>
       <c r="B266" s="2">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="C266" s="2">
         <v>0.48</v>
@@ -8190,7 +8190,7 @@
         <v>49625</v>
       </c>
       <c r="B267" s="2">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="C267" s="2">
         <v>0.31</v>
@@ -8219,7 +8219,7 @@
         <v>49650</v>
       </c>
       <c r="B268" s="2">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="C268" s="2">
         <v>0.36</v>
@@ -8248,7 +8248,7 @@
         <v>49675</v>
       </c>
       <c r="B269" s="2">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="C269" s="2">
         <v>0.5</v>
@@ -8277,7 +8277,7 @@
         <v>49700</v>
       </c>
       <c r="B270" s="2">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="C270" s="2">
         <v>0.51</v>
@@ -8306,7 +8306,7 @@
         <v>49725</v>
       </c>
       <c r="B271" s="2">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="C271" s="2">
         <v>0.48</v>
@@ -8335,7 +8335,7 @@
         <v>49750</v>
       </c>
       <c r="B272" s="2">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="C272" s="2">
         <v>0.39</v>
@@ -10096,7 +10096,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I332" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -10125,7 +10125,7 @@
         <v>0.33</v>
       </c>
       <c r="I333" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -10154,7 +10154,7 @@
         <v>0.39</v>
       </c>
       <c r="I334" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -10183,7 +10183,7 @@
         <v>0.42</v>
       </c>
       <c r="I335" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -10212,7 +10212,7 @@
         <v>0.43</v>
       </c>
       <c r="I336" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -10241,7 +10241,7 @@
         <v>0.39</v>
       </c>
       <c r="I337" s="2">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -10270,7 +10270,7 @@
         <v>0.44</v>
       </c>
       <c r="I338" s="2">
-        <v>0.54</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -10299,7 +10299,7 @@
         <v>0.43</v>
       </c>
       <c r="I339" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -10328,7 +10328,7 @@
         <v>0.43</v>
       </c>
       <c r="I340" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -10357,7 +10357,7 @@
         <v>0.45</v>
       </c>
       <c r="I341" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -10386,7 +10386,7 @@
         <v>0.42</v>
       </c>
       <c r="I342" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -10415,7 +10415,7 @@
         <v>0.4</v>
       </c>
       <c r="I343" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -10444,7 +10444,7 @@
         <v>0.36</v>
       </c>
       <c r="I344" s="2">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -10473,7 +10473,7 @@
         <v>0.34</v>
       </c>
       <c r="I345" s="2">
-        <v>0.48</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -10502,7 +10502,7 @@
         <v>0.39</v>
       </c>
       <c r="I346" s="2">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -10531,7 +10531,7 @@
         <v>0.45</v>
       </c>
       <c r="I347" s="2">
-        <v>0.61</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -10560,7 +10560,7 @@
         <v>0.52</v>
       </c>
       <c r="I348" s="2">
-        <v>0.76</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -10589,7 +10589,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="I349" s="2">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -10618,7 +10618,7 @@
         <v>0.49</v>
       </c>
       <c r="I350" s="2">
-        <v>0.71</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -10647,7 +10647,7 @@
         <v>0.48</v>
       </c>
       <c r="I351" s="2">
-        <v>0.66</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -10676,7 +10676,7 @@
         <v>0.4</v>
       </c>
       <c r="I352" s="2">
-        <v>0.63</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -10705,7 +10705,7 @@
         <v>0.36</v>
       </c>
       <c r="I353" s="2">
-        <v>0.53</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -10734,7 +10734,7 @@
         <v>0.37</v>
       </c>
       <c r="I354" s="2">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -10763,7 +10763,7 @@
         <v>0.3</v>
       </c>
       <c r="I355" s="2">
-        <v>0.51</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -10792,7 +10792,7 @@
         <v>0.31</v>
       </c>
       <c r="I356" s="2">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -10821,7 +10821,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I357" s="2">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -10850,7 +10850,7 @@
         <v>0.26</v>
       </c>
       <c r="I358" s="2">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -10879,7 +10879,7 @@
         <v>0.26</v>
       </c>
       <c r="I359" s="2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -10908,7 +10908,7 @@
         <v>0.34</v>
       </c>
       <c r="I360" s="2">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -10937,7 +10937,7 @@
         <v>0.44</v>
       </c>
       <c r="I361" s="2">
-        <v>0.54</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -10966,7 +10966,7 @@
         <v>0.44</v>
       </c>
       <c r="I362" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -10995,7 +10995,7 @@
         <v>0.49</v>
       </c>
       <c r="I363" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -11024,7 +11024,7 @@
         <v>0.52</v>
       </c>
       <c r="I364" s="2">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -11053,7 +11053,7 @@
         <v>0.46</v>
       </c>
       <c r="I365" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -11082,7 +11082,7 @@
         <v>0.42</v>
       </c>
       <c r="I366" s="2">
-        <v>0.53</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -11111,7 +11111,7 @@
         <v>0.37</v>
       </c>
       <c r="I367" s="2">
-        <v>0.49</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
@@ -11140,7 +11140,7 @@
         <v>0.34</v>
       </c>
       <c r="I368" s="2">
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
@@ -11169,7 +11169,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I369" s="2">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
@@ -11198,7 +11198,7 @@
         <v>0.3</v>
       </c>
       <c r="I370" s="2">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -11227,7 +11227,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I371" s="2">
-        <v>0.51</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
@@ -11256,7 +11256,7 @@
         <v>0.32</v>
       </c>
       <c r="I372" s="2">
-        <v>0.68</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
@@ -11285,7 +11285,7 @@
         <v>0.31</v>
       </c>
       <c r="I373" s="2">
-        <v>0.63</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
@@ -11314,7 +11314,7 @@
         <v>0.25</v>
       </c>
       <c r="I374" s="2">
-        <v>0.54</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
@@ -11343,7 +11343,7 @@
         <v>0.25</v>
       </c>
       <c r="I375" s="2">
-        <v>0.47</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
@@ -11372,7 +11372,7 @@
         <v>0.25</v>
       </c>
       <c r="I376" s="2">
-        <v>0.48</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
@@ -11401,7 +11401,7 @@
         <v>0.3</v>
       </c>
       <c r="I377" s="2">
-        <v>0.54</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -11430,7 +11430,7 @@
         <v>0.27</v>
       </c>
       <c r="I378" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
@@ -11459,7 +11459,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I379" s="2">
-        <v>0.66</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
@@ -11488,7 +11488,7 @@
         <v>0.25</v>
       </c>
       <c r="I380" s="2">
-        <v>0.64</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
@@ -11517,7 +11517,7 @@
         <v>0.25</v>
       </c>
       <c r="I381" s="2">
-        <v>0.64</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
@@ -11546,7 +11546,7 @@
         <v>0.25</v>
       </c>
       <c r="I382" s="2">
-        <v>0.63</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
@@ -11575,7 +11575,7 @@
         <v>0.25</v>
       </c>
       <c r="I383" s="2">
-        <v>0.63</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
@@ -11604,7 +11604,7 @@
         <v>0.25</v>
       </c>
       <c r="I384" s="2">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="I385" s="2">
-        <v>0.61</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
@@ -11662,7 +11662,7 @@
         <v>0.27</v>
       </c>
       <c r="I386" s="2">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
@@ -11691,7 +11691,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I387" s="2">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
@@ -11720,7 +11720,7 @@
         <v>0.32</v>
       </c>
       <c r="I388" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
@@ -11749,7 +11749,7 @@
         <v>0.35</v>
       </c>
       <c r="I389" s="2">
-        <v>0.52</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
@@ -11778,7 +11778,7 @@
         <v>0.33</v>
       </c>
       <c r="I390" s="2">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
@@ -11807,7 +11807,7 @@
         <v>0.34</v>
       </c>
       <c r="I391" s="2">
-        <v>0.46</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
@@ -11836,7 +11836,7 @@
         <v>0.36</v>
       </c>
       <c r="I392" s="2">
-        <v>0.49</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
@@ -11865,7 +11865,7 @@
         <v>0.36</v>
       </c>
       <c r="I393" s="2">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
@@ -11894,7 +11894,7 @@
         <v>0.37</v>
       </c>
       <c r="I394" s="2">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
@@ -11923,7 +11923,7 @@
         <v>0.34</v>
       </c>
       <c r="I395" s="2">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
@@ -11952,7 +11952,7 @@
         <v>0.44</v>
       </c>
       <c r="I396" s="2">
-        <v>0.54</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
@@ -11981,7 +11981,7 @@
         <v>0.38</v>
       </c>
       <c r="I397" s="2">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
@@ -12010,7 +12010,7 @@
         <v>0.34</v>
       </c>
       <c r="I398" s="2">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
@@ -12039,7 +12039,7 @@
         <v>0.32</v>
       </c>
       <c r="I399" s="2">
-        <v>0.47</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
@@ -12068,7 +12068,7 @@
         <v>0.3</v>
       </c>
       <c r="I400" s="2">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
@@ -12097,7 +12097,7 @@
         <v>0.31</v>
       </c>
       <c r="I401" s="2">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
@@ -12126,7 +12126,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I402" s="2">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
@@ -12155,7 +12155,7 @@
         <v>0.31</v>
       </c>
       <c r="I403" s="2">
-        <v>0.47</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
@@ -12184,7 +12184,7 @@
         <v>0.43</v>
       </c>
       <c r="I404" s="2">
-        <v>0.54</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
@@ -12213,7 +12213,7 @@
         <v>0.46</v>
       </c>
       <c r="I405" s="2">
-        <v>0.63</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
@@ -12242,7 +12242,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I406" s="2">
-        <v>0.74</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
@@ -12271,7 +12271,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I407" s="2">
-        <v>0.72</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
@@ -12300,7 +12300,7 @@
         <v>0.51</v>
       </c>
       <c r="I408" s="2">
-        <v>0.65</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
@@ -12329,7 +12329,7 @@
         <v>0.47</v>
       </c>
       <c r="I409" s="2">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
@@ -12358,7 +12358,7 @@
         <v>0.42</v>
       </c>
       <c r="I410" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
@@ -12387,7 +12387,7 @@
         <v>0.36</v>
       </c>
       <c r="I411" s="2">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
@@ -12416,7 +12416,7 @@
         <v>0.25</v>
       </c>
       <c r="I412" s="2">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
@@ -12445,7 +12445,7 @@
         <v>0.25</v>
       </c>
       <c r="I413" s="2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
@@ -12474,7 +12474,7 @@
         <v>0.25</v>
       </c>
       <c r="I414" s="2">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
@@ -12503,7 +12503,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I415" s="2">
-        <v>0.51</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
@@ -12532,7 +12532,7 @@
         <v>0.3</v>
       </c>
       <c r="I416" s="2">
-        <v>0.68</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
@@ -12561,7 +12561,7 @@
         <v>0.37</v>
       </c>
       <c r="I417" s="2">
-        <v>0.72</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
@@ -12590,7 +12590,7 @@
         <v>0.34</v>
       </c>
       <c r="I418" s="2">
-        <v>0.67</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
@@ -12619,7 +12619,7 @@
         <v>0.33</v>
       </c>
       <c r="I419" s="2">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
@@ -12648,7 +12648,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I420" s="2">
-        <v>0.59</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
@@ -12677,7 +12677,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I421" s="2">
-        <v>0.6</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
@@ -12706,7 +12706,7 @@
         <v>0.31</v>
       </c>
       <c r="I422" s="2">
-        <v>0.62</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
@@ -12793,7 +12793,7 @@
         <v>0.35</v>
       </c>
       <c r="I425" s="2">
-        <v>0.79</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
@@ -12822,7 +12822,7 @@
         <v>0.33</v>
       </c>
       <c r="I426" s="2">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
@@ -12851,7 +12851,7 @@
         <v>0.31</v>
       </c>
       <c r="I427" s="2">
-        <v>0.96</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
@@ -12880,7 +12880,7 @@
         <v>0.33</v>
       </c>
       <c r="I428" s="2">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
@@ -12909,7 +12909,7 @@
         <v>0.3</v>
       </c>
       <c r="I429" s="2">
-        <v>0.65</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -12938,7 +12938,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I430" s="2">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
@@ -12967,7 +12967,7 @@
         <v>0.34</v>
       </c>
       <c r="I431" s="2">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
@@ -12996,7 +12996,7 @@
         <v>0.36</v>
       </c>
       <c r="I432" s="2">
-        <v>0.79</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
@@ -13025,7 +13025,7 @@
         <v>0.38</v>
       </c>
       <c r="I433" s="2">
-        <v>0.8</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
@@ -13054,7 +13054,7 @@
         <v>0.34</v>
       </c>
       <c r="I434" s="2">
-        <v>0.82</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
@@ -13961,7 +13961,7 @@
         <v>54600</v>
       </c>
       <c r="B466" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C466" s="2">
         <v>0.28000000000000003</v>
@@ -13990,7 +13990,7 @@
         <v>54625</v>
       </c>
       <c r="B467" s="2">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="C467" s="2">
         <v>0.28000000000000003</v>
@@ -14019,7 +14019,7 @@
         <v>54650</v>
       </c>
       <c r="B468" s="2">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="C468" s="2">
         <v>0.28000000000000003</v>
@@ -14048,7 +14048,7 @@
         <v>54675</v>
       </c>
       <c r="B469" s="2">
-        <v>0.6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C469" s="2">
         <v>0.26</v>
@@ -14077,7 +14077,7 @@
         <v>54700</v>
       </c>
       <c r="B470" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.54</v>
       </c>
       <c r="C470" s="2">
         <v>0.25</v>
@@ -14106,7 +14106,7 @@
         <v>54725</v>
       </c>
       <c r="B471" s="2">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="C471" s="2">
         <v>0.32</v>
@@ -14135,7 +14135,7 @@
         <v>54750</v>
       </c>
       <c r="B472" s="2">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C472" s="2">
         <v>0.25</v>
@@ -14164,7 +14164,7 @@
         <v>54775</v>
       </c>
       <c r="B473" s="2">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="C473" s="2">
         <v>0.31</v>
@@ -14193,7 +14193,7 @@
         <v>54800</v>
       </c>
       <c r="B474" s="2">
-        <v>0.62</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C474" s="2">
         <v>0.27</v>
@@ -14222,7 +14222,7 @@
         <v>54825</v>
       </c>
       <c r="B475" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C475" s="2">
         <v>0.27</v>
@@ -14280,7 +14280,7 @@
         <v>54875</v>
       </c>
       <c r="B477" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C477" s="2">
         <v>0.28999999999999998</v>
@@ -14309,7 +14309,7 @@
         <v>54900</v>
       </c>
       <c r="B478" s="2">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C478" s="2">
         <v>0.28999999999999998</v>
@@ -14338,7 +14338,7 @@
         <v>54925</v>
       </c>
       <c r="B479" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="C479" s="2">
         <v>0.25</v>
@@ -14396,7 +14396,7 @@
         <v>54975</v>
       </c>
       <c r="B481" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C481" s="2">
         <v>0.26</v>
@@ -14425,7 +14425,7 @@
         <v>55000</v>
       </c>
       <c r="B482" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C482" s="2">
         <v>0.27</v>
@@ -14454,7 +14454,7 @@
         <v>55025</v>
       </c>
       <c r="B483" s="2">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="C483" s="2">
         <v>0.28999999999999998</v>
@@ -14483,7 +14483,7 @@
         <v>55050</v>
       </c>
       <c r="B484" s="2">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="C484" s="2">
         <v>0.31</v>
@@ -14512,7 +14512,7 @@
         <v>55075</v>
       </c>
       <c r="B485" s="2">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="C485" s="2">
         <v>0.33</v>
@@ -14541,7 +14541,7 @@
         <v>55100</v>
       </c>
       <c r="B486" s="2">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="C486" s="2">
         <v>0.36</v>
@@ -14570,7 +14570,7 @@
         <v>55125</v>
       </c>
       <c r="B487" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="C487" s="2">
         <v>0.35</v>
@@ -14599,7 +14599,7 @@
         <v>55150</v>
       </c>
       <c r="B488" s="2">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="C488" s="2">
         <v>0.42</v>
@@ -14628,7 +14628,7 @@
         <v>55175</v>
       </c>
       <c r="B489" s="2">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="C489" s="2">
         <v>0.5</v>
@@ -14686,7 +14686,7 @@
         <v>55225</v>
       </c>
       <c r="B491" s="2">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="C491" s="2">
         <v>0.39</v>
@@ -14715,7 +14715,7 @@
         <v>55250</v>
       </c>
       <c r="B492" s="2">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="C492" s="2">
         <v>0.38</v>
@@ -14744,7 +14744,7 @@
         <v>55275</v>
       </c>
       <c r="B493" s="2">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="C493" s="2">
         <v>0.39</v>
@@ -14773,7 +14773,7 @@
         <v>55300</v>
       </c>
       <c r="B494" s="2">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="C494" s="2">
         <v>0.4</v>
@@ -14802,7 +14802,7 @@
         <v>55325</v>
       </c>
       <c r="B495" s="2">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="C495" s="2">
         <v>0.39</v>
@@ -14831,7 +14831,7 @@
         <v>55350</v>
       </c>
       <c r="B496" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="C496" s="2">
         <v>0.49</v>
@@ -14860,7 +14860,7 @@
         <v>55375</v>
       </c>
       <c r="B497" s="2">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="C497" s="2">
         <v>0.53</v>
@@ -14889,7 +14889,7 @@
         <v>55400</v>
       </c>
       <c r="B498" s="2">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="C498" s="2">
         <v>0.57999999999999996</v>
@@ -14918,7 +14918,7 @@
         <v>55425</v>
       </c>
       <c r="B499" s="2">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="C499" s="2">
         <v>0.53</v>
@@ -14947,7 +14947,7 @@
         <v>55450</v>
       </c>
       <c r="B500" s="2">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="C500" s="2">
         <v>0.56999999999999995</v>
@@ -14976,7 +14976,7 @@
         <v>55475</v>
       </c>
       <c r="B501" s="2">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="C501" s="2">
         <v>0.57999999999999996</v>
@@ -15034,7 +15034,7 @@
         <v>55525</v>
       </c>
       <c r="B503" s="2">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
       <c r="C503" s="2">
         <v>0.53</v>
@@ -15063,7 +15063,7 @@
         <v>55550</v>
       </c>
       <c r="B504" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C504" s="2">
         <v>0.45</v>
@@ -15092,7 +15092,7 @@
         <v>55575</v>
       </c>
       <c r="B505" s="2">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="C505" s="2">
         <v>0.5</v>
@@ -15121,7 +15121,7 @@
         <v>55600</v>
       </c>
       <c r="B506" s="2">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="C506" s="2">
         <v>0.56999999999999995</v>
@@ -15150,7 +15150,7 @@
         <v>55625</v>
       </c>
       <c r="B507" s="2">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="C507" s="2">
         <v>0.62</v>
@@ -15179,7 +15179,7 @@
         <v>55650</v>
       </c>
       <c r="B508" s="2">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="C508" s="2">
         <v>0.53</v>
@@ -15237,7 +15237,7 @@
         <v>55700</v>
       </c>
       <c r="B510" s="2">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="C510" s="2">
         <v>0.4</v>
@@ -15266,7 +15266,7 @@
         <v>55725</v>
       </c>
       <c r="B511" s="2">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="C511" s="2">
         <v>0.35</v>
@@ -15324,7 +15324,7 @@
         <v>55775</v>
       </c>
       <c r="B513" s="2">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="C513" s="2">
         <v>0.26</v>
@@ -15353,7 +15353,7 @@
         <v>55800</v>
       </c>
       <c r="B514" s="2">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="C514" s="2">
         <v>0.31</v>
@@ -15382,7 +15382,7 @@
         <v>55825</v>
       </c>
       <c r="B515" s="2">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
       <c r="C515" s="2">
         <v>0.44</v>
@@ -15411,7 +15411,7 @@
         <v>55850</v>
       </c>
       <c r="B516" s="2">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="C516" s="2">
         <v>0.48</v>
@@ -15440,7 +15440,7 @@
         <v>55875</v>
       </c>
       <c r="B517" s="2">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="C517" s="2">
         <v>0.44</v>
@@ -15469,7 +15469,7 @@
         <v>55900</v>
       </c>
       <c r="B518" s="2">
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
       <c r="C518" s="2">
         <v>0.41</v>
@@ -15498,7 +15498,7 @@
         <v>55925</v>
       </c>
       <c r="B519" s="2">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="C519" s="2">
         <v>0.38</v>
@@ -15527,7 +15527,7 @@
         <v>55950</v>
       </c>
       <c r="B520" s="2">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="C520" s="2">
         <v>0.47</v>
@@ -15585,7 +15585,7 @@
         <v>56000</v>
       </c>
       <c r="B522" s="2">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="C522" s="2">
         <v>0.54</v>
@@ -15614,7 +15614,7 @@
         <v>56025</v>
       </c>
       <c r="B523" s="2">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="C523" s="2">
         <v>0.5</v>
@@ -15672,7 +15672,7 @@
         <v>56075</v>
       </c>
       <c r="B525" s="2">
-        <v>0.71</v>
+        <v>0.69</v>
       </c>
       <c r="C525" s="2">
         <v>0.38</v>
@@ -15701,7 +15701,7 @@
         <v>56100</v>
       </c>
       <c r="B526" s="2">
-        <v>1.07</v>
+        <v>0.92</v>
       </c>
       <c r="C526" s="2">
         <v>0.33</v>
@@ -15730,7 +15730,7 @@
         <v>56125</v>
       </c>
       <c r="B527" s="2">
-        <v>1.0900000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C527" s="2">
         <v>0.33</v>
@@ -17288,7 +17288,7 @@
         <v>1</v>
       </c>
       <c r="I580" s="2">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.25">
@@ -17317,7 +17317,7 @@
         <v>0.46</v>
       </c>
       <c r="I581" s="2">
-        <v>0.49</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.25">
@@ -17346,7 +17346,7 @@
         <v>0.48</v>
       </c>
       <c r="I582" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.25">
@@ -17375,7 +17375,7 @@
         <v>0.51</v>
       </c>
       <c r="I583" s="2">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.25">
@@ -17404,7 +17404,7 @@
         <v>0.48</v>
       </c>
       <c r="I584" s="2">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.25">
@@ -17433,7 +17433,7 @@
         <v>0.48</v>
       </c>
       <c r="I585" s="2">
-        <v>0.68</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.25">
@@ -17462,7 +17462,7 @@
         <v>0.51</v>
       </c>
       <c r="I586" s="2">
-        <v>0.72</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.25">
@@ -17491,7 +17491,7 @@
         <v>0.46</v>
       </c>
       <c r="I587" s="2">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.25">
@@ -17520,7 +17520,7 @@
         <v>0.46</v>
       </c>
       <c r="I588" s="2">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.25">
@@ -17549,7 +17549,7 @@
         <v>0.42</v>
       </c>
       <c r="I589" s="2">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.25">
@@ -17578,7 +17578,7 @@
         <v>0.36</v>
       </c>
       <c r="I590" s="2">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.25">
@@ -17607,7 +17607,7 @@
         <v>0.32</v>
       </c>
       <c r="I591" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.25">
@@ -17636,7 +17636,7 @@
         <v>0.34</v>
       </c>
       <c r="I592" s="2">
-        <v>0.59</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
@@ -17665,7 +17665,7 @@
         <v>0.3</v>
       </c>
       <c r="I593" s="2">
-        <v>0.59</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
@@ -17694,7 +17694,7 @@
         <v>0.3</v>
       </c>
       <c r="I594" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
@@ -17723,7 +17723,7 @@
         <v>0.34</v>
       </c>
       <c r="I595" s="2">
-        <v>0.6</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
@@ -17752,7 +17752,7 @@
         <v>0.39</v>
       </c>
       <c r="I596" s="2">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
@@ -17781,7 +17781,7 @@
         <v>0.41</v>
       </c>
       <c r="I597" s="2">
-        <v>0.65</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
@@ -17810,7 +17810,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I598" s="2">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
@@ -17839,7 +17839,7 @@
         <v>0.32</v>
       </c>
       <c r="I599" s="2">
-        <v>0.52</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
@@ -17868,7 +17868,7 @@
         <v>0.42</v>
       </c>
       <c r="I600" s="2">
-        <v>0.61</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
@@ -17897,7 +17897,7 @@
         <v>0.45</v>
       </c>
       <c r="I601" s="2">
-        <v>0.63</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
@@ -17926,7 +17926,7 @@
         <v>0.51</v>
       </c>
       <c r="I602" s="2">
-        <v>0.65</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
@@ -17955,7 +17955,7 @@
         <v>0.48</v>
       </c>
       <c r="I603" s="2">
-        <v>0.68</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
@@ -17984,7 +17984,7 @@
         <v>0.49</v>
       </c>
       <c r="I604" s="2">
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J604" s="2">
         <f>26/2</f>
@@ -18021,7 +18021,7 @@
         <v>0.47</v>
       </c>
       <c r="I605" s="2">
-        <v>0.75</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
@@ -18050,7 +18050,7 @@
         <v>0.45</v>
       </c>
       <c r="I606" s="2">
-        <v>0.75</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
@@ -18079,7 +18079,7 @@
         <v>0.48</v>
       </c>
       <c r="I607" s="2">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
@@ -18108,7 +18108,7 @@
         <v>0.48</v>
       </c>
       <c r="I608" s="2">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.25">
@@ -18137,7 +18137,7 @@
         <v>0.49</v>
       </c>
       <c r="I609" s="2">
-        <v>0.69</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.25">
@@ -18166,7 +18166,7 @@
         <v>0.48</v>
       </c>
       <c r="I610" s="2">
-        <v>0.65</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.25">
@@ -18195,7 +18195,7 @@
         <v>0.45</v>
       </c>
       <c r="I611" s="2">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.25">
@@ -18224,7 +18224,7 @@
         <v>0.47</v>
       </c>
       <c r="I612" s="2">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.25">
@@ -18253,7 +18253,7 @@
         <v>0.36</v>
       </c>
       <c r="I613" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.25">
@@ -18282,7 +18282,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I614" s="2">
-        <v>0.51</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.25">
@@ -18311,7 +18311,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I615" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.25">
@@ -18340,7 +18340,7 @@
         <v>0.25</v>
       </c>
       <c r="I616" s="2">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.25">
@@ -18369,7 +18369,7 @@
         <v>0.25</v>
       </c>
       <c r="I617" s="2">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.25">
@@ -18398,7 +18398,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I618" s="2">
-        <v>0.76</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.25">
@@ -18427,7 +18427,7 @@
         <v>0.31</v>
       </c>
       <c r="I619" s="2">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
@@ -18456,7 +18456,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I620" s="2">
-        <v>0.8</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
@@ -18485,7 +18485,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I621" s="2">
-        <v>0.77</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
@@ -18514,7 +18514,7 @@
         <v>0.33</v>
       </c>
       <c r="I622" s="2">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.25">
@@ -18543,7 +18543,7 @@
         <v>0.27</v>
       </c>
       <c r="I623" s="2">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
@@ -18572,7 +18572,7 @@
         <v>0.3</v>
       </c>
       <c r="I624" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.25">
@@ -18601,7 +18601,7 @@
         <v>0.36</v>
       </c>
       <c r="I625" s="2">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.25">
@@ -18630,7 +18630,7 @@
         <v>0.38</v>
       </c>
       <c r="I626" s="2">
-        <v>0.67</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.25">
@@ -18659,7 +18659,7 @@
         <v>0.41</v>
       </c>
       <c r="I627" s="2">
-        <v>0.7</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.25">
@@ -18688,7 +18688,7 @@
         <v>0.44</v>
       </c>
       <c r="I628" s="2">
-        <v>0.73</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.25">
@@ -18717,7 +18717,7 @@
         <v>1</v>
       </c>
       <c r="I629" s="2">
-        <v>0.73</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.25">
@@ -18746,7 +18746,7 @@
         <v>1</v>
       </c>
       <c r="I630" s="2">
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.25">
@@ -18775,7 +18775,7 @@
         <v>1</v>
       </c>
       <c r="I631" s="2">
-        <v>0.74</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.25">
@@ -18920,7 +18920,7 @@
         <v>1</v>
       </c>
       <c r="I636" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.25">
@@ -18949,7 +18949,7 @@
         <v>1</v>
       </c>
       <c r="I637" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.25">
@@ -18978,7 +18978,7 @@
         <v>1</v>
       </c>
       <c r="I638" s="2">
-        <v>0.6</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.25">
@@ -19007,7 +19007,7 @@
         <v>1</v>
       </c>
       <c r="I639" s="2">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.25">
@@ -19036,7 +19036,7 @@
         <v>1</v>
       </c>
       <c r="I640" s="2">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.25">
@@ -19131,7 +19131,7 @@
         <v>59040.889000000003</v>
       </c>
       <c r="B644" s="2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>1</v>

--- a/src/DATA.xlsx
+++ b/src/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COBA\CODING\PAVIMENTAÇÃO\Pavement-Layers-Optimization-Model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D50FBFB-941C-4D7A-B306-FF432A1D8C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C3EA5C-70BE-47F9-8E9D-4DC160CFE55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3977E240-FD55-4A91-9DBE-A7537FB81EA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3977E240-FD55-4A91-9DBE-A7537FB81EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="10">
   <si>
     <t>km</t>
   </si>
@@ -463,7 +463,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:I644"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2724,10 +2724,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G78" s="2">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="H78" s="2">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="I78" s="2">
         <v>0.56000000000000005</v>
@@ -2753,10 +2753,10 @@
         <v>0.26</v>
       </c>
       <c r="G79" s="2">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="H79" s="2">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="I79" s="2">
         <v>0.49</v>
@@ -2782,10 +2782,10 @@
         <v>0.25</v>
       </c>
       <c r="G80" s="2">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="H80" s="2">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="I80" s="2">
         <v>0.47</v>
@@ -2811,10 +2811,10 @@
         <v>0.25</v>
       </c>
       <c r="G81" s="2">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="H81" s="2">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="I81" s="2">
         <v>0.37</v>
@@ -2840,10 +2840,10 @@
         <v>0.25</v>
       </c>
       <c r="G82" s="2">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="H82" s="2">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="I82" s="2">
         <v>0.38</v>
@@ -2869,10 +2869,10 @@
         <v>0.25</v>
       </c>
       <c r="G83" s="2">
-        <v>0.32</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H83" s="2">
-        <v>0.32</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I83" s="2">
         <v>0.36</v>
@@ -2898,10 +2898,10 @@
         <v>0.25</v>
       </c>
       <c r="G84" s="2">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="H84" s="2">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="I84" s="2">
         <v>0.4</v>
@@ -2927,10 +2927,10 @@
         <v>0.25</v>
       </c>
       <c r="G85" s="2">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="H85" s="2">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="I85" s="2">
         <v>0.41</v>
@@ -6859,10 +6859,10 @@
         <v>0.65</v>
       </c>
       <c r="C221" s="2">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="D221" s="2">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="E221" s="2">
         <v>0.28000000000000003</v>
@@ -6888,10 +6888,10 @@
         <v>0.62</v>
       </c>
       <c r="C222" s="2">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="D222" s="2">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="E222" s="2">
         <v>0.31</v>
@@ -6917,10 +6917,10 @@
         <v>0.51</v>
       </c>
       <c r="C223" s="2">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="D223" s="2">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="E223" s="2">
         <v>0.47</v>
@@ -6946,10 +6946,10 @@
         <v>0.44</v>
       </c>
       <c r="C224" s="2">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="D224" s="2">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="E224" s="2">
         <v>0.25</v>
@@ -7062,10 +7062,10 @@
         <v>0.63</v>
       </c>
       <c r="C228" s="2">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="D228" s="2">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="E228" s="2">
         <v>0.25</v>
@@ -7091,10 +7091,10 @@
         <v>0.64</v>
       </c>
       <c r="C229" s="2">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="D229" s="2">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="E229" s="2">
         <v>0.25</v>
@@ -7120,10 +7120,10 @@
         <v>0.53</v>
       </c>
       <c r="C230" s="2">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="D230" s="2">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="E230" s="2">
         <v>0.25</v>
@@ -7932,10 +7932,10 @@
         <v>0.49</v>
       </c>
       <c r="C258" s="2">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="D258" s="2">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="E258" s="2">
         <v>0.31</v>
@@ -7961,10 +7961,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C259" s="2">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="D259" s="2">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="E259" s="2">
         <v>0.41</v>
@@ -7990,10 +7990,10 @@
         <v>0.54</v>
       </c>
       <c r="C260" s="2">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="D260" s="2">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="E260" s="2">
         <v>0.43</v>
@@ -8019,10 +8019,10 @@
         <v>0.5</v>
       </c>
       <c r="C261" s="2">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
       <c r="D261" s="2">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
       <c r="E261" s="2">
         <v>0.4</v>
@@ -8048,10 +8048,10 @@
         <v>0.54</v>
       </c>
       <c r="C262" s="2">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="D262" s="2">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="E262" s="2">
         <v>0.47</v>
@@ -8077,10 +8077,10 @@
         <v>0.59</v>
       </c>
       <c r="C263" s="2">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="D263" s="2">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="E263" s="2">
         <v>0.57999999999999996</v>
@@ -8106,10 +8106,10 @@
         <v>0.7</v>
       </c>
       <c r="C264" s="2">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
       <c r="D264" s="2">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
       <c r="E264" s="2">
         <v>0.66</v>
@@ -8135,10 +8135,10 @@
         <v>0.75</v>
       </c>
       <c r="C265" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="D265" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="E265" s="2">
         <v>0.67</v>
@@ -8163,11 +8163,11 @@
       <c r="B266" s="2">
         <v>0.65</v>
       </c>
-      <c r="C266" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="D266" s="2">
-        <v>0.48</v>
+      <c r="C266" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="E266" s="2">
         <v>0.59</v>

--- a/src/DATA.xlsx
+++ b/src/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COBA\CODING\PAVIMENTAÇÃO\Pavement-Layers-Optimization-Model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C3EA5C-70BE-47F9-8E9D-4DC160CFE55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119EC1F8-CA9B-4F10-9B03-C9EA6C8293B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3977E240-FD55-4A91-9DBE-A7537FB81EA0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="11">
   <si>
     <t>km</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>d4</t>
+  </si>
+  <si>
+    <t>ras</t>
   </si>
 </sst>
 </file>
@@ -114,12 +117,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,13 +463,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF06BDC8-F5BC-4487-9114-7E497B188C3E}">
-  <dimension ref="A1:K644"/>
+  <dimension ref="A1:J644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -471,7 +477,7 @@
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,8 +505,11 @@
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43000</v>
       </c>
@@ -528,8 +537,11 @@
       <c r="I2" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="3">
+        <v>46.200356270582503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43025</v>
       </c>
@@ -557,8 +569,11 @@
       <c r="I3" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="3">
+        <v>45.572450567213103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43050</v>
       </c>
@@ -586,8 +601,11 @@
       <c r="I4" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="3">
+        <v>44.944544863843497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43075</v>
       </c>
@@ -615,8 +633,11 @@
       <c r="I5" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3">
+        <v>44.282740375187103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43100</v>
       </c>
@@ -644,8 +665,11 @@
       <c r="I6" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="3">
+        <v>43.5846343859521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43125</v>
       </c>
@@ -673,8 +697,11 @@
       <c r="I7" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="3">
+        <v>42.959693336034199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43150</v>
       </c>
@@ -702,8 +729,11 @@
       <c r="I8" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="3">
+        <v>42.334752286116299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43175</v>
       </c>
@@ -731,8 +761,11 @@
       <c r="I9" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="3">
+        <v>41.684728599398298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43200</v>
       </c>
@@ -760,8 +793,11 @@
       <c r="I10" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="3">
+        <v>40.948219044894103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43225</v>
       </c>
@@ -789,8 +825,11 @@
       <c r="I11" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="3">
+        <v>40.122423776104199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43250</v>
       </c>
@@ -818,8 +857,11 @@
       <c r="I12" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="3">
+        <v>39.207342793028701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43275</v>
       </c>
@@ -847,8 +889,11 @@
       <c r="I13" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="3">
+        <v>38.202976095667601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43300</v>
       </c>
@@ -876,8 +921,11 @@
       <c r="I14" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="3">
+        <v>37.109323684020801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43325</v>
       </c>
@@ -905,8 +953,11 @@
       <c r="I15" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="3">
+        <v>35.926385558088398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43350</v>
       </c>
@@ -934,8 +985,11 @@
       <c r="I16" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3">
+        <v>34.682405016319997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43375</v>
       </c>
@@ -963,8 +1017,11 @@
       <c r="I17" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3">
+        <v>33.436555543290503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43400</v>
       </c>
@@ -992,8 +1049,11 @@
       <c r="I18" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3">
+        <v>32.190706070261498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43425</v>
       </c>
@@ -1021,8 +1081,11 @@
       <c r="I19" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3">
+        <v>31.025668558750599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43450</v>
       </c>
@@ -1050,8 +1113,11 @@
       <c r="I20" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3">
+        <v>29.965992912070998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43475</v>
       </c>
@@ -1079,8 +1145,11 @@
       <c r="I21" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3">
+        <v>29.054045518878901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43500</v>
       </c>
@@ -1108,8 +1177,11 @@
       <c r="I22" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3">
+        <v>28.276494487705701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43525</v>
       </c>
@@ -1137,8 +1209,11 @@
       <c r="I23" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="3">
+        <v>27.633352058683101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43550</v>
       </c>
@@ -1166,8 +1241,11 @@
       <c r="I24" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="3">
+        <v>27.124618231810899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43575</v>
       </c>
@@ -1195,8 +1273,11 @@
       <c r="I25" s="2">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3">
+        <v>26.7502930070894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43600</v>
       </c>
@@ -1224,8 +1305,11 @@
       <c r="I26" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="3">
+        <v>26.510376384518299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43625</v>
       </c>
@@ -1253,8 +1337,11 @@
       <c r="I27" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="3">
+        <v>26.404868364097801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43650</v>
       </c>
@@ -1282,8 +1369,11 @@
       <c r="I28" s="2">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="3">
+        <v>26.4337689458279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43675</v>
       </c>
@@ -1311,8 +1401,11 @@
       <c r="I29" s="2">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="3">
+        <v>26.5970781297085</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43700</v>
       </c>
@@ -1340,8 +1433,11 @@
       <c r="I30" s="2">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="3">
+        <v>26.8947959157396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43725</v>
       </c>
@@ -1369,8 +1465,11 @@
       <c r="I31" s="2">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="3">
+        <v>27.326922303921201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43750</v>
       </c>
@@ -1398,8 +1497,11 @@
       <c r="I32" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="3">
+        <v>27.893457294253398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43775</v>
       </c>
@@ -1427,8 +1529,11 @@
       <c r="I33" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="3">
+        <v>28.594400886736199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43800</v>
       </c>
@@ -1456,8 +1561,11 @@
       <c r="I34" s="2">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="3">
+        <v>29.382037722866201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43825</v>
       </c>
@@ -1485,8 +1593,11 @@
       <c r="I35" s="2">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="3">
+        <v>30.171339155663201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43850</v>
       </c>
@@ -1514,8 +1625,11 @@
       <c r="I36" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="3">
+        <v>30.9606405884604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43875</v>
       </c>
@@ -1543,8 +1657,11 @@
       <c r="I37" s="2">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="3">
+        <v>31.7499420212575</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43900</v>
       </c>
@@ -1572,8 +1689,11 @@
       <c r="I38" s="2">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="3">
+        <v>32.534536361630103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43925</v>
       </c>
@@ -1601,8 +1721,11 @@
       <c r="I39" s="2">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="3">
+        <v>33.297501574656302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43950</v>
       </c>
@@ -1630,8 +1753,11 @@
       <c r="I40" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="3">
+        <v>34.037318639534298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43975</v>
       </c>
@@ -1659,8 +1785,11 @@
       <c r="I41" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="3">
+        <v>34.7539875562641</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44000</v>
       </c>
@@ -1688,8 +1817,11 @@
       <c r="I42" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="3">
+        <v>35.447508324845799</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44025</v>
       </c>
@@ -1717,8 +1849,11 @@
       <c r="I43" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="3">
+        <v>36.117880945279303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44050</v>
       </c>
@@ -1746,8 +1881,11 @@
       <c r="I44" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="3">
+        <v>36.765105417564698</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44075</v>
       </c>
@@ -1775,8 +1913,11 @@
       <c r="I45" s="2">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="3">
+        <v>37.389181741701996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44100</v>
       </c>
@@ -1804,8 +1945,11 @@
       <c r="I46" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="3">
+        <v>37.9901099176911</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44125</v>
       </c>
@@ -1833,8 +1977,11 @@
       <c r="I47" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="3">
+        <v>38.567889945532002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44150</v>
       </c>
@@ -1862,8 +2009,11 @@
       <c r="I48" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="3">
+        <v>39.122521825224801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44175</v>
       </c>
@@ -1891,8 +2041,11 @@
       <c r="I49" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="3">
+        <v>39.654005556769398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44200</v>
       </c>
@@ -1920,8 +2073,11 @@
       <c r="I50" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="3">
+        <v>40.1623411401659</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44225</v>
       </c>
@@ -1949,8 +2105,11 @@
       <c r="I51" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="3">
+        <v>40.647528575414299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44250</v>
       </c>
@@ -1978,8 +2137,11 @@
       <c r="I52" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="3">
+        <v>41.109567862514503</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44275</v>
       </c>
@@ -2007,8 +2169,11 @@
       <c r="I53" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="3">
+        <v>41.548459001466497</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44300</v>
       </c>
@@ -2036,8 +2201,11 @@
       <c r="I54" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="3">
+        <v>41.964201992270397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44325</v>
       </c>
@@ -2065,8 +2233,11 @@
       <c r="I55" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="3">
+        <v>42.3567968349262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44350</v>
       </c>
@@ -2094,8 +2265,11 @@
       <c r="I56" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="3">
+        <v>42.726243529433802</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44375</v>
       </c>
@@ -2123,8 +2297,11 @@
       <c r="I57" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="3">
+        <v>43.072542075793301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44400</v>
       </c>
@@ -2152,8 +2329,11 @@
       <c r="I58" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="3">
+        <v>43.395692474004598</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44425</v>
       </c>
@@ -2181,8 +2361,11 @@
       <c r="I59" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="3">
+        <v>43.6956947240677</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44450</v>
       </c>
@@ -2210,8 +2393,11 @@
       <c r="I60" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="3">
+        <v>43.972548825982699</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44475</v>
       </c>
@@ -2239,8 +2425,11 @@
       <c r="I61" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="3">
+        <v>44.226254779749603</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44500</v>
       </c>
@@ -2268,8 +2457,11 @@
       <c r="I62" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="3">
+        <v>44.456812585368297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44525</v>
       </c>
@@ -2297,8 +2489,11 @@
       <c r="I63" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="3">
+        <v>44.674310362731703</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44550</v>
       </c>
@@ -2326,8 +2521,11 @@
       <c r="I64" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="3">
+        <v>44.891757114251</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44575</v>
       </c>
@@ -2355,8 +2553,11 @@
       <c r="I65" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="3">
+        <v>45.098382665433</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44600</v>
       </c>
@@ -2384,8 +2585,11 @@
       <c r="I66" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="3">
+        <v>45.281001196371697</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44625</v>
       </c>
@@ -2413,8 +2617,11 @@
       <c r="I67" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="3">
+        <v>45.439581265771999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44650</v>
       </c>
@@ -2442,8 +2649,11 @@
       <c r="I68" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="3">
+        <v>45.574122873633698</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44675</v>
       </c>
@@ -2471,8 +2681,11 @@
       <c r="I69" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="3">
+        <v>45.684626019957101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44700</v>
       </c>
@@ -2500,8 +2713,11 @@
       <c r="I70" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="3">
+        <v>45.771090704741901</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44725</v>
       </c>
@@ -2529,8 +2745,11 @@
       <c r="I71" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="3">
+        <v>45.833516927988299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44750</v>
       </c>
@@ -2558,8 +2777,11 @@
       <c r="I72" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="3">
+        <v>45.871904689696201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44775</v>
       </c>
@@ -2587,8 +2809,11 @@
       <c r="I73" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="3">
+        <v>45.8862539898657</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44800</v>
       </c>
@@ -2616,8 +2841,11 @@
       <c r="I74" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="3">
+        <v>45.876564828496697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44825</v>
       </c>
@@ -2645,8 +2873,11 @@
       <c r="I75" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="3">
+        <v>45.842837205589198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44850</v>
       </c>
@@ -2674,8 +2905,11 @@
       <c r="I76" s="2">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="3">
+        <v>45.785071121143297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44875</v>
       </c>
@@ -2703,8 +2937,11 @@
       <c r="I77" s="2">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="3">
+        <v>45.703266575158899</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44900</v>
       </c>
@@ -2732,8 +2969,11 @@
       <c r="I78" s="2">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="3">
+        <v>45.597423567636099</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44925</v>
       </c>
@@ -2761,8 +3001,11 @@
       <c r="I79" s="2">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="3">
+        <v>45.467542098574803</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44950</v>
       </c>
@@ -2790,8 +3033,11 @@
       <c r="I80" s="2">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="3">
+        <v>45.313622167974998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>44975</v>
       </c>
@@ -2819,8 +3065,11 @@
       <c r="I81" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="3">
+        <v>45.135663775836797</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45000</v>
       </c>
@@ -2848,8 +3097,11 @@
       <c r="I82" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="3">
+        <v>44.934863758559104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45025</v>
       </c>
@@ -2877,8 +3129,11 @@
       <c r="I83" s="2">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="3">
+        <v>44.728433200561</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45050</v>
       </c>
@@ -2906,8 +3161,11 @@
       <c r="I84" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="3">
+        <v>44.5195165754307</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45075</v>
       </c>
@@ -2935,8 +3193,11 @@
       <c r="I85" s="2">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="3">
+        <v>44.291958437339702</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45100</v>
       </c>
@@ -2964,8 +3225,11 @@
       <c r="I86" s="2">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="3">
+        <v>44.042848575110803</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45125</v>
       </c>
@@ -2993,8 +3257,11 @@
       <c r="I87" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="3">
+        <v>43.772186988743996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45150</v>
       </c>
@@ -3022,8 +3289,11 @@
       <c r="I88" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="3">
+        <v>43.479973678239197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45175</v>
       </c>
@@ -3051,8 +3321,11 @@
       <c r="I89" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="3">
+        <v>43.166208643596498</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45200</v>
       </c>
@@ -3080,8 +3353,11 @@
       <c r="I90" s="2">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="3">
+        <v>42.830891884815898</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45225</v>
       </c>
@@ -3109,8 +3385,11 @@
       <c r="I91" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="3">
+        <v>42.474023401897298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45250</v>
       </c>
@@ -3138,8 +3417,11 @@
       <c r="I92" s="2">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="3">
+        <v>42.095603194840798</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45275</v>
       </c>
@@ -3167,8 +3449,11 @@
       <c r="I93" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="3">
+        <v>41.695631263646398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45300</v>
       </c>
@@ -3196,8 +3481,11 @@
       <c r="I94" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="3">
+        <v>41.274107608313997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45325</v>
       </c>
@@ -3225,8 +3513,11 @@
       <c r="I95" s="2">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="3">
+        <v>40.831032228843704</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45350</v>
       </c>
@@ -3254,8 +3545,11 @@
       <c r="I96" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="3">
+        <v>40.366405125235502</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45375</v>
       </c>
@@ -3283,8 +3577,11 @@
       <c r="I97" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="3">
+        <v>39.880226297489301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45400</v>
       </c>
@@ -3312,8 +3609,11 @@
       <c r="I98" s="2">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="3">
+        <v>39.378908956089298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45425</v>
       </c>
@@ -3341,8 +3641,11 @@
       <c r="I99" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="3">
+        <v>38.877028771004603</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45450</v>
       </c>
@@ -3370,8 +3673,11 @@
       <c r="I100" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="3">
+        <v>38.375148585919902</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45475</v>
       </c>
@@ -3399,8 +3705,11 @@
       <c r="I101" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="3">
+        <v>37.873684050494099</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45500</v>
       </c>
@@ -3428,8 +3737,11 @@
       <c r="I102" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="3">
+        <v>37.397316775386898</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45525</v>
       </c>
@@ -3457,8 +3769,11 @@
       <c r="I103" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="3">
+        <v>36.960506462304899</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45550</v>
       </c>
@@ -3486,8 +3801,11 @@
       <c r="I104" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="3">
+        <v>36.563253111248301</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45575</v>
       </c>
@@ -3515,8 +3833,11 @@
       <c r="I105" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="3">
+        <v>36.205556722216997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45600</v>
       </c>
@@ -3544,8 +3865,11 @@
       <c r="I106" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="3">
+        <v>35.887417295211002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45625</v>
       </c>
@@ -3573,8 +3897,11 @@
       <c r="I107" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="3">
+        <v>35.6088348302303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45650</v>
       </c>
@@ -3602,8 +3929,11 @@
       <c r="I108" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="3">
+        <v>35.369809327274901</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>45675</v>
       </c>
@@ -3631,8 +3961,11 @@
       <c r="I109" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="3">
+        <v>35.170340786344802</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>45700</v>
       </c>
@@ -3660,8 +3993,11 @@
       <c r="I110" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="3">
+        <v>35.010429207439998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>45725</v>
       </c>
@@ -3689,8 +4025,11 @@
       <c r="I111" s="2">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="3">
+        <v>34.890074590560602</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>45750</v>
       </c>
@@ -3718,8 +4057,11 @@
       <c r="I112" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="3">
+        <v>34.8092769357064</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>45775</v>
       </c>
@@ -3747,8 +4089,11 @@
       <c r="I113" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="3">
+        <v>34.768036242877599</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>45800</v>
       </c>
@@ -3776,8 +4121,11 @@
       <c r="I114" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="3">
+        <v>34.7663525120741</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>45825</v>
       </c>
@@ -3805,8 +4153,11 @@
       <c r="I115" s="2">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="3">
+        <v>34.804225743295902</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>45850</v>
       </c>
@@ -3834,8 +4185,11 @@
       <c r="I116" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="3">
+        <v>34.881655936542998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>45875</v>
       </c>
@@ -3863,8 +4217,11 @@
       <c r="I117" s="2">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="3">
+        <v>34.998643091815403</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>45900</v>
       </c>
@@ -3892,8 +4249,11 @@
       <c r="I118" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="3">
+        <v>35.155187209113102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>45925</v>
       </c>
@@ -3921,8 +4281,11 @@
       <c r="I119" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="3">
+        <v>35.351288288436102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>45950</v>
       </c>
@@ -3950,8 +4313,11 @@
       <c r="I120" s="2">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="3">
+        <v>35.586946329784503</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>45975</v>
       </c>
@@ -3979,8 +4345,11 @@
       <c r="I121" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="3">
+        <v>35.862161333158099</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>46000</v>
       </c>
@@ -4008,8 +4377,11 @@
       <c r="I122" s="2">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="3">
+        <v>36.176933298557103</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>46025</v>
       </c>
@@ -4037,8 +4409,11 @@
       <c r="I123" s="2">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="3">
+        <v>36.531262225981401</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>46050</v>
       </c>
@@ -4066,8 +4441,11 @@
       <c r="I124" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="3">
+        <v>36.9251481154309</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>46075</v>
       </c>
@@ -4095,8 +4473,11 @@
       <c r="I125" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="3">
+        <v>37.358590966905801</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>46100</v>
       </c>
@@ -4124,8 +4505,11 @@
       <c r="I126" s="2">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="3">
+        <v>37.831590780406003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>46125</v>
       </c>
@@ -4153,8 +4537,11 @@
       <c r="I127" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="3">
+        <v>38.344147555931599</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>46150</v>
       </c>
@@ -4182,8 +4569,11 @@
       <c r="I128" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="3">
+        <v>38.896261293482397</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>46175</v>
       </c>
@@ -4211,8 +4601,11 @@
       <c r="I129" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="3">
+        <v>39.487931993058503</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>46200</v>
       </c>
@@ -4240,8 +4633,11 @@
       <c r="I130" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="3">
+        <v>40.119159654660002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>46225</v>
       </c>
@@ -4269,8 +4665,11 @@
       <c r="I131" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="3">
+        <v>40.789944278286796</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>46250</v>
       </c>
@@ -4298,8 +4697,11 @@
       <c r="I132" s="2">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="3">
+        <v>41.500285863938799</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>46275</v>
       </c>
@@ -4327,8 +4729,11 @@
       <c r="I133" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="3">
+        <v>42.250184411616203</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>46300</v>
       </c>
@@ -4356,8 +4761,11 @@
       <c r="I134" s="2">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="3">
+        <v>43.039639921318901</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>46325</v>
       </c>
@@ -4385,8 +4793,11 @@
       <c r="I135" s="2">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="3">
+        <v>43.868652393046901</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>46350</v>
       </c>
@@ -4414,8 +4825,11 @@
       <c r="I136" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="3">
+        <v>44.723336583152999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>46375</v>
       </c>
@@ -4443,8 +4857,11 @@
       <c r="I137" s="2">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="3">
+        <v>45.578540628028598</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>46400</v>
       </c>
@@ -4472,8 +4889,11 @@
       <c r="I138" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="3">
+        <v>46.433409719464002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>46425</v>
       </c>
@@ -4501,8 +4921,11 @@
       <c r="I139" s="2">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="3">
+        <v>47.281703806646199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>46450</v>
       </c>
@@ -4530,8 +4953,11 @@
       <c r="I140" s="2">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="3">
+        <v>48.121069322399599</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>46475</v>
       </c>
@@ -4559,8 +4985,11 @@
       <c r="I141" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="3">
+        <v>48.951506266724202</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>46500</v>
       </c>
@@ -4588,8 +5017,11 @@
       <c r="I142" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="3">
+        <v>49.773014639620101</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>46525</v>
       </c>
@@ -4617,8 +5049,11 @@
       <c r="I143" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="3">
+        <v>50.587303615731102</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>46550</v>
       </c>
@@ -4646,8 +5081,11 @@
       <c r="I144" s="2">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="3">
+        <v>51.4009437107241</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>46575</v>
       </c>
@@ -4675,8 +5113,11 @@
       <c r="I145" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="3">
+        <v>52.214583805717197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>46600</v>
       </c>
@@ -4704,8 +5145,11 @@
       <c r="I146" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" s="3">
+        <v>53.028223900710401</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>46625</v>
       </c>
@@ -4733,8 +5177,11 @@
       <c r="I147" s="2">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="3">
+        <v>53.841863995703299</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>46650</v>
       </c>
@@ -4762,8 +5209,11 @@
       <c r="I148" s="2">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" s="3">
+        <v>54.655173430796403</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>46675</v>
       </c>
@@ -4791,8 +5241,11 @@
       <c r="I149" s="2">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" s="3">
+        <v>55.4010203032825</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>46700</v>
       </c>
@@ -4820,8 +5273,11 @@
       <c r="I150" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="3">
+        <v>56.0289426474667</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>46725</v>
       </c>
@@ -4849,8 +5305,11 @@
       <c r="I151" s="2">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="3">
+        <v>56.5389404633491</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>46750</v>
       </c>
@@ -4878,8 +5337,11 @@
       <c r="I152" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="3">
+        <v>56.931013750929502</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>46775</v>
       </c>
@@ -4907,8 +5369,11 @@
       <c r="I153" s="2">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="3">
+        <v>57.205162510208098</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>46800</v>
       </c>
@@ -4936,8 +5401,11 @@
       <c r="I154" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="3">
+        <v>57.361386741184802</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>46825</v>
       </c>
@@ -4965,8 +5433,11 @@
       <c r="I155" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" s="3">
+        <v>57.3996864438597</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>46850</v>
       </c>
@@ -4994,8 +5465,11 @@
       <c r="I156" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="3">
+        <v>57.3200616182327</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>46875</v>
       </c>
@@ -5023,8 +5497,11 @@
       <c r="I157" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="3">
+        <v>57.122512264303801</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>46900</v>
       </c>
@@ -5052,8 +5529,11 @@
       <c r="I158" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="3">
+        <v>56.807038382073003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>46925</v>
       </c>
@@ -5081,8 +5561,11 @@
       <c r="I159" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="3">
+        <v>56.3736399715403</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>46950</v>
       </c>
@@ -5110,8 +5593,11 @@
       <c r="I160" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="3">
+        <v>55.877260875286098</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>46975</v>
       </c>
@@ -5139,8 +5625,11 @@
       <c r="I161" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="3">
+        <v>55.2583150136984</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>47000</v>
       </c>
@@ -5168,8 +5657,11 @@
       <c r="I162" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="3">
+        <v>54.619220413253402</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>47025</v>
       </c>
@@ -5197,8 +5689,11 @@
       <c r="I163" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="3">
+        <v>53.924951851255699</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>47050</v>
       </c>
@@ -5226,8 +5721,11 @@
       <c r="I164" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="3">
+        <v>53.174879717829498</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>47075</v>
       </c>
@@ -5255,8 +5753,11 @@
       <c r="I165" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="3">
+        <v>52.369004012974699</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>47100</v>
       </c>
@@ -5284,8 +5785,11 @@
       <c r="I166" s="2">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="3">
+        <v>51.507324736691402</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>47125</v>
       </c>
@@ -5313,8 +5817,11 @@
       <c r="I167" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="3">
+        <v>50.5898418889794</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>47150</v>
       </c>
@@ -5342,8 +5849,11 @@
       <c r="I168" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="3">
+        <v>49.637509146819198</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>47175</v>
       </c>
@@ -5371,8 +5881,11 @@
       <c r="I169" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="3">
+        <v>48.684679808991397</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>47200</v>
       </c>
@@ -5400,8 +5913,11 @@
       <c r="I170" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="3">
+        <v>47.731850471163597</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>47225</v>
       </c>
@@ -5429,8 +5945,11 @@
       <c r="I171" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="3">
+        <v>46.779021133335597</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>47250</v>
       </c>
@@ -5458,8 +5977,11 @@
       <c r="I172" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="3">
+        <v>45.826191795507803</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>47275</v>
       </c>
@@ -5487,8 +6009,11 @@
       <c r="I173" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="3">
+        <v>44.873362457680102</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>47300</v>
       </c>
@@ -5516,8 +6041,11 @@
       <c r="I174" s="2">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="3">
+        <v>43.929888800810403</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>47325</v>
       </c>
@@ -5545,8 +6073,11 @@
       <c r="I175" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="3">
+        <v>43.056615398633703</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>47350</v>
       </c>
@@ -5574,8 +6105,11 @@
       <c r="I176" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="3">
+        <v>42.264510827625799</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>47375</v>
       </c>
@@ -5603,8 +6137,11 @@
       <c r="I177" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="3">
+        <v>41.553575087786797</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>47400</v>
       </c>
@@ -5632,8 +6169,11 @@
       <c r="I178" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="3">
+        <v>40.923808179116499</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>47425</v>
       </c>
@@ -5661,8 +6201,11 @@
       <c r="I179" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="3">
+        <v>40.375210101615103</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>47450</v>
       </c>
@@ -5690,8 +6233,11 @@
       <c r="I180" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="3">
+        <v>39.907780855282603</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>47475</v>
       </c>
@@ -5719,8 +6265,11 @@
       <c r="I181" s="2">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="3">
+        <v>39.521520440118799</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>47500</v>
       </c>
@@ -5748,8 +6297,11 @@
       <c r="I182" s="2">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="3">
+        <v>39.216428856123898</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>47525</v>
       </c>
@@ -5777,8 +6329,11 @@
       <c r="I183" s="2">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" s="3">
+        <v>38.992506103297899</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>47550</v>
       </c>
@@ -5806,8 +6361,11 @@
       <c r="I184" s="2">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="3">
+        <v>38.849752181640604</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>47575</v>
       </c>
@@ -5835,8 +6393,11 @@
       <c r="I185" s="2">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="3">
+        <v>38.788167091152197</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>47600</v>
       </c>
@@ -5864,8 +6425,11 @@
       <c r="I186" s="2">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="3">
+        <v>38.8077508318326</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>47625</v>
       </c>
@@ -5893,8 +6457,11 @@
       <c r="I187" s="2">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="3">
+        <v>38.908503403681898</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>47650</v>
       </c>
@@ -5922,8 +6489,11 @@
       <c r="I188" s="2">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="3">
+        <v>39.0904248067</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>47675</v>
       </c>
@@ -5951,8 +6521,11 @@
       <c r="I189" s="2">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" s="3">
+        <v>39.353515040886897</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>47700</v>
       </c>
@@ -5980,8 +6553,11 @@
       <c r="I190" s="2">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" s="3">
+        <v>39.697774106242598</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>47725</v>
       </c>
@@ -6009,8 +6585,11 @@
       <c r="I191" s="2">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" s="3">
+        <v>40.123202002767201</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>47750</v>
       </c>
@@ -6038,8 +6617,11 @@
       <c r="I192" s="2">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" s="3">
+        <v>40.6297987304606</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>47775</v>
       </c>
@@ -6067,8 +6649,11 @@
       <c r="I193" s="2">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193" s="3">
+        <v>41.217564289322802</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>47800</v>
       </c>
@@ -6096,8 +6681,11 @@
       <c r="I194" s="2">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194" s="3">
+        <v>41.886498679353899</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>47825</v>
       </c>
@@ -6125,8 +6713,11 @@
       <c r="I195" s="2">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" s="3">
+        <v>42.630475559366701</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>47850</v>
       </c>
@@ -6154,8 +6745,11 @@
       <c r="I196" s="2">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J196" s="3">
+        <v>43.389626932785902</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>47875</v>
       </c>
@@ -6183,8 +6777,11 @@
       <c r="I197" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J197" s="3">
+        <v>44.148778306205301</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>47900</v>
       </c>
@@ -6212,8 +6809,11 @@
       <c r="I198" s="2">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198" s="3">
+        <v>44.907929679624402</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>47925</v>
       </c>
@@ -6241,8 +6841,11 @@
       <c r="I199" s="2">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199" s="3">
+        <v>45.666861553573597</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>47950</v>
       </c>
@@ -6270,8 +6873,11 @@
       <c r="I200" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" s="3">
+        <v>46.423562017120801</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>47975</v>
       </c>
@@ -6299,8 +6905,11 @@
       <c r="I201" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201" s="3">
+        <v>47.177545089363697</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>48000</v>
       </c>
@@ -6328,8 +6937,11 @@
       <c r="I202" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" s="3">
+        <v>47.928810770302299</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>48025</v>
       </c>
@@ -6357,8 +6969,11 @@
       <c r="I203" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" s="3">
+        <v>48.677359059936599</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>48050</v>
       </c>
@@ -6386,8 +7001,11 @@
       <c r="I204" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" s="3">
+        <v>49.423675939168803</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>48075</v>
       </c>
@@ -6415,8 +7033,11 @@
       <c r="I205" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" s="3">
+        <v>50.169773318930801</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>48100</v>
       </c>
@@ -6444,8 +7065,11 @@
       <c r="I206" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" s="3">
+        <v>50.915870698692999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>48125</v>
       </c>
@@ -6473,8 +7097,11 @@
       <c r="I207" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" s="3">
+        <v>51.661959285359799</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>48150</v>
       </c>
@@ -6502,8 +7129,11 @@
       <c r="I208" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" s="3">
+        <v>52.386367318966101</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>48175</v>
       </c>
@@ -6531,8 +7161,11 @@
       <c r="I209" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209" s="3">
+        <v>53.069108685905803</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>48200</v>
       </c>
@@ -6560,8 +7193,11 @@
       <c r="I210" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210" s="3">
+        <v>53.710183386178798</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>48225</v>
       </c>
@@ -6589,8 +7225,11 @@
       <c r="I211" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211" s="3">
+        <v>54.3095914197851</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>48250</v>
       </c>
@@ -6618,8 +7257,11 @@
       <c r="I212" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" s="3">
+        <v>54.867332786724802</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>48275</v>
       </c>
@@ -6647,8 +7289,11 @@
       <c r="I213" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" s="3">
+        <v>55.383407486997903</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>48300</v>
       </c>
@@ -6676,8 +7321,11 @@
       <c r="I214" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214" s="3">
+        <v>55.857815520604298</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>48325</v>
       </c>
@@ -6705,8 +7353,11 @@
       <c r="I215" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215" s="3">
+        <v>56.290556887544</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>48350</v>
       </c>
@@ -6734,8 +7385,11 @@
       <c r="I216" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" s="3">
+        <v>56.681631587817101</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>48375</v>
       </c>
@@ -6763,8 +7417,11 @@
       <c r="I217" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217" s="3">
+        <v>57.031039621423602</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>48400</v>
       </c>
@@ -6792,8 +7449,11 @@
       <c r="I218" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218" s="3">
+        <v>57.347500589739703</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>48425</v>
       </c>
@@ -6821,8 +7481,11 @@
       <c r="I219" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J219" s="3">
+        <v>57.643113514142698</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>48450</v>
       </c>
@@ -6850,8 +7513,11 @@
       <c r="I220" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220" s="3">
+        <v>57.904004216323401</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>48475</v>
       </c>
@@ -6879,8 +7545,11 @@
       <c r="I221" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J221" s="3">
+        <v>58.130172696281903</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>48500</v>
       </c>
@@ -6908,8 +7577,11 @@
       <c r="I222" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J222" s="3">
+        <v>58.321618954018199</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>48525</v>
       </c>
@@ -6937,8 +7609,11 @@
       <c r="I223" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223" s="3">
+        <v>58.488425972979897</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>48550</v>
       </c>
@@ -6966,8 +7641,11 @@
       <c r="I224" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J224" s="3">
+        <v>58.654250325610697</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>48575</v>
       </c>
@@ -6995,8 +7673,11 @@
       <c r="I225" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J225" s="3">
+        <v>58.820074678241703</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>48600</v>
       </c>
@@ -7024,8 +7705,11 @@
       <c r="I226" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J226" s="3">
+        <v>58.985899030872503</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>48625</v>
       </c>
@@ -7053,8 +7737,11 @@
       <c r="I227" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J227" s="3">
+        <v>59.151723383503402</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>48650</v>
       </c>
@@ -7082,8 +7769,11 @@
       <c r="I228" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J228" s="3">
+        <v>59.317547736134301</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>48675</v>
       </c>
@@ -7111,8 +7801,11 @@
       <c r="I229" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J229" s="3">
+        <v>59.483372088765201</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>48700</v>
       </c>
@@ -7140,8 +7833,11 @@
       <c r="I230" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J230" s="3">
+        <v>59.649196441396001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>48725</v>
       </c>
@@ -7169,8 +7865,11 @@
       <c r="I231" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J231" s="3">
+        <v>59.815020794026999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>48750</v>
       </c>
@@ -7198,8 +7897,11 @@
       <c r="I232" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J232" s="3">
+        <v>59.980845146657799</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>48775</v>
       </c>
@@ -7227,8 +7929,11 @@
       <c r="I233" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J233" s="3">
+        <v>60.146669499288699</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>48800</v>
       </c>
@@ -7256,8 +7961,11 @@
       <c r="I234" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J234" s="3">
+        <v>60.312493851919598</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>48825</v>
       </c>
@@ -7285,8 +7993,11 @@
       <c r="I235" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J235" s="3">
+        <v>60.478318204550497</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>48850</v>
       </c>
@@ -7314,8 +8025,11 @@
       <c r="I236" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J236" s="3">
+        <v>60.644142557181297</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>48875</v>
       </c>
@@ -7343,8 +8057,11 @@
       <c r="I237" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J237" s="3">
+        <v>60.809966909812303</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>48900</v>
       </c>
@@ -7372,8 +8089,11 @@
       <c r="I238" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J238" s="3">
+        <v>60.975791262443103</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>48925</v>
       </c>
@@ -7401,8 +8121,11 @@
       <c r="I239" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J239" s="3">
+        <v>61.141615615074002</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>48950</v>
       </c>
@@ -7430,8 +8153,11 @@
       <c r="I240" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J240" s="3">
+        <v>61.307439967704902</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>48975</v>
       </c>
@@ -7459,8 +8185,11 @@
       <c r="I241" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J241" s="3">
+        <v>61.473264320335801</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>49000</v>
       </c>
@@ -7488,8 +8217,11 @@
       <c r="I242" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J242" s="3">
+        <v>61.639088672966601</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>49025</v>
       </c>
@@ -7517,8 +8249,11 @@
       <c r="I243" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J243" s="3">
+        <v>61.8049130255975</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>49050</v>
       </c>
@@ -7546,8 +8281,11 @@
       <c r="I244" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J244" s="3">
+        <v>61.970737378228399</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>49075</v>
       </c>
@@ -7575,8 +8313,11 @@
       <c r="I245" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J245" s="3">
+        <v>62.136561730859299</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>49100</v>
       </c>
@@ -7604,8 +8345,11 @@
       <c r="I246" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J246" s="3">
+        <v>62.302386083490099</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>49125</v>
       </c>
@@ -7633,8 +8377,11 @@
       <c r="I247" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J247" s="3">
+        <v>62.468210436121097</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>49150</v>
       </c>
@@ -7662,8 +8409,11 @@
       <c r="I248" s="2">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J248" s="3">
+        <v>62.634034788751897</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>49175</v>
       </c>
@@ -7691,8 +8441,11 @@
       <c r="I249" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J249" s="3">
+        <v>62.799859141382797</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>49200</v>
       </c>
@@ -7720,8 +8473,11 @@
       <c r="I250" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J250" s="3">
+        <v>62.965683494013703</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>49225</v>
       </c>
@@ -7749,8 +8505,11 @@
       <c r="I251" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J251" s="3">
+        <v>63.131507846644602</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>49250</v>
       </c>
@@ -7778,8 +8537,11 @@
       <c r="I252" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J252" s="3">
+        <v>63.355801503113597</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>49275</v>
       </c>
@@ -7807,8 +8569,11 @@
       <c r="I253" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J253" s="3">
+        <v>63.721530690701996</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>49300</v>
       </c>
@@ -7836,8 +8601,11 @@
       <c r="I254" s="2">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J254" s="3">
+        <v>64.229305332835906</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>49325</v>
       </c>
@@ -7865,8 +8633,11 @@
       <c r="I255" s="2">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J255" s="3">
+        <v>64.879125429515199</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>49350</v>
       </c>
@@ -7894,8 +8665,11 @@
       <c r="I256" s="2">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J256" s="3">
+        <v>65.670990980739901</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>49375</v>
       </c>
@@ -7923,8 +8697,11 @@
       <c r="I257" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J257" s="3">
+        <v>66.6049019865101</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>49400</v>
       </c>
@@ -7952,8 +8729,11 @@
       <c r="I258" s="2">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J258" s="3">
+        <v>67.680858446825695</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>49425</v>
       </c>
@@ -7981,8 +8761,11 @@
       <c r="I259" s="2">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J259" s="3">
+        <v>68.898860361686701</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>49450</v>
       </c>
@@ -8010,8 +8793,11 @@
       <c r="I260" s="2">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J260" s="3">
+        <v>70.258907731093203</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>49475</v>
       </c>
@@ -8039,8 +8825,11 @@
       <c r="I261" s="2">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J261" s="3">
+        <v>71.761000555045101</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>49500</v>
       </c>
@@ -8068,8 +8857,11 @@
       <c r="I262" s="2">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J262" s="3">
+        <v>73.405138833542395</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>49525</v>
       </c>
@@ -8097,8 +8889,11 @@
       <c r="I263" s="2">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J263" s="3">
+        <v>75.1913225665852</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>49550</v>
       </c>
@@ -8126,8 +8921,11 @@
       <c r="I264" s="2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J264" s="3">
+        <v>77.075948163451798</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>49575</v>
       </c>
@@ -8155,8 +8953,11 @@
       <c r="I265" s="2">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J265" s="3">
+        <v>78.963901454207203</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>49600</v>
       </c>
@@ -8184,8 +8985,11 @@
       <c r="I266" s="2">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J266" s="3">
+        <v>80.851854744963006</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>49625</v>
       </c>
@@ -8213,8 +9017,11 @@
       <c r="I267" s="2">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J267" s="3">
+        <v>82.739808035718397</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>49650</v>
       </c>
@@ -8242,8 +9049,11 @@
       <c r="I268" s="2">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J268" s="3">
+        <v>84.585197407086994</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>49675</v>
       </c>
@@ -8271,8 +9081,11 @@
       <c r="I269" s="2">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J269" s="3">
+        <v>86.430586778456004</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>49700</v>
       </c>
@@ -8300,8 +9113,11 @@
       <c r="I270" s="2">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J270" s="3">
+        <v>88.275976149825098</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>49725</v>
       </c>
@@ -8329,8 +9145,11 @@
       <c r="I271" s="2">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J271" s="3">
+        <v>90.121365521193596</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>49750</v>
       </c>
@@ -8358,8 +9177,11 @@
       <c r="I272" s="2">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J272" s="3">
+        <v>91.966754892562705</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>49775</v>
       </c>
@@ -8387,8 +9209,11 @@
       <c r="I273" s="2">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J273" s="3">
+        <v>93.812144263931302</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>49800</v>
       </c>
@@ -8416,8 +9241,11 @@
       <c r="I274" s="2">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J274" s="3">
+        <v>95.657533635300297</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>49825</v>
       </c>
@@ -8445,8 +9273,11 @@
       <c r="I275" s="2">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J275" s="3">
+        <v>97.502923006669306</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>49850</v>
       </c>
@@ -8474,8 +9305,11 @@
       <c r="I276" s="2">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J276" s="3">
+        <v>99.348312378037903</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>49875</v>
       </c>
@@ -8503,8 +9337,11 @@
       <c r="I277" s="2">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J277" s="3">
+        <v>101.317045244445</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>49900</v>
       </c>
@@ -8532,8 +9369,11 @@
       <c r="I278" s="2">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J278" s="3">
+        <v>103.285778110851</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>49925</v>
       </c>
@@ -8561,8 +9401,11 @@
       <c r="I279" s="2">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J279" s="3">
+        <v>105.25451097725799</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>49950</v>
       </c>
@@ -8590,8 +9433,11 @@
       <c r="I280" s="2">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J280" s="3">
+        <v>107.223243843665</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>49975</v>
       </c>
@@ -8619,8 +9465,11 @@
       <c r="I281" s="2">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J281" s="3">
+        <v>109.191976710072</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>50000</v>
       </c>
@@ -8648,8 +9497,11 @@
       <c r="I282" s="2">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J282" s="3">
+        <v>111.16070957647899</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>50025</v>
       </c>
@@ -8677,8 +9529,11 @@
       <c r="I283" s="2">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J283" s="3">
+        <v>113.129442442886</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>50050</v>
       </c>
@@ -8706,8 +9561,11 @@
       <c r="I284" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J284" s="3">
+        <v>115.098175309293</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>50075</v>
       </c>
@@ -8735,8 +9593,11 @@
       <c r="I285" s="2">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J285" s="3">
+        <v>117.034594215178</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>50100</v>
       </c>
@@ -8764,8 +9625,11 @@
       <c r="I286" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J286" s="3">
+        <v>118.943998081318</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>50125</v>
       </c>
@@ -8793,8 +9657,11 @@
       <c r="I287" s="2">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J287" s="3">
+        <v>120.853401947458</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>50150</v>
       </c>
@@ -8822,8 +9689,11 @@
       <c r="I288" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J288" s="3">
+        <v>122.76280581359801</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>50175</v>
       </c>
@@ -8851,8 +9721,11 @@
       <c r="I289" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J289" s="3">
+        <v>124.672209679738</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>50200</v>
       </c>
@@ -8880,8 +9753,11 @@
       <c r="I290" s="2">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J290" s="3">
+        <v>126.51556514665199</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>50225</v>
       </c>
@@ -8909,8 +9785,11 @@
       <c r="I291" s="2">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J291" s="3">
+        <v>128.358920613565</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>50250</v>
       </c>
@@ -8938,8 +9817,11 @@
       <c r="I292" s="2">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J292" s="3">
+        <v>130.20227608047799</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>50275</v>
       </c>
@@ -8967,8 +9849,11 @@
       <c r="I293" s="2">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J293" s="3">
+        <v>132.045631547391</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>50300</v>
       </c>
@@ -8996,8 +9881,11 @@
       <c r="I294" s="2">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J294" s="3">
+        <v>133.88898701430401</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>50325</v>
       </c>
@@ -9025,8 +9913,11 @@
       <c r="I295" s="2">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J295" s="3">
+        <v>135.85333038140701</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>50350</v>
       </c>
@@ -9054,8 +9945,11 @@
       <c r="I296" s="2">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J296" s="3">
+        <v>137.81767374850901</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>50375</v>
       </c>
@@ -9083,8 +9977,11 @@
       <c r="I297" s="2">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J297" s="3">
+        <v>139.78201711561201</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>50400</v>
       </c>
@@ -9112,8 +10009,11 @@
       <c r="I298" s="2">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J298" s="3">
+        <v>141.74636048271401</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>50425</v>
       </c>
@@ -9141,8 +10041,11 @@
       <c r="I299" s="2">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J299" s="3">
+        <v>143.71070384981701</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>50450</v>
       </c>
@@ -9170,8 +10073,11 @@
       <c r="I300" s="2">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J300" s="3">
+        <v>145.68907496913101</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>50475</v>
       </c>
@@ -9199,8 +10105,11 @@
       <c r="I301" s="2">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J301" s="3">
+        <v>147.66744608844499</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>50500</v>
       </c>
@@ -9228,8 +10137,11 @@
       <c r="I302" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J302" s="3">
+        <v>149.64581720775999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>50525</v>
       </c>
@@ -9257,8 +10169,11 @@
       <c r="I303" s="2">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J303" s="3">
+        <v>151.62418832707399</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>50550</v>
       </c>
@@ -9286,8 +10201,11 @@
       <c r="I304" s="2">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J304" s="3">
+        <v>153.602559446388</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>50575</v>
       </c>
@@ -9315,8 +10233,11 @@
       <c r="I305" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J305" s="3">
+        <v>155.580930565702</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>50600</v>
       </c>
@@ -9344,8 +10265,11 @@
       <c r="I306" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J306" s="3">
+        <v>157.55930168501601</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>50625</v>
       </c>
@@ -9373,8 +10297,11 @@
       <c r="I307" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J307" s="3">
+        <v>159.475949200977</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>50650</v>
       </c>
@@ -9402,8 +10329,11 @@
       <c r="I308" s="2">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J308" s="3">
+        <v>161.39259671693901</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>50675</v>
       </c>
@@ -9431,8 +10361,11 @@
       <c r="I309" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J309" s="3">
+        <v>163.3092442329</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>50700</v>
       </c>
@@ -9460,8 +10393,11 @@
       <c r="I310" s="2">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J310" s="3">
+        <v>165.22589174886201</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>50725</v>
       </c>
@@ -9489,8 +10425,11 @@
       <c r="I311" s="2">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J311" s="3">
+        <v>167.142539264823</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>50750</v>
       </c>
@@ -9518,8 +10457,11 @@
       <c r="I312" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J312" s="3">
+        <v>169.05918678078501</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>50775</v>
       </c>
@@ -9547,8 +10489,11 @@
       <c r="I313" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J313" s="3">
+        <v>170.975834296747</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>50800</v>
       </c>
@@ -9576,8 +10521,11 @@
       <c r="I314" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J314" s="3">
+        <v>172.888862133586</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>50825</v>
       </c>
@@ -9605,8 +10553,11 @@
       <c r="I315" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J315" s="3">
+        <v>174.75298854496199</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>50850</v>
       </c>
@@ -9634,8 +10585,11 @@
       <c r="I316" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J316" s="3">
+        <v>176.55461495633801</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>50875</v>
       </c>
@@ -9663,8 +10617,11 @@
       <c r="I317" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J317" s="3">
+        <v>178.29374136771301</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>50900</v>
       </c>
@@ -9692,8 +10649,11 @@
       <c r="I318" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J318" s="3">
+        <v>179.970367779089</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>50925</v>
       </c>
@@ -9721,8 +10681,11 @@
       <c r="I319" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J319" s="3">
+        <v>181.58449419046499</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>50950</v>
       </c>
@@ -9750,8 +10713,11 @@
       <c r="I320" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J320" s="3">
+        <v>183.13612060183999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>50975</v>
       </c>
@@ -9779,8 +10745,11 @@
       <c r="I321" s="2">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J321" s="3">
+        <v>184.63791479368601</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>51000</v>
       </c>
@@ -9808,8 +10777,11 @@
       <c r="I322" s="2">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J322" s="3">
+        <v>186.13558407576599</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>51025</v>
       </c>
@@ -9837,8 +10809,11 @@
       <c r="I323" s="2">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J323" s="3">
+        <v>187.61698473363401</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>51050</v>
       </c>
@@ -9866,8 +10841,11 @@
       <c r="I324" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J324" s="3">
+        <v>189.03830880503199</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>51075</v>
       </c>
@@ -9895,8 +10873,11 @@
       <c r="I325" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J325" s="3">
+        <v>190.39713287642999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>51100</v>
       </c>
@@ -9924,8 +10905,11 @@
       <c r="I326" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J326" s="3">
+        <v>191.693456947828</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>51125</v>
       </c>
@@ -9953,8 +10937,11 @@
       <c r="I327" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J327" s="3">
+        <v>192.927281019227</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>51150</v>
       </c>
@@ -9982,8 +10969,11 @@
       <c r="I328" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J328" s="3">
+        <v>194.098605090625</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>51175</v>
       </c>
@@ -10011,8 +11001,11 @@
       <c r="I329" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J329" s="3">
+        <v>195.207429162023</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>51200</v>
       </c>
@@ -10040,8 +11033,11 @@
       <c r="I330" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J330" s="3">
+        <v>196.25375323342101</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>51225</v>
       </c>
@@ -10069,8 +11065,11 @@
       <c r="I331" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J331" s="3">
+        <v>197.23757783672801</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>51250</v>
       </c>
@@ -10098,8 +11097,11 @@
       <c r="I332" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J332" s="3">
+        <v>198.19040976210101</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>51275</v>
       </c>
@@ -10127,8 +11129,11 @@
       <c r="I333" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J333" s="3">
+        <v>199.14324168747501</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>51300</v>
       </c>
@@ -10156,8 +11161,11 @@
       <c r="I334" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J334" s="3">
+        <v>200.070600632798</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>51325</v>
       </c>
@@ -10185,8 +11193,11 @@
       <c r="I335" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J335" s="3">
+        <v>200.92922997031599</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>51350</v>
       </c>
@@ -10214,8 +11225,11 @@
       <c r="I336" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J336" s="3">
+        <v>201.71841486339</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>51375</v>
       </c>
@@ -10243,8 +11257,11 @@
       <c r="I337" s="2">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J337" s="3">
+        <v>202.43815531201901</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>51400</v>
       </c>
@@ -10272,8 +11289,11 @@
       <c r="I338" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J338" s="3">
+        <v>203.08845131620299</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>51425</v>
       </c>
@@ -10301,8 +11321,11 @@
       <c r="I339" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J339" s="3">
+        <v>203.669302875944</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>51450</v>
       </c>
@@ -10330,8 +11353,11 @@
       <c r="I340" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J340" s="3">
+        <v>204.18070999123901</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>51475</v>
       </c>
@@ -10359,8 +11385,11 @@
       <c r="I341" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J341" s="3">
+        <v>204.62267266209</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>51500</v>
       </c>
@@ -10388,8 +11417,11 @@
       <c r="I342" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J342" s="3">
+        <v>204.99519088849701</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>51525</v>
       </c>
@@ -10417,8 +11449,11 @@
       <c r="I343" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J343" s="3">
+        <v>205.29826467045899</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>51550</v>
       </c>
@@ -10446,8 +11481,11 @@
       <c r="I344" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J344" s="3">
+        <v>205.534588393831</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>51575</v>
       </c>
@@ -10475,8 +11513,11 @@
       <c r="I345" s="2">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J345" s="3">
+        <v>205.75284028251599</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>51600</v>
       </c>
@@ -10504,8 +11545,11 @@
       <c r="I346" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J346" s="3">
+        <v>205.97109217120101</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>51625</v>
       </c>
@@ -10533,8 +11577,11 @@
       <c r="I347" s="2">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J347" s="3">
+        <v>206.18934405988699</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>51650</v>
       </c>
@@ -10562,8 +11609,11 @@
       <c r="I348" s="2">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J348" s="3">
+        <v>206.40759594857201</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>51675</v>
       </c>
@@ -10591,8 +11641,11 @@
       <c r="I349" s="2">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J349" s="3">
+        <v>206.625847837257</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>51700</v>
       </c>
@@ -10620,8 +11673,11 @@
       <c r="I350" s="2">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J350" s="3">
+        <v>206.84409972594199</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>51725</v>
       </c>
@@ -10649,8 +11705,11 @@
       <c r="I351" s="2">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J351" s="3">
+        <v>207.062351614628</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>51750</v>
       </c>
@@ -10678,8 +11737,11 @@
       <c r="I352" s="2">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J352" s="3">
+        <v>207.28060350331299</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>51775</v>
       </c>
@@ -10707,8 +11769,11 @@
       <c r="I353" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J353" s="3">
+        <v>207.49885539199801</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>51800</v>
       </c>
@@ -10736,8 +11801,11 @@
       <c r="I354" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J354" s="3">
+        <v>207.717107280683</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>51825</v>
       </c>
@@ -10765,8 +11833,11 @@
       <c r="I355" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J355" s="3">
+        <v>207.93535916936801</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>51850</v>
       </c>
@@ -10794,8 +11865,11 @@
       <c r="I356" s="2">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J356" s="3">
+        <v>208.153611058054</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>51875</v>
       </c>
@@ -10823,8 +11897,11 @@
       <c r="I357" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J357" s="3">
+        <v>208.37186294673899</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>51900</v>
       </c>
@@ -10852,8 +11929,11 @@
       <c r="I358" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J358" s="3">
+        <v>208.590114835424</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>51925</v>
       </c>
@@ -10881,8 +11961,11 @@
       <c r="I359" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J359" s="3">
+        <v>208.80941275308999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>51950</v>
       </c>
@@ -10910,8 +11993,11 @@
       <c r="I360" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J360" s="3">
+        <v>209.094510180371</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>51975</v>
       </c>
@@ -10939,8 +12025,11 @@
       <c r="I361" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J361" s="3">
+        <v>209.48377427431899</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>52000</v>
       </c>
@@ -10968,8 +12057,11 @@
       <c r="I362" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J362" s="3">
+        <v>209.97720503493301</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>52025</v>
       </c>
@@ -10997,8 +12089,11 @@
       <c r="I363" s="2">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J363" s="3">
+        <v>210.574802462214</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>52050</v>
       </c>
@@ -11026,8 +12121,11 @@
       <c r="I364" s="2">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J364" s="3">
+        <v>211.27656655616201</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>52075</v>
       </c>
@@ -11055,8 +12153,11 @@
       <c r="I365" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J365" s="3">
+        <v>212.082497316776</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>52100</v>
       </c>
@@ -11084,8 +12185,11 @@
       <c r="I366" s="2">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J366" s="3">
+        <v>212.99259474405699</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>52125</v>
       </c>
@@ -11113,8 +12217,11 @@
       <c r="I367" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J367" s="3">
+        <v>214.00685883800401</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>52150</v>
       </c>
@@ -11142,8 +12249,11 @@
       <c r="I368" s="2">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J368" s="3">
+        <v>215.09187597515401</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>52175</v>
       </c>
@@ -11171,8 +12281,11 @@
       <c r="I369" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J369" s="3">
+        <v>216.17895643346799</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>52200</v>
       </c>
@@ -11200,8 +12313,11 @@
       <c r="I370" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J370" s="3">
+        <v>217.266036891781</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>52225</v>
       </c>
@@ -11229,8 +12345,11 @@
       <c r="I371" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J371" s="3">
+        <v>218.353117350095</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>52250</v>
       </c>
@@ -11258,8 +12377,11 @@
       <c r="I372" s="2">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J372" s="3">
+        <v>219.44019780840901</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>52275</v>
       </c>
@@ -11287,8 +12409,11 @@
       <c r="I373" s="2">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J373" s="3">
+        <v>220.52727826672299</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>52300</v>
       </c>
@@ -11316,8 +12441,11 @@
       <c r="I374" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J374" s="3">
+        <v>221.60356185982801</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>52325</v>
       </c>
@@ -11345,8 +12473,11 @@
       <c r="I375" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J375" s="3">
+        <v>222.67984545293299</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>52350</v>
       </c>
@@ -11374,8 +12505,11 @@
       <c r="I376" s="2">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J376" s="3">
+        <v>223.75612904603801</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>52375</v>
       </c>
@@ -11403,8 +12537,11 @@
       <c r="I377" s="2">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J377" s="3">
+        <v>224.832412639143</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>52400</v>
       </c>
@@ -11432,8 +12569,11 @@
       <c r="I378" s="2">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J378" s="3">
+        <v>225.87778712625101</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>52425</v>
       </c>
@@ -11461,8 +12601,11 @@
       <c r="I379" s="2">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J379" s="3">
+        <v>226.853828031717</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>52450</v>
       </c>
@@ -11490,8 +12633,11 @@
       <c r="I380" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J380" s="3">
+        <v>227.760424492738</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>52475</v>
       </c>
@@ -11519,8 +12665,11 @@
       <c r="I381" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J381" s="3">
+        <v>228.59757650931499</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>52500</v>
       </c>
@@ -11548,8 +12697,11 @@
       <c r="I382" s="2">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J382" s="3">
+        <v>229.36528408144801</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>52525</v>
       </c>
@@ -11577,8 +12729,11 @@
       <c r="I383" s="2">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J383" s="3">
+        <v>230.063547209136</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>52550</v>
       </c>
@@ -11606,8 +12761,11 @@
       <c r="I384" s="2">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J384" s="3">
+        <v>230.69236589238</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>52575</v>
       </c>
@@ -11635,8 +12793,11 @@
       <c r="I385" s="2">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J385" s="3">
+        <v>231.25174013117899</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>52600</v>
       </c>
@@ -11664,8 +12825,11 @@
       <c r="I386" s="2">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J386" s="3">
+        <v>231.74166992553401</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>52625</v>
       </c>
@@ -11693,8 +12857,11 @@
       <c r="I387" s="2">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J387" s="3">
+        <v>232.16215527544401</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>52650</v>
       </c>
@@ -11722,8 +12889,11 @@
       <c r="I388" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J388" s="3">
+        <v>232.51319618091</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>52675</v>
       </c>
@@ -11751,8 +12921,11 @@
       <c r="I389" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J389" s="3">
+        <v>232.79479264193199</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>52700</v>
       </c>
@@ -11780,8 +12953,11 @@
       <c r="I390" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J390" s="3">
+        <v>233.00694465850901</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>52725</v>
       </c>
@@ -11809,8 +12985,11 @@
       <c r="I391" s="2">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J391" s="3">
+        <v>233.15173661852899</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>52750</v>
       </c>
@@ -11838,8 +13017,11 @@
       <c r="I392" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J392" s="3">
+        <v>233.27673661852899</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>52775</v>
       </c>
@@ -11867,8 +13049,11 @@
       <c r="I393" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J393" s="3">
+        <v>233.40173661852899</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>52800</v>
       </c>
@@ -11896,8 +13081,11 @@
       <c r="I394" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J394" s="3">
+        <v>233.52673661852899</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>52825</v>
       </c>
@@ -11925,8 +13113,11 @@
       <c r="I395" s="2">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J395" s="3">
+        <v>233.65173661852899</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>52850</v>
       </c>
@@ -11954,8 +13145,11 @@
       <c r="I396" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J396" s="3">
+        <v>233.77673661852899</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>52875</v>
       </c>
@@ -11983,8 +13177,11 @@
       <c r="I397" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J397" s="3">
+        <v>233.90173661852899</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>52900</v>
       </c>
@@ -12012,8 +13209,11 @@
       <c r="I398" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J398" s="3">
+        <v>234.02673661852899</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>52925</v>
       </c>
@@ -12041,8 +13241,11 @@
       <c r="I399" s="2">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J399" s="3">
+        <v>234.15173661852899</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>52950</v>
       </c>
@@ -12070,8 +13273,11 @@
       <c r="I400" s="2">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J400" s="3">
+        <v>234.27673661852899</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>52975</v>
       </c>
@@ -12099,8 +13305,11 @@
       <c r="I401" s="2">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J401" s="3">
+        <v>234.40173661852899</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>53000</v>
       </c>
@@ -12128,8 +13337,11 @@
       <c r="I402" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J402" s="3">
+        <v>234.52673661852899</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>53025</v>
       </c>
@@ -12157,8 +13369,11 @@
       <c r="I403" s="2">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J403" s="3">
+        <v>234.65327201366</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>53050</v>
       </c>
@@ -12186,8 +13401,11 @@
       <c r="I404" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J404" s="3">
+        <v>234.85377049094899</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>53075</v>
       </c>
@@ -12215,8 +13433,11 @@
       <c r="I405" s="2">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J405" s="3">
+        <v>235.16790533187401</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>53100</v>
       </c>
@@ -12244,8 +13465,11 @@
       <c r="I406" s="2">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J406" s="3">
+        <v>235.595676536436</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>53125</v>
       </c>
@@ -12273,8 +13497,11 @@
       <c r="I407" s="2">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J407" s="3">
+        <v>236.13708410463499</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>53150</v>
       </c>
@@ -12302,8 +13529,11 @@
       <c r="I408" s="2">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J408" s="3">
+        <v>236.79212803646899</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>53175</v>
       </c>
@@ -12331,8 +13561,11 @@
       <c r="I409" s="2">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J409" s="3">
+        <v>237.56080833194</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>53200</v>
       </c>
@@ -12360,8 +13593,11 @@
       <c r="I410" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J410" s="3">
+        <v>238.44312499104799</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>53225</v>
       </c>
@@ -12389,8 +13625,11 @@
       <c r="I411" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J411" s="3">
+        <v>239.439078013791</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>53250</v>
       </c>
@@ -12418,8 +13657,11 @@
       <c r="I412" s="2">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J412" s="3">
+        <v>240.54866740017101</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>53275</v>
       </c>
@@ -12447,8 +13689,11 @@
       <c r="I413" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J413" s="3">
+        <v>241.76804413659701</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>53300</v>
       </c>
@@ -12476,8 +13721,11 @@
       <c r="I414" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J414" s="3">
+        <v>243.01851145915899</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>53325</v>
       </c>
@@ -12505,8 +13753,11 @@
       <c r="I415" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J415" s="3">
+        <v>244.26897878172099</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>53350</v>
       </c>
@@ -12534,8 +13785,11 @@
       <c r="I416" s="2">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J416" s="3">
+        <v>245.51944610428299</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>53375</v>
       </c>
@@ -12563,8 +13817,11 @@
       <c r="I417" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J417" s="3">
+        <v>246.76991342684499</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>53400</v>
       </c>
@@ -12592,8 +13849,11 @@
       <c r="I418" s="2">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J418" s="3">
+        <v>248.020380749407</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>53425</v>
       </c>
@@ -12621,8 +13881,11 @@
       <c r="I419" s="2">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J419" s="3">
+        <v>249.270848071968</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>53450</v>
       </c>
@@ -12650,8 +13913,11 @@
       <c r="I420" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J420" s="3">
+        <v>250.52131539453001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>53475</v>
       </c>
@@ -12679,8 +13945,11 @@
       <c r="I421" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J421" s="3">
+        <v>251.77178271709201</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>53500</v>
       </c>
@@ -12708,8 +13977,11 @@
       <c r="I422" s="2">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J422" s="3">
+        <v>253.02225003965401</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>53525</v>
       </c>
@@ -12737,8 +14009,11 @@
       <c r="I423" s="2">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J423" s="3">
+        <v>254.27271736221601</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>53550</v>
       </c>
@@ -12766,8 +14041,11 @@
       <c r="I424" s="2">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J424" s="3">
+        <v>255.52318468477799</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>53575</v>
       </c>
@@ -12795,8 +14073,11 @@
       <c r="I425" s="2">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J425" s="3">
+        <v>256.77365200733999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>53600</v>
       </c>
@@ -12824,8 +14105,11 @@
       <c r="I426" s="2">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J426" s="3">
+        <v>258.02411932990202</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>53625</v>
       </c>
@@ -12853,8 +14137,11 @@
       <c r="I427" s="2">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J427" s="3">
+        <v>259.274586652464</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>53650</v>
       </c>
@@ -12882,8 +14169,11 @@
       <c r="I428" s="2">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J428" s="3">
+        <v>260.525053975025</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>53675</v>
       </c>
@@ -12911,8 +14201,11 @@
       <c r="I429" s="2">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J429" s="3">
+        <v>261.775521297588</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>53700</v>
       </c>
@@ -12940,8 +14233,11 @@
       <c r="I430" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J430" s="3">
+        <v>263.02597892737703</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>53725</v>
       </c>
@@ -12969,8 +14265,11 @@
       <c r="I431" s="2">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J431" s="3">
+        <v>264.24775590726102</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>53750</v>
       </c>
@@ -12998,8 +14297,11 @@
       <c r="I432" s="2">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J432" s="3">
+        <v>265.41422315263202</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>53775</v>
       </c>
@@ -13027,8 +14329,11 @@
       <c r="I433" s="2">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J433" s="3">
+        <v>266.52538066348899</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>53800</v>
       </c>
@@ -13056,8 +14361,11 @@
       <c r="I434" s="2">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J434" s="3">
+        <v>267.58122843983301</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>53825</v>
       </c>
@@ -13085,8 +14393,11 @@
       <c r="I435" s="2">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J435" s="3">
+        <v>268.58176648166398</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>53850</v>
       </c>
@@ -13114,8 +14425,11 @@
       <c r="I436" s="2">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J436" s="3">
+        <v>269.52699478898199</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>53875</v>
       </c>
@@ -13143,8 +14457,11 @@
       <c r="I437" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J437" s="3">
+        <v>270.41691336178599</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>53900</v>
       </c>
@@ -13172,8 +14489,11 @@
       <c r="I438" s="2">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J438" s="3">
+        <v>271.251522200078</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>53925</v>
       </c>
@@ -13201,8 +14521,11 @@
       <c r="I439" s="2">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J439" s="3">
+        <v>272.03082130385502</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>53950</v>
       </c>
@@ -13230,8 +14553,11 @@
       <c r="I440" s="2">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J440" s="3">
+        <v>272.75481067312001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>53975</v>
       </c>
@@ -13259,8 +14585,11 @@
       <c r="I441" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J441" s="3">
+        <v>273.42349030787102</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>54000</v>
       </c>
@@ -13288,8 +14617,11 @@
       <c r="I442" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J442" s="3">
+        <v>274.03686020810898</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>54025</v>
       </c>
@@ -13317,8 +14649,11 @@
       <c r="I443" s="2">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J443" s="3">
+        <v>274.59492037383399</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>54050</v>
       </c>
@@ -13346,8 +14681,11 @@
       <c r="I444" s="2">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J444" s="3">
+        <v>275.09767080504599</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>54075</v>
       </c>
@@ -13375,8 +14713,11 @@
       <c r="I445" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J445" s="3">
+        <v>275.54511150174397</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>54100</v>
       </c>
@@ -13404,8 +14745,11 @@
       <c r="I446" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J446" s="3">
+        <v>275.93824087264602</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>54125</v>
       </c>
@@ -13433,8 +14777,11 @@
       <c r="I447" s="2">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J447" s="3">
+        <v>276.31322617507197</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>54150</v>
       </c>
@@ -13462,8 +14809,11 @@
       <c r="I448" s="2">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J448" s="3">
+        <v>276.68821147749702</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>54175</v>
       </c>
@@ -13491,8 +14841,11 @@
       <c r="I449" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J449" s="3">
+        <v>277.06319677992201</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>54200</v>
       </c>
@@ -13520,8 +14873,11 @@
       <c r="I450" s="2">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J450" s="3">
+        <v>277.43818208234802</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>54225</v>
       </c>
@@ -13549,8 +14905,11 @@
       <c r="I451" s="2">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J451" s="3">
+        <v>277.81316738477301</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>54250</v>
       </c>
@@ -13578,8 +14937,11 @@
       <c r="I452" s="2">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J452" s="3">
+        <v>278.18815268719902</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>54275</v>
       </c>
@@ -13607,8 +14969,11 @@
       <c r="I453" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J453" s="3">
+        <v>278.56313798962401</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>54300</v>
       </c>
@@ -13636,8 +15001,11 @@
       <c r="I454" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J454" s="3">
+        <v>278.93812329205002</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>54325</v>
       </c>
@@ -13665,8 +15033,11 @@
       <c r="I455" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J455" s="3">
+        <v>279.31310859447501</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>54350</v>
       </c>
@@ -13694,8 +15065,11 @@
       <c r="I456" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J456" s="3">
+        <v>279.6880938969</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>54375</v>
       </c>
@@ -13723,8 +15097,11 @@
       <c r="I457" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J457" s="3">
+        <v>280.06307919932601</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>54400</v>
       </c>
@@ -13752,8 +15129,11 @@
       <c r="I458" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J458" s="3">
+        <v>280.438064501751</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>54425</v>
       </c>
@@ -13781,8 +15161,11 @@
       <c r="I459" s="2">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J459" s="3">
+        <v>280.81304980417701</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>54450</v>
       </c>
@@ -13810,8 +15193,11 @@
       <c r="I460" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J460" s="3">
+        <v>281.188035106602</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>54475</v>
       </c>
@@ -13839,8 +15225,11 @@
       <c r="I461" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J461" s="3">
+        <v>281.56302040902699</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>54500</v>
       </c>
@@ -13868,8 +15257,11 @@
       <c r="I462" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J462" s="3">
+        <v>281.92487145013899</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>54525</v>
       </c>
@@ -13897,8 +15289,11 @@
       <c r="I463" s="2">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J463" s="3">
+        <v>282.28672249124901</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>54550</v>
       </c>
@@ -13926,8 +15321,11 @@
       <c r="I464" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J464" s="3">
+        <v>282.64857353235902</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>54575</v>
       </c>
@@ -13955,8 +15353,11 @@
       <c r="I465" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J465" s="3">
+        <v>283.01042457346801</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>54600</v>
       </c>
@@ -13984,8 +15385,11 @@
       <c r="I466" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J466" s="3">
+        <v>283.37227561457797</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>54625</v>
       </c>
@@ -14013,8 +15417,11 @@
       <c r="I467" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J467" s="3">
+        <v>283.73412665568799</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>54650</v>
       </c>
@@ -14042,8 +15449,11 @@
       <c r="I468" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J468" s="3">
+        <v>284.095977696798</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>54675</v>
       </c>
@@ -14071,8 +15481,11 @@
       <c r="I469" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J469" s="3">
+        <v>284.45782873790699</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>54700</v>
       </c>
@@ -14100,8 +15513,11 @@
       <c r="I470" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J470" s="3">
+        <v>284.81967977901701</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>54725</v>
       </c>
@@ -14129,8 +15545,11 @@
       <c r="I471" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J471" s="3">
+        <v>285.18153082012702</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>54750</v>
       </c>
@@ -14158,8 +15577,11 @@
       <c r="I472" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J472" s="3">
+        <v>285.54338186123601</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>54775</v>
       </c>
@@ -14187,8 +15609,11 @@
       <c r="I473" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J473" s="3">
+        <v>285.90523290234597</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>54800</v>
       </c>
@@ -14216,8 +15641,11 @@
       <c r="I474" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J474" s="3">
+        <v>286.26708394345599</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>54825</v>
       </c>
@@ -14245,8 +15673,11 @@
       <c r="I475" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J475" s="3">
+        <v>286.628934984566</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>54850</v>
       </c>
@@ -14274,8 +15705,11 @@
       <c r="I476" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J476" s="3">
+        <v>286.99078602567602</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>54875</v>
       </c>
@@ -14303,8 +15737,11 @@
       <c r="I477" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J477" s="3">
+        <v>287.35263706678501</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>54900</v>
       </c>
@@ -14332,8 +15769,11 @@
       <c r="I478" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J478" s="3">
+        <v>287.74744881069802</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>54925</v>
       </c>
@@ -14361,8 +15801,11 @@
       <c r="I479" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J479" s="3">
+        <v>288.14226055461</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>54950</v>
       </c>
@@ -14390,8 +15833,11 @@
       <c r="I480" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J480" s="3">
+        <v>288.53707229852199</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>54975</v>
       </c>
@@ -14419,8 +15865,11 @@
       <c r="I481" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J481" s="3">
+        <v>288.931884042435</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>55000</v>
       </c>
@@ -14448,8 +15897,11 @@
       <c r="I482" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J482" s="3">
+        <v>289.32669578634699</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>55025</v>
       </c>
@@ -14477,8 +15929,11 @@
       <c r="I483" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J483" s="3">
+        <v>289.72150753026</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>55050</v>
       </c>
@@ -14506,8 +15961,11 @@
       <c r="I484" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J484" s="3">
+        <v>290.11631927417199</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>55075</v>
       </c>
@@ -14535,8 +15993,11 @@
       <c r="I485" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J485" s="3">
+        <v>290.51113101808397</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>55100</v>
       </c>
@@ -14564,8 +16025,11 @@
       <c r="I486" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J486" s="3">
+        <v>290.93735806852101</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>55125</v>
       </c>
@@ -14593,8 +16057,11 @@
       <c r="I487" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J487" s="3">
+        <v>291.36358511895799</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>55150</v>
       </c>
@@ -14622,8 +16089,11 @@
       <c r="I488" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J488" s="3">
+        <v>291.78981216939502</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>55175</v>
       </c>
@@ -14651,8 +16121,11 @@
       <c r="I489" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J489" s="3">
+        <v>292.21603921983098</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>55200</v>
       </c>
@@ -14680,8 +16153,11 @@
       <c r="I490" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J490" s="3">
+        <v>292.64226627026801</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>55225</v>
       </c>
@@ -14709,8 +16185,11 @@
       <c r="I491" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J491" s="3">
+        <v>293.06849332070499</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>55250</v>
       </c>
@@ -14738,8 +16217,11 @@
       <c r="I492" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J492" s="3">
+        <v>293.494720371141</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>55275</v>
       </c>
@@ -14767,8 +16249,11 @@
       <c r="I493" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J493" s="3">
+        <v>293.86886215624497</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>55300</v>
       </c>
@@ -14796,8 +16281,11 @@
       <c r="I494" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J494" s="3">
+        <v>294.19992250158799</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>55325</v>
       </c>
@@ -14825,8 +16313,11 @@
       <c r="I495" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J495" s="3">
+        <v>294.53098284693101</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>55350</v>
       </c>
@@ -14854,8 +16345,11 @@
       <c r="I496" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J496" s="3">
+        <v>294.86204319227397</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>55375</v>
       </c>
@@ -14883,8 +16377,11 @@
       <c r="I497" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J497" s="3">
+        <v>295.19310353761603</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>55400</v>
       </c>
@@ -14912,8 +16409,11 @@
       <c r="I498" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J498" s="3">
+        <v>295.50461738417101</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>55425</v>
       </c>
@@ -14941,8 +16441,11 @@
       <c r="I499" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J499" s="3">
+        <v>295.75499785647497</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>55450</v>
       </c>
@@ -14970,8 +16473,11 @@
       <c r="I500" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J500" s="3">
+        <v>295.94287832877899</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>55475</v>
       </c>
@@ -14999,8 +16505,11 @@
       <c r="I501" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J501" s="3">
+        <v>296.06825880108403</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>55500</v>
       </c>
@@ -15028,8 +16537,11 @@
       <c r="I502" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J502" s="3">
+        <v>296.13113927338799</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>55525</v>
       </c>
@@ -15057,8 +16569,11 @@
       <c r="I503" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J503" s="3">
+        <v>296.131519745692</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>55550</v>
       </c>
@@ -15086,8 +16601,11 @@
       <c r="I504" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J504" s="3">
+        <v>296.06940021799699</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>55575</v>
       </c>
@@ -15115,8 +16633,11 @@
       <c r="I505" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J505" s="3">
+        <v>295.944780690301</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>55600</v>
       </c>
@@ -15144,8 +16665,11 @@
       <c r="I506" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J506" s="3">
+        <v>295.75766116260502</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>55625</v>
       </c>
@@ -15173,8 +16697,11 @@
       <c r="I507" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J507" s="3">
+        <v>295.50804163490898</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>55650</v>
       </c>
@@ -15202,8 +16729,11 @@
       <c r="I508" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J508" s="3">
+        <v>295.19592210721402</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>55675</v>
       </c>
@@ -15231,8 +16761,11 @@
       <c r="I509" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J509" s="3">
+        <v>294.82130257951798</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>55700</v>
       </c>
@@ -15260,8 +16793,11 @@
       <c r="I510" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J510" s="3">
+        <v>294.38418305182199</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>55725</v>
       </c>
@@ -15289,8 +16825,11 @@
       <c r="I511" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J511" s="3">
+        <v>293.88456352412697</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>55750</v>
       </c>
@@ -15318,8 +16857,11 @@
       <c r="I512" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J512" s="3">
+        <v>293.32244399643099</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>55775</v>
       </c>
@@ -15347,8 +16889,11 @@
       <c r="I513" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J513" s="3">
+        <v>292.716734924793</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>55800</v>
       </c>
@@ -15376,8 +16921,11 @@
       <c r="I514" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J514" s="3">
+        <v>292.10948439551697</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>55825</v>
       </c>
@@ -15405,8 +16953,11 @@
       <c r="I515" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J515" s="3">
+        <v>291.49206151394702</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>55850</v>
       </c>
@@ -15434,8 +16985,11 @@
       <c r="I516" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J516" s="3">
+        <v>290.82438514737203</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>55875</v>
       </c>
@@ -15463,8 +17017,11 @@
       <c r="I517" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J517" s="3">
+        <v>290.10236095470901</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>55900</v>
       </c>
@@ -15492,8 +17049,11 @@
       <c r="I518" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J518" s="3">
+        <v>289.32598893596003</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>55925</v>
       </c>
@@ -15521,8 +17081,11 @@
       <c r="I519" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J519" s="3">
+        <v>288.49526909112399</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>55950</v>
       </c>
@@ -15550,8 +17113,11 @@
       <c r="I520" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J520" s="3">
+        <v>287.61020142020197</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>55975</v>
       </c>
@@ -15579,8 +17145,11 @@
       <c r="I521" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J521" s="3">
+        <v>286.670785923192</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>56000</v>
       </c>
@@ -15608,8 +17177,11 @@
       <c r="I522" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J522" s="3">
+        <v>285.67702260009497</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>56025</v>
       </c>
@@ -15637,8 +17209,11 @@
       <c r="I523" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J523" s="3">
+        <v>284.62891145091203</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>56050</v>
       </c>
@@ -15666,8 +17241,11 @@
       <c r="I524" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J524" s="3">
+        <v>283.53924562960401</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>56075</v>
       </c>
@@ -15695,8 +17273,11 @@
       <c r="I525" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J525" s="3">
+        <v>282.44690295734199</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>56100</v>
       </c>
@@ -15724,8 +17305,11 @@
       <c r="I526" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J526" s="3">
+        <v>281.35146239704898</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>56125</v>
       </c>
@@ -15753,8 +17337,11 @@
       <c r="I527" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J527" s="3">
+        <v>280.21359569021701</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>56150</v>
       </c>
@@ -15782,8 +17369,11 @@
       <c r="I528" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J528" s="3">
+        <v>279.02138115729798</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>56175</v>
       </c>
@@ -15811,8 +17401,11 @@
       <c r="I529" s="2">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J529" s="3">
+        <v>277.77481879829298</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>56200</v>
       </c>
@@ -15840,8 +17433,11 @@
       <c r="I530" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J530" s="3">
+        <v>276.47390861320002</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>56225</v>
       </c>
@@ -15869,8 +17465,11 @@
       <c r="I531" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J531" s="3">
+        <v>275.11865060202001</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>56250</v>
       </c>
@@ -15898,8 +17497,11 @@
       <c r="I532" s="2">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J532" s="3">
+        <v>273.70904476475403</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>56275</v>
       </c>
@@ -15927,8 +17529,11 @@
       <c r="I533" s="2">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J533" s="3">
+        <v>272.24509110140002</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>56300</v>
       </c>
@@ -15956,8 +17561,11 @@
       <c r="I534" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J534" s="3">
+        <v>270.72777345308901</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>56325</v>
       </c>
@@ -15985,8 +17593,11 @@
       <c r="I535" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J535" s="3">
+        <v>269.19263919431</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>56350</v>
       </c>
@@ -16014,8 +17625,11 @@
       <c r="I536" s="2">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J536" s="3">
+        <v>267.65750493553202</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>56375</v>
       </c>
@@ -16043,8 +17657,11 @@
       <c r="I537" s="2">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J537" s="3">
+        <v>266.12237067675301</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>56400</v>
       </c>
@@ -16072,8 +17689,11 @@
       <c r="I538" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J538" s="3">
+        <v>264.58723641797502</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>56425</v>
       </c>
@@ -16101,8 +17721,11 @@
       <c r="I539" s="2">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J539" s="3">
+        <v>263.05210215919601</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>56450</v>
       </c>
@@ -16130,8 +17753,11 @@
       <c r="I540" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J540" s="3">
+        <v>261.51696790041802</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>56475</v>
       </c>
@@ -16159,8 +17785,11 @@
       <c r="I541" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J541" s="3">
+        <v>259.98183364163901</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>56500</v>
       </c>
@@ -16188,8 +17817,11 @@
       <c r="I542" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J542" s="3">
+        <v>258.44669938286103</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>56525</v>
       </c>
@@ -16217,8 +17849,11 @@
       <c r="I543" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J543" s="3">
+        <v>256.91156512408202</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>56550</v>
       </c>
@@ -16246,8 +17881,11 @@
       <c r="I544" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J544" s="3">
+        <v>255.424395465022</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>56575</v>
       </c>
@@ -16275,8 +17913,11 @@
       <c r="I545" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J545" s="3">
+        <v>254.101016606965</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>56600</v>
       </c>
@@ -16304,8 +17945,11 @@
       <c r="I546" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J546" s="3">
+        <v>252.946556667827</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>56625</v>
       </c>
@@ -16333,8 +17977,11 @@
       <c r="I547" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J547" s="3">
+        <v>251.96101564761</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>56650</v>
       </c>
@@ -16362,8 +18009,11 @@
       <c r="I548" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J548" s="3">
+        <v>251.12925859045899</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>56675</v>
       </c>
@@ -16391,8 +18041,11 @@
       <c r="I549" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J549" s="3">
+        <v>250.38799013741701</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>56700</v>
       </c>
@@ -16420,8 +18073,11 @@
       <c r="I550" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J550" s="3">
+        <v>249.73835940462101</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>56725</v>
       </c>
@@ -16449,8 +18105,11 @@
       <c r="I551" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J551" s="3">
+        <v>249.20217161799701</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>56750</v>
       </c>
@@ -16478,8 +18137,11 @@
       <c r="I552" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J552" s="3">
+        <v>248.79098383137301</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>56775</v>
       </c>
@@ -16507,8 +18169,11 @@
       <c r="I553" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J553" s="3">
+        <v>248.50479604474799</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>56800</v>
       </c>
@@ -16536,8 +18201,11 @@
       <c r="I554" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J554" s="3">
+        <v>248.34360825812399</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>56825</v>
       </c>
@@ -16565,8 +18233,11 @@
       <c r="I555" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J555" s="3">
+        <v>248.307420471499</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>56850</v>
       </c>
@@ -16594,8 +18265,11 @@
       <c r="I556" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J556" s="3">
+        <v>248.396232684875</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>56875</v>
       </c>
@@ -16623,8 +18297,11 @@
       <c r="I557" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J557" s="3">
+        <v>248.610044898251</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>56900</v>
       </c>
@@ -16652,8 +18329,11 @@
       <c r="I558" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J558" s="3">
+        <v>248.94885711162601</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>56925</v>
       </c>
@@ -16681,8 +18361,11 @@
       <c r="I559" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J559" s="3">
+        <v>249.41266932500201</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>56950</v>
       </c>
@@ -16710,8 +18393,11 @@
       <c r="I560" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J560" s="3">
+        <v>250.00148153837799</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>56975</v>
       </c>
@@ -16739,8 +18425,11 @@
       <c r="I561" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J561" s="3">
+        <v>250.71529375175299</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>57000</v>
       </c>
@@ -16768,8 +18457,11 @@
       <c r="I562" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J562" s="3">
+        <v>251.554105965129</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>57025</v>
       </c>
@@ -16797,8 +18489,11 @@
       <c r="I563" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J563" s="3">
+        <v>252.515352511467</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>57050</v>
       </c>
@@ -16826,8 +18521,11 @@
       <c r="I564" s="2">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J564" s="3">
+        <v>253.51633851787199</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>57075</v>
       </c>
@@ -16855,8 +18553,11 @@
       <c r="I565" s="2">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J565" s="3">
+        <v>254.51073706356601</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>57100</v>
       </c>
@@ -16884,8 +18585,11 @@
       <c r="I566" s="2">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J566" s="3">
+        <v>255.446753118929</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>57125</v>
       </c>
@@ -16913,8 +18617,11 @@
       <c r="I567" s="2">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J567" s="3">
+        <v>256.31332472984798</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>57150</v>
       </c>
@@ -16942,8 +18649,11 @@
       <c r="I568" s="2">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J568" s="3">
+        <v>257.11045189632301</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>57175</v>
       </c>
@@ -16971,8 +18681,11 @@
       <c r="I569" s="2">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J569" s="3">
+        <v>257.83813461835302</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>57200</v>
       </c>
@@ -17000,8 +18713,11 @@
       <c r="I570" s="2">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J570" s="3">
+        <v>258.49637289593898</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>57225</v>
       </c>
@@ -17029,8 +18745,11 @@
       <c r="I571" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J571" s="3">
+        <v>259.08516672908002</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>57250</v>
       </c>
@@ -17058,8 +18777,11 @@
       <c r="I572" s="2">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J572" s="3">
+        <v>259.604516117777</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>57275</v>
       </c>
@@ -17087,8 +18809,11 @@
       <c r="I573" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J573" s="3">
+        <v>260.05442106202901</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>57300</v>
       </c>
@@ -17116,8 +18841,11 @@
       <c r="I574" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J574" s="3">
+        <v>260.43488156183702</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>57325</v>
       </c>
@@ -17145,8 +18873,11 @@
       <c r="I575" s="2">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J575" s="3">
+        <v>260.7458976172</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>57350</v>
       </c>
@@ -17174,8 +18905,11 @@
       <c r="I576" s="2">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J576" s="3">
+        <v>260.98746922811898</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>57375</v>
       </c>
@@ -17203,8 +18937,11 @@
       <c r="I577" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J577" s="3">
+        <v>261.15959639459402</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>57400</v>
       </c>
@@ -17232,8 +18969,11 @@
       <c r="I578" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J578" s="3">
+        <v>261.26227911662397</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>57425</v>
       </c>
@@ -17261,8 +19001,11 @@
       <c r="I579" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J579" s="3">
+        <v>261.29551739420998</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>57450</v>
       </c>
@@ -17290,8 +19033,11 @@
       <c r="I580" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J580" s="3">
+        <v>261.25931122735102</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>57475</v>
       </c>
@@ -17319,8 +19065,11 @@
       <c r="I581" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J581" s="3">
+        <v>261.153660616048</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>57500</v>
       </c>
@@ -17348,8 +19097,11 @@
       <c r="I582" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J582" s="3">
+        <v>260.97856556030001</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>57525</v>
       </c>
@@ -17377,8 +19129,11 @@
       <c r="I583" s="2">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J583" s="3">
+        <v>260.74362753196601</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>57550</v>
       </c>
@@ -17406,8 +19161,11 @@
       <c r="I584" s="2">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J584" s="3">
+        <v>260.50088344581297</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>57575</v>
       </c>
@@ -17435,8 +19193,11 @@
       <c r="I585" s="2">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J585" s="3">
+        <v>260.25813935966102</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>57600</v>
       </c>
@@ -17464,8 +19225,11 @@
       <c r="I586" s="2">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J586" s="3">
+        <v>260.01539527350798</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>57625</v>
       </c>
@@ -17493,8 +19257,11 @@
       <c r="I587" s="2">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J587" s="3">
+        <v>259.772651187355</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>57650</v>
       </c>
@@ -17522,8 +19289,11 @@
       <c r="I588" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J588" s="3">
+        <v>259.52990710120201</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>57675</v>
       </c>
@@ -17551,8 +19321,11 @@
       <c r="I589" s="2">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J589" s="3">
+        <v>259.28716301504898</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>57700</v>
       </c>
@@ -17580,8 +19353,11 @@
       <c r="I590" s="2">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J590" s="3">
+        <v>259.04441892889599</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>57725</v>
       </c>
@@ -17609,8 +19385,11 @@
       <c r="I591" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J591" s="3">
+        <v>258.80167484274301</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>57750</v>
       </c>
@@ -17638,8 +19417,11 @@
       <c r="I592" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J592" s="3">
+        <v>258.55893075658997</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>57775</v>
       </c>
@@ -17667,8 +19449,11 @@
       <c r="I593" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J593" s="3">
+        <v>258.31618667043699</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>57800</v>
       </c>
@@ -17696,8 +19481,11 @@
       <c r="I594" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J594" s="3">
+        <v>258.07344258428401</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>57825</v>
       </c>
@@ -17725,8 +19513,11 @@
       <c r="I595" s="2">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J595" s="3">
+        <v>257.83016595516102</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>57850</v>
       </c>
@@ -17754,8 +19545,11 @@
       <c r="I596" s="2">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J596" s="3">
+        <v>257.54409939671098</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>57875</v>
       </c>
@@ -17783,8 +19577,11 @@
       <c r="I597" s="2">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J597" s="3">
+        <v>257.18858839381699</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>57900</v>
       </c>
@@ -17812,8 +19609,11 @@
       <c r="I598" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J598" s="3">
+        <v>256.76363294647803</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>57925</v>
       </c>
@@ -17841,8 +19641,11 @@
       <c r="I599" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J599" s="3">
+        <v>256.26923305469501</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>57950</v>
       </c>
@@ -17870,8 +19673,11 @@
       <c r="I600" s="2">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J600" s="3">
+        <v>255.70538871846699</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>57975</v>
       </c>
@@ -17899,8 +19705,11 @@
       <c r="I601" s="2">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J601" s="3">
+        <v>255.072099937795</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>58000</v>
       </c>
@@ -17928,8 +19737,11 @@
       <c r="I602" s="2">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J602" s="3">
+        <v>254.36936671267799</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>58025</v>
       </c>
@@ -17957,8 +19769,11 @@
       <c r="I603" s="2">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J603" s="3">
+        <v>253.597189043117</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>58050</v>
       </c>
@@ -17986,16 +19801,11 @@
       <c r="I604" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J604" s="2">
-        <f>26/2</f>
-        <v>13</v>
-      </c>
-      <c r="K604" s="2">
-        <f>52/2</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J604" s="3">
+        <v>252.75556692911201</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>58075</v>
       </c>
@@ -18023,8 +19833,11 @@
       <c r="I605" s="2">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J605" s="3">
+        <v>251.844509436468</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>58100</v>
       </c>
@@ -18052,8 +19865,11 @@
       <c r="I606" s="2">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J606" s="3">
+        <v>250.89984276980201</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>58125</v>
       </c>
@@ -18081,8 +19897,11 @@
       <c r="I607" s="2">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J607" s="3">
+        <v>249.95517610313499</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>58150</v>
       </c>
@@ -18110,8 +19929,11 @@
       <c r="I608" s="2">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J608" s="3">
+        <v>249.010509436468</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>58175</v>
       </c>
@@ -18139,8 +19961,11 @@
       <c r="I609" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J609" s="3">
+        <v>248.065842769802</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
         <v>58200</v>
       </c>
@@ -18168,8 +19993,11 @@
       <c r="I610" s="2">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J610" s="3">
+        <v>247.12117610313501</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>58225</v>
       </c>
@@ -18197,8 +20025,11 @@
       <c r="I611" s="2">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J611" s="3">
+        <v>246.176509436468</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
         <v>58250</v>
       </c>
@@ -18226,8 +20057,11 @@
       <c r="I612" s="2">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J612" s="3">
+        <v>245.23184276980101</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>58275</v>
       </c>
@@ -18255,8 +20089,11 @@
       <c r="I613" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J613" s="3">
+        <v>244.28723558330501</v>
+      </c>
+    </row>
+    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
         <v>58300</v>
       </c>
@@ -18284,8 +20121,11 @@
       <c r="I614" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J614" s="3">
+        <v>243.36562861042901</v>
+      </c>
+    </row>
+    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>58325</v>
       </c>
@@ -18313,8 +20153,11 @@
       <c r="I615" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J615" s="3">
+        <v>242.48568830421999</v>
+      </c>
+    </row>
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A616" s="2">
         <v>58350</v>
       </c>
@@ -18342,8 +20185,11 @@
       <c r="I616" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J616" s="3">
+        <v>241.647414664677</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
         <v>58375</v>
       </c>
@@ -18371,8 +20217,11 @@
       <c r="I617" s="2">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J617" s="3">
+        <v>240.85080769179999</v>
+      </c>
+    </row>
+    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A618" s="2">
         <v>58400</v>
       </c>
@@ -18400,8 +20249,11 @@
       <c r="I618" s="2">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J618" s="3">
+        <v>240.09586738559099</v>
+      </c>
+    </row>
+    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
         <v>58425</v>
       </c>
@@ -18429,8 +20281,11 @@
       <c r="I619" s="2">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J619" s="3">
+        <v>239.38259374604701</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A620" s="2">
         <v>58450</v>
       </c>
@@ -18458,8 +20313,11 @@
       <c r="I620" s="2">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J620" s="3">
+        <v>238.71098677317099</v>
+      </c>
+    </row>
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
         <v>58475</v>
       </c>
@@ -18487,8 +20345,11 @@
       <c r="I621" s="2">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J621" s="3">
+        <v>238.081046466961</v>
+      </c>
+    </row>
+    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A622" s="2">
         <v>58500</v>
       </c>
@@ -18516,8 +20377,11 @@
       <c r="I622" s="2">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J622" s="3">
+        <v>237.49277282741801</v>
+      </c>
+    </row>
+    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A623" s="2">
         <v>58525</v>
       </c>
@@ -18545,8 +20409,11 @@
       <c r="I623" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J623" s="3">
+        <v>236.94616585454199</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A624" s="2">
         <v>58550</v>
       </c>
@@ -18574,8 +20441,11 @@
       <c r="I624" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J624" s="3">
+        <v>236.441225548332</v>
+      </c>
+    </row>
+    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625" s="2">
         <v>58575</v>
       </c>
@@ -18603,8 +20473,11 @@
       <c r="I625" s="2">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J625" s="3">
+        <v>235.97795190878901</v>
+      </c>
+    </row>
+    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626" s="2">
         <v>58600</v>
       </c>
@@ -18632,8 +20505,11 @@
       <c r="I626" s="2">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J626" s="3">
+        <v>235.55634493591299</v>
+      </c>
+    </row>
+    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627" s="2">
         <v>58625</v>
       </c>
@@ -18661,8 +20537,11 @@
       <c r="I627" s="2">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J627" s="3">
+        <v>235.17064450780799</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628" s="2">
         <v>58650</v>
       </c>
@@ -18690,8 +20569,11 @@
       <c r="I628" s="2">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J628" s="3">
+        <v>234.78962840081101</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629" s="2">
         <v>58675</v>
       </c>
@@ -18719,8 +20601,11 @@
       <c r="I629" s="2">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J629" s="3">
+        <v>234.408612293814</v>
+      </c>
+    </row>
+    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A630" s="2">
         <v>58700</v>
       </c>
@@ -18748,8 +20633,11 @@
       <c r="I630" s="2">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J630" s="3">
+        <v>234.02759618681699</v>
+      </c>
+    </row>
+    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A631" s="2">
         <v>58725</v>
       </c>
@@ -18777,8 +20665,11 @@
       <c r="I631" s="2">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J631" s="3">
+        <v>233.64658007982001</v>
+      </c>
+    </row>
+    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A632" s="2">
         <v>58750</v>
       </c>
@@ -18806,8 +20697,11 @@
       <c r="I632" s="2">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J632" s="3">
+        <v>233.265563972823</v>
+      </c>
+    </row>
+    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633" s="2">
         <v>58775</v>
       </c>
@@ -18835,8 +20729,11 @@
       <c r="I633" s="2">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J633" s="3">
+        <v>232.850082700614</v>
+      </c>
+    </row>
+    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634" s="2">
         <v>58800</v>
       </c>
@@ -18864,8 +20761,11 @@
       <c r="I634" s="2">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J634" s="3">
+        <v>232.34943670180999</v>
+      </c>
+    </row>
+    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A635" s="2">
         <v>58825</v>
       </c>
@@ -18893,8 +20793,11 @@
       <c r="I635" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J635" s="3">
+        <v>231.763174264649</v>
+      </c>
+    </row>
+    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A636" s="2">
         <v>58850</v>
       </c>
@@ -18922,8 +20825,11 @@
       <c r="I636" s="2">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J636" s="3">
+        <v>231.09129538913299</v>
+      </c>
+    </row>
+    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" s="2">
         <v>58875</v>
       </c>
@@ -18951,8 +20857,11 @@
       <c r="I637" s="2">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J637" s="3">
+        <v>230.33380007526</v>
+      </c>
+    </row>
+    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638" s="2">
         <v>58900</v>
       </c>
@@ -18980,8 +20889,11 @@
       <c r="I638" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J638" s="3">
+        <v>229.49068832303101</v>
+      </c>
+    </row>
+    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A639" s="2">
         <v>58925</v>
       </c>
@@ -19009,8 +20921,11 @@
       <c r="I639" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J639" s="3">
+        <v>228.56196013244599</v>
+      </c>
+    </row>
+    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A640" s="2">
         <v>58950</v>
       </c>
@@ -19038,8 +20953,11 @@
       <c r="I640" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J640" s="3">
+        <v>227.547615503505</v>
+      </c>
+    </row>
+    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A641" s="2">
         <v>58975</v>
       </c>
@@ -19067,8 +20985,11 @@
       <c r="I641" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J641" s="3">
+        <v>226.44765443620801</v>
+      </c>
+    </row>
+    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A642" s="2">
         <v>59000</v>
       </c>
@@ -19096,8 +21017,11 @@
       <c r="I642" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J642" s="3">
+        <v>225.262076930554</v>
+      </c>
+    </row>
+    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A643" s="2">
         <v>59025</v>
       </c>
@@ -19125,8 +21049,11 @@
       <c r="I643" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J643" s="3">
+        <v>223.99088298654399</v>
+      </c>
+    </row>
+    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A644" s="2">
         <v>59040.889000000003</v>
       </c>
@@ -19154,15 +21081,18 @@
       <c r="I644" s="2">
         <v>0.25</v>
       </c>
+      <c r="J644" s="3">
+        <v>223.13900000000001</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J192:K192">
+  <conditionalFormatting sqref="J192">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>0.001</formula>
       <formula>0.10999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J192:K192">
+  <conditionalFormatting sqref="J192">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.3</formula>
     </cfRule>
